--- a/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
+++ b/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Ti6242-1.1-CS-1-(100x)</t>
   </si>
   <si>
     <t>Area of ROI (1280*1024)</t>
+  </si>
+  <si>
+    <t>Ti6242-1.1-CS-2-(100x)</t>
   </si>
 </sst>
 </file>
@@ -430,6 +433,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">

--- a/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
+++ b/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Ti6242-1.1-CS-1-(100x)</t>
   </si>
@@ -33,6 +33,30 @@
   </si>
   <si>
     <t>Ti6242-1.1-CS-2-(100x)</t>
+  </si>
+  <si>
+    <t>Ti6242-1.1-CS-3-(100x)</t>
+  </si>
+  <si>
+    <t>Ti6242-1.1-CS-4-(200x)</t>
+  </si>
+  <si>
+    <t>Ti6242-1.1-CS-5-(200x)</t>
+  </si>
+  <si>
+    <t>Ti6242-1.1-CS-6-(200x)</t>
+  </si>
+  <si>
+    <t>Ti6242-1.1-CS-7-(500x)</t>
+  </si>
+  <si>
+    <t>Ti6242-1.1-CS-9-(500x)</t>
+  </si>
+  <si>
+    <t>Ti6242-1.1-CS-8-(500x)</t>
+  </si>
+  <si>
+    <t>Ti6242-1.1-CS-10-(500x)</t>
   </si>
 </sst>
 </file>
@@ -395,16 +419,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -436,6 +457,30 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">

--- a/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
+++ b/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Ti6242-1.1-CS-1-(100x)</t>
-  </si>
-  <si>
-    <t>Area of ROI (1280*1024)</t>
   </si>
   <si>
     <t>Ti6242-1.1-CS-2-(100x)</t>
@@ -92,16 +89,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R357"/>
+  <dimension ref="A1:L356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,63 +422,56 @@
     <col min="1" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1147</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1147</v>
+        <v>587</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -497,9 +484,9 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>587</v>
+        <v>9364</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -510,11 +497,11 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>9364</v>
+        <v>2109</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -525,11 +512,11 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2109</v>
+        <v>382</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -542,9 +529,9 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>382</v>
+        <v>1867</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -557,9 +544,9 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1867</v>
+        <v>427</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -572,9 +559,9 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>427</v>
+        <v>1167</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -587,9 +574,9 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>1167</v>
+        <v>160</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -602,9 +589,9 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>160</v>
+        <v>413</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -617,9 +604,9 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>413</v>
+        <v>217</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -632,9 +619,9 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>217</v>
+        <v>578</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -647,9 +634,9 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>578</v>
+        <v>792</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -662,9 +649,9 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>792</v>
+        <v>106</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -677,9 +664,9 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>106</v>
+        <v>2003</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -694,7 +681,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2003</v>
+        <v>308</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -709,7 +696,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>308</v>
+        <v>172</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -724,7 +711,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>172</v>
+        <v>1253</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -739,7 +726,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>1253</v>
+        <v>546</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -754,7 +741,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>546</v>
+        <v>341</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -769,7 +756,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>341</v>
+        <v>140</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -784,7 +771,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>140</v>
+        <v>711</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -799,7 +786,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>711</v>
+        <v>529</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -814,7 +801,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>529</v>
+        <v>400</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -829,7 +816,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>400</v>
+        <v>215</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -844,7 +831,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>215</v>
+        <v>2959</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -859,7 +846,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>2959</v>
+        <v>349</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -874,7 +861,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>349</v>
+        <v>972</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -889,7 +876,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>972</v>
+        <v>942</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -904,7 +891,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>942</v>
+        <v>1172</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -919,7 +906,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>1172</v>
+        <v>358</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -934,7 +921,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>358</v>
+        <v>2155</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -949,7 +936,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>2155</v>
+        <v>268</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -964,7 +951,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>268</v>
+        <v>992</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -979,7 +966,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>992</v>
+        <v>678</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -994,7 +981,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>678</v>
+        <v>829</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1009,7 +996,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>829</v>
+        <v>487</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1024,7 +1011,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>487</v>
+        <v>2772</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1039,7 +1026,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>2772</v>
+        <v>1978</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1054,7 +1041,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>1978</v>
+        <v>376</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1069,7 +1056,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>376</v>
+        <v>205</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1084,7 +1071,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1099,7 +1086,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>246</v>
+        <v>559</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1114,7 +1101,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>559</v>
+        <v>333</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1129,7 +1116,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>333</v>
+        <v>588</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1144,7 +1131,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>588</v>
+        <v>353</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1159,7 +1146,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>353</v>
+        <v>174</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1174,7 +1161,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>174</v>
+        <v>1841</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1189,7 +1176,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>1841</v>
+        <v>674</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1204,7 +1191,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>674</v>
+        <v>1577</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1219,7 +1206,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>1577</v>
+        <v>436</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1234,7 +1221,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>436</v>
+        <v>132</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1249,7 +1236,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>132</v>
+        <v>227</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1264,7 +1251,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>227</v>
+        <v>332</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1279,7 +1266,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>332</v>
+        <v>593</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1294,7 +1281,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>593</v>
+        <v>359</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1309,7 +1296,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1324,7 +1311,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>369</v>
+        <v>917</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1339,7 +1326,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>917</v>
+        <v>1157</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1354,7 +1341,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>1157</v>
+        <v>217</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1369,7 +1356,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>217</v>
+        <v>378</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1384,7 +1371,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>378</v>
+        <v>522</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1399,7 +1386,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>522</v>
+        <v>376</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1414,7 +1401,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>376</v>
+        <v>310</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1429,7 +1416,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>310</v>
+        <v>1307</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1444,7 +1431,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>1307</v>
+        <v>572</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1459,7 +1446,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>572</v>
+        <v>608</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1474,7 +1461,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>608</v>
+        <v>888</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1489,7 +1476,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>888</v>
+        <v>1005</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1504,7 +1491,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>1005</v>
+        <v>508</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1519,7 +1506,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>508</v>
+        <v>579</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1534,7 +1521,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>579</v>
+        <v>3575</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1549,7 +1536,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>3575</v>
+        <v>256</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1564,7 +1551,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1579,7 +1566,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>114</v>
+        <v>368</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1594,7 +1581,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>368</v>
+        <v>1098</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1609,7 +1596,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>1098</v>
+        <v>238</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1624,7 +1611,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>238</v>
+        <v>1355</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1639,7 +1626,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>1355</v>
+        <v>3195</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1654,7 +1641,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>3195</v>
+        <v>825</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1669,7 +1656,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>825</v>
+        <v>1381</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1684,7 +1671,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>1381</v>
+        <v>141</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1699,7 +1686,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>141</v>
+        <v>425</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1714,7 +1701,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>425</v>
+        <v>379</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1729,7 +1716,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>379</v>
+        <v>5634</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1744,7 +1731,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>5634</v>
+        <v>199</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1759,7 +1746,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1774,7 +1761,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1789,7 +1776,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>257</v>
+        <v>2059</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1804,7 +1791,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>2059</v>
+        <v>416</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1819,7 +1806,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>416</v>
+        <v>152</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1834,7 +1821,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>152</v>
+        <v>372</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1849,7 +1836,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>372</v>
+        <v>2275</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1864,7 +1851,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>2275</v>
+        <v>276</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1879,7 +1866,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1894,7 +1881,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1909,7 +1896,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>338</v>
+        <v>487</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1924,7 +1911,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>487</v>
+        <v>1295</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1939,7 +1926,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>1295</v>
+        <v>425</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1954,7 +1941,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>425</v>
+        <v>1417</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1969,7 +1956,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>1417</v>
+        <v>509</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1984,7 +1971,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>509</v>
+        <v>1044</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1999,7 +1986,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>1044</v>
+        <v>1279</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2014,7 +2001,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>1279</v>
+        <v>3877</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2029,7 +2016,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>3877</v>
+        <v>589</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2044,7 +2031,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>589</v>
+        <v>127</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2059,7 +2046,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>127</v>
+        <v>560</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2074,7 +2061,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>560</v>
+        <v>955</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2089,7 +2076,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>955</v>
+        <v>1736</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2104,7 +2091,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>1736</v>
+        <v>1299</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2119,7 +2106,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>1299</v>
+        <v>2793</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2134,7 +2121,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>2793</v>
+        <v>1043</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2149,7 +2136,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>1043</v>
+        <v>279</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -2164,7 +2151,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>279</v>
+        <v>919</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -2179,7 +2166,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>919</v>
+        <v>1788</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -2194,7 +2181,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>1788</v>
+        <v>749</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -2209,7 +2196,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>749</v>
+        <v>473</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -2224,7 +2211,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>473</v>
+        <v>967</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -2239,7 +2226,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>967</v>
+        <v>477</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -2254,7 +2241,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>477</v>
+        <v>708</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -2269,7 +2256,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>708</v>
+        <v>404</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -2284,7 +2271,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>404</v>
+        <v>588</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -2299,7 +2286,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>588</v>
+        <v>208</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -2314,7 +2301,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>208</v>
+        <v>569</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -2329,7 +2316,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>569</v>
+        <v>247</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -2344,7 +2331,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>247</v>
+        <v>894</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -2359,7 +2346,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>894</v>
+        <v>1920</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -2374,7 +2361,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>1920</v>
+        <v>375</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -2389,7 +2376,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>375</v>
+        <v>948</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -2404,7 +2391,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>948</v>
+        <v>1303</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2419,7 +2406,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>1303</v>
+        <v>449</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -2434,7 +2421,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>449</v>
+        <v>1214</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2449,7 +2436,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>1214</v>
+        <v>348</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -2464,7 +2451,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>348</v>
+        <v>511</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2479,7 +2466,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>511</v>
+        <v>1490</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -2494,7 +2481,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>1490</v>
+        <v>213</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -2509,7 +2496,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>213</v>
+        <v>810</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -2524,7 +2511,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>810</v>
+        <v>2612</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -2539,7 +2526,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>2612</v>
+        <v>289</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -2554,7 +2541,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>289</v>
+        <v>1190</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -2569,7 +2556,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>1190</v>
+        <v>449</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -2584,7 +2571,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -2599,7 +2586,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>444</v>
+        <v>203</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -2614,7 +2601,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>203</v>
+        <v>2208</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -2629,7 +2616,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>2208</v>
+        <v>695</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -2644,7 +2631,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -2659,7 +2646,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>694</v>
+        <v>418</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -2674,7 +2661,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>418</v>
+        <v>250</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -2689,7 +2676,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>250</v>
+        <v>678</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -2704,7 +2691,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>678</v>
+        <v>174</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -2719,7 +2706,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>174</v>
+        <v>359</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -2734,7 +2721,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>359</v>
+        <v>847</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -2749,7 +2736,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -2764,7 +2751,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>864</v>
+        <v>1672</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -2779,7 +2766,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>1672</v>
+        <v>426</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -2794,7 +2781,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>426</v>
+        <v>1095</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -2809,7 +2796,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>1095</v>
+        <v>227</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -2824,7 +2811,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>227</v>
+        <v>1271</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -2839,7 +2826,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>1271</v>
+        <v>1468</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -2854,7 +2841,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>1468</v>
+        <v>389</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -2869,7 +2856,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>389</v>
+        <v>863</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -2884,7 +2871,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>863</v>
+        <v>645</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -2899,7 +2886,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>645</v>
+        <v>153</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -2914,7 +2901,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -2929,7 +2916,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>199</v>
+        <v>1259</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -2944,7 +2931,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>1259</v>
+        <v>307</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -2959,7 +2946,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>307</v>
+        <v>634</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -2974,7 +2961,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>634</v>
+        <v>1174</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -2989,7 +2976,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>1174</v>
+        <v>263</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -3004,7 +2991,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -3019,7 +3006,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -3034,7 +3021,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>256</v>
+        <v>393</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -3049,7 +3036,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>393</v>
+        <v>124</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -3064,7 +3051,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>124</v>
+        <v>1383</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -3079,7 +3066,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>1383</v>
+        <v>209</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -3094,7 +3081,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>209</v>
+        <v>561</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -3109,7 +3096,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>561</v>
+        <v>1354</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -3124,7 +3111,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>1354</v>
+        <v>1370</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -3139,7 +3126,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>1370</v>
+        <v>351</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -3154,7 +3141,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>351</v>
+        <v>5442</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -3169,7 +3156,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>5442</v>
+        <v>1373</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -3184,7 +3171,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>1373</v>
+        <v>406</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -3199,7 +3186,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>406</v>
+        <v>193</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -3214,7 +3201,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>193</v>
+        <v>408</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -3229,7 +3216,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>408</v>
+        <v>117</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -3244,7 +3231,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>117</v>
+        <v>651</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -3259,7 +3246,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>651</v>
+        <v>1422</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -3274,7 +3261,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>1422</v>
+        <v>352</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -3289,7 +3276,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>352</v>
+        <v>1625</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -3304,7 +3291,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>1625</v>
+        <v>324</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -3319,7 +3306,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>324</v>
+        <v>1455</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -3334,7 +3321,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>1455</v>
+        <v>538</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -3349,7 +3336,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>538</v>
+        <v>345</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -3364,7 +3351,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>345</v>
+        <v>220</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -3379,7 +3366,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -3394,7 +3381,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>278</v>
+        <v>2241</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -3409,7 +3396,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>2241</v>
+        <v>110</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -3424,7 +3411,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>110</v>
+        <v>957</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -3439,7 +3426,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>957</v>
+        <v>221</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -3454,7 +3441,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -3469,7 +3456,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>194</v>
+        <v>2117</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -3484,7 +3471,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>2117</v>
+        <v>353</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -3499,7 +3486,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>353</v>
+        <v>618</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -3514,7 +3501,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>618</v>
+        <v>1984</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -3529,7 +3516,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>1984</v>
+        <v>601</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -3544,7 +3531,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>601</v>
+        <v>365</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -3559,7 +3546,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>365</v>
+        <v>2202</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -3574,7 +3561,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>2202</v>
+        <v>461</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -3589,7 +3576,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>461</v>
+        <v>166</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -3604,7 +3591,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -3619,7 +3606,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>106</v>
+        <v>349</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -3634,7 +3621,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>349</v>
+        <v>282</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -3649,7 +3636,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>282</v>
+        <v>472</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -3664,7 +3651,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -3679,7 +3666,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>457</v>
+        <v>2395</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -3694,7 +3681,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>2395</v>
+        <v>813</v>
       </c>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -3709,7 +3696,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>813</v>
+        <v>1681</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -3724,7 +3711,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>1681</v>
+        <v>502</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -3739,7 +3726,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>502</v>
+        <v>412</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -3754,7 +3741,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>412</v>
+        <v>1087</v>
       </c>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -3769,7 +3756,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>1087</v>
+        <v>1292</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -3784,7 +3771,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>1292</v>
+        <v>2020</v>
       </c>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -3799,7 +3786,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>2020</v>
+        <v>225</v>
       </c>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -3814,7 +3801,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>225</v>
+        <v>1638</v>
       </c>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -3829,7 +3816,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>1638</v>
+        <v>1020</v>
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -3844,7 +3831,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>1020</v>
+        <v>936</v>
       </c>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -3859,7 +3846,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>936</v>
+        <v>708</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -3874,7 +3861,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>708</v>
+        <v>261</v>
       </c>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -3889,7 +3876,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>261</v>
+        <v>150</v>
       </c>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -3904,7 +3891,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>150</v>
+        <v>282</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -3919,7 +3906,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>282</v>
+        <v>1313</v>
       </c>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -3934,7 +3921,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>1313</v>
+        <v>1603</v>
       </c>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -3949,7 +3936,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>1603</v>
+        <v>898</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -3964,7 +3951,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>898</v>
+        <v>290</v>
       </c>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -3979,7 +3966,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -3994,7 +3981,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>343</v>
+        <v>2031</v>
       </c>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -4009,7 +3996,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>2031</v>
+        <v>409</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -4024,7 +4011,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>409</v>
+        <v>786</v>
       </c>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -4039,7 +4026,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>786</v>
+        <v>839</v>
       </c>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -4054,7 +4041,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>839</v>
+        <v>3374</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -4069,7 +4056,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>3374</v>
+        <v>627</v>
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -4084,7 +4071,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>627</v>
+        <v>488</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -4099,7 +4086,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>488</v>
+        <v>166</v>
       </c>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -4114,7 +4101,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>166</v>
+        <v>1297</v>
       </c>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -4129,7 +4116,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>1297</v>
+        <v>720</v>
       </c>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -4144,7 +4131,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -4159,7 +4146,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>704</v>
+        <v>149</v>
       </c>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -4174,7 +4161,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>149</v>
+        <v>384</v>
       </c>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -4189,7 +4176,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>384</v>
+        <v>628</v>
       </c>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -4204,7 +4191,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>628</v>
+        <v>1536</v>
       </c>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -4219,7 +4206,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>1536</v>
+        <v>1736</v>
       </c>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -4234,7 +4221,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>1736</v>
+        <v>2841</v>
       </c>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -4249,7 +4236,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>2841</v>
+        <v>132</v>
       </c>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -4264,7 +4251,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>132</v>
+        <v>347</v>
       </c>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -4279,7 +4266,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>347</v>
+        <v>756</v>
       </c>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -4294,7 +4281,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>756</v>
+        <v>519</v>
       </c>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -4309,7 +4296,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>519</v>
+        <v>298</v>
       </c>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -4324,7 +4311,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>298</v>
+        <v>384</v>
       </c>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -4339,7 +4326,7 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>384</v>
+        <v>455</v>
       </c>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -4354,7 +4341,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>455</v>
+        <v>401</v>
       </c>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -4369,7 +4356,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>401</v>
+        <v>161</v>
       </c>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -4384,7 +4371,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>161</v>
+        <v>680</v>
       </c>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -4399,7 +4386,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>680</v>
+        <v>378</v>
       </c>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -4414,7 +4401,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>378</v>
+        <v>1078</v>
       </c>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -4429,7 +4416,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>1078</v>
+        <v>1595</v>
       </c>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -4444,7 +4431,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>1595</v>
+        <v>163</v>
       </c>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -4459,7 +4446,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>163</v>
+        <v>291</v>
       </c>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -4474,7 +4461,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>291</v>
+        <v>3323</v>
       </c>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -4489,7 +4476,7 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>3323</v>
+        <v>894</v>
       </c>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -4504,7 +4491,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>894</v>
+        <v>245</v>
       </c>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -4519,7 +4506,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -4534,7 +4521,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>226</v>
+        <v>1177</v>
       </c>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -4549,7 +4536,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>1177</v>
+        <v>547</v>
       </c>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -4564,7 +4551,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>547</v>
+        <v>214</v>
       </c>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -4579,7 +4566,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -4594,7 +4581,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>182</v>
+        <v>2074</v>
       </c>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -4609,7 +4596,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>2074</v>
+        <v>307</v>
       </c>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -4624,7 +4611,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>307</v>
+        <v>1043</v>
       </c>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -4639,7 +4626,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>1043</v>
+        <v>687</v>
       </c>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -4654,7 +4641,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>687</v>
+        <v>718</v>
       </c>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -4669,7 +4656,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>718</v>
+        <v>571</v>
       </c>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -4684,7 +4671,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>571</v>
+        <v>1377</v>
       </c>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -4699,7 +4686,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>1377</v>
+        <v>568</v>
       </c>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -4714,7 +4701,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>568</v>
+        <v>1150</v>
       </c>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -4729,7 +4716,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>1150</v>
+        <v>170</v>
       </c>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -4744,7 +4731,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>170</v>
+        <v>2090</v>
       </c>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -4759,7 +4746,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>2090</v>
+        <v>385</v>
       </c>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -4774,7 +4761,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>385</v>
+        <v>505</v>
       </c>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -4789,7 +4776,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>505</v>
+        <v>292</v>
       </c>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -4804,7 +4791,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -4819,7 +4806,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>275</v>
+        <v>1209</v>
       </c>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -4834,7 +4821,7 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>1209</v>
+        <v>377</v>
       </c>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -4849,7 +4836,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>377</v>
+        <v>477</v>
       </c>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -4864,7 +4851,7 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>477</v>
+        <v>174</v>
       </c>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -4879,7 +4866,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -4894,7 +4881,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>240</v>
+        <v>1244</v>
       </c>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -4909,7 +4896,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>1244</v>
+        <v>1127</v>
       </c>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -4924,7 +4911,7 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>1127</v>
+        <v>2002</v>
       </c>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -4939,7 +4926,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>2002</v>
+        <v>646</v>
       </c>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -4954,7 +4941,7 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>646</v>
+        <v>699</v>
       </c>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -4969,7 +4956,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>699</v>
+        <v>113</v>
       </c>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -4984,7 +4971,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>113</v>
+        <v>1598</v>
       </c>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -4999,7 +4986,7 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>1598</v>
+        <v>206</v>
       </c>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -5014,7 +5001,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>206</v>
+        <v>327</v>
       </c>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -5029,7 +5016,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>327</v>
+        <v>966</v>
       </c>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -5044,7 +5031,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>966</v>
+        <v>1012</v>
       </c>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -5059,7 +5046,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>1012</v>
+        <v>418</v>
       </c>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -5074,7 +5061,7 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>418</v>
+        <v>609</v>
       </c>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -5089,7 +5076,7 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>609</v>
+        <v>373</v>
       </c>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -5104,7 +5091,7 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>373</v>
+        <v>571</v>
       </c>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -5119,7 +5106,7 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>571</v>
+        <v>1954</v>
       </c>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -5134,7 +5121,7 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>1954</v>
+        <v>817</v>
       </c>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -5149,7 +5136,7 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>817</v>
+        <v>202</v>
       </c>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -5164,7 +5151,7 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>202</v>
+        <v>350</v>
       </c>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -5179,7 +5166,7 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>350</v>
+        <v>183</v>
       </c>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -5194,7 +5181,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>183</v>
+        <v>756</v>
       </c>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -5209,7 +5196,7 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>756</v>
+        <v>333</v>
       </c>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -5224,7 +5211,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>333</v>
+        <v>1534</v>
       </c>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -5239,7 +5226,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>1534</v>
+        <v>592</v>
       </c>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -5254,7 +5241,7 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>592</v>
+        <v>455</v>
       </c>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -5269,7 +5256,7 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>455</v>
+        <v>1350</v>
       </c>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -5284,7 +5271,7 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>1350</v>
+        <v>866</v>
       </c>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -5299,7 +5286,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>866</v>
+        <v>498</v>
       </c>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -5314,7 +5301,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>498</v>
+        <v>636</v>
       </c>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -5329,7 +5316,7 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>636</v>
+        <v>377</v>
       </c>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -5344,7 +5331,7 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>377</v>
+        <v>835</v>
       </c>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -5359,7 +5346,7 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>835</v>
+        <v>1985</v>
       </c>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -5374,7 +5361,7 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>1985</v>
+        <v>274</v>
       </c>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -5389,7 +5376,7 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>274</v>
+        <v>1075</v>
       </c>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -5404,7 +5391,7 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>1075</v>
+        <v>474</v>
       </c>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -5419,7 +5406,7 @@
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -5434,7 +5421,7 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>433</v>
+        <v>1694</v>
       </c>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -5449,7 +5436,7 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>1694</v>
+        <v>570</v>
       </c>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -5464,7 +5451,7 @@
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>570</v>
+        <v>360</v>
       </c>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -5479,7 +5466,7 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>360</v>
+        <v>99</v>
       </c>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -5494,7 +5481,7 @@
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>99</v>
+        <v>376</v>
       </c>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -5509,7 +5496,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -5524,7 +5511,7 @@
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>355</v>
+        <v>1405</v>
       </c>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -5539,7 +5526,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>1405</v>
+        <v>824</v>
       </c>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -5554,7 +5541,7 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>824</v>
+        <v>1208</v>
       </c>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -5569,7 +5556,7 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>1208</v>
+        <v>394</v>
       </c>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -5584,7 +5571,7 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>394</v>
+        <v>911</v>
       </c>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -5599,7 +5586,7 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>911</v>
+        <v>1317</v>
       </c>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -5614,7 +5601,7 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>1317</v>
+        <v>192</v>
       </c>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -5629,7 +5616,7 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>192</v>
+        <v>2006</v>
       </c>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -5644,7 +5631,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>2006</v>
+        <v>1054</v>
       </c>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -5659,7 +5646,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>1054</v>
+        <v>372</v>
       </c>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -5674,7 +5661,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>372</v>
+        <v>1274</v>
       </c>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -5689,7 +5676,7 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>1274</v>
+        <v>676</v>
       </c>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -5704,7 +5691,7 @@
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>676</v>
+        <v>584</v>
       </c>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -5719,7 +5706,7 @@
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>584</v>
+        <v>352</v>
       </c>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -5734,7 +5721,7 @@
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>352</v>
+        <v>691</v>
       </c>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -5749,7 +5736,7 @@
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>691</v>
+        <v>398</v>
       </c>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -5764,7 +5751,7 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>398</v>
+        <v>587</v>
       </c>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -5779,7 +5766,7 @@
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>587</v>
+        <v>100</v>
       </c>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -5792,25 +5779,7 @@
       <c r="K356" s="1"/>
       <c r="L356" s="1"/>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A357" s="1">
-        <v>100</v>
-      </c>
-      <c r="B357" s="1"/>
-      <c r="C357" s="1"/>
-      <c r="D357" s="1"/>
-      <c r="F357" s="1"/>
-      <c r="G357" s="1"/>
-      <c r="H357" s="1"/>
-      <c r="I357" s="1"/>
-      <c r="J357" s="1"/>
-      <c r="K357" s="1"/>
-      <c r="L357" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>

--- a/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
+++ b/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ti6242-1.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,44 +24,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>Ti6242-1.1-CS-1-(100x)</t>
+    <t>CS-1-(100x)</t>
   </si>
   <si>
-    <t>Ti6242-1.1-CS-2-(100x)</t>
+    <t>CS-2-(100x)</t>
   </si>
   <si>
-    <t>Ti6242-1.1-CS-3-(100x)</t>
+    <t>CS-3-(100x)</t>
   </si>
   <si>
-    <t>Ti6242-1.1-CS-4-(200x)</t>
+    <t>CS-4-(200x)</t>
   </si>
   <si>
-    <t>Ti6242-1.1-CS-5-(200x)</t>
+    <t>CS-5-(200x)</t>
   </si>
   <si>
-    <t>Ti6242-1.1-CS-6-(200x)</t>
+    <t>CS-6-(200x)</t>
   </si>
   <si>
-    <t>Ti6242-1.1-CS-7-(500x)</t>
+    <t>CS-7-(500x)</t>
   </si>
   <si>
-    <t>Ti6242-1.1-CS-9-(500x)</t>
+    <t>CS-8-(500x)</t>
   </si>
   <si>
-    <t>Ti6242-1.1-CS-8-(500x)</t>
+    <t>CS-9-(500x)</t>
   </si>
   <si>
-    <t>Ti6242-1.1-CS-10-(500x)</t>
+    <t>CS-10-(500x)</t>
+  </si>
+  <si>
+    <t>Top-1-(100x)</t>
+  </si>
+  <si>
+    <t>Top-2-(100x)</t>
+  </si>
+  <si>
+    <t>Top-3-(100x)</t>
+  </si>
+  <si>
+    <t>Top-4-(200x)</t>
+  </si>
+  <si>
+    <t>Top-5-(200x)</t>
+  </si>
+  <si>
+    <t>Top-6-(200x)</t>
+  </si>
+  <si>
+    <t>Top-7-(500x)</t>
+  </si>
+  <si>
+    <t>Top-8-(500x)</t>
+  </si>
+  <si>
+    <t>Top-9-(500x)</t>
+  </si>
+  <si>
+    <t>Top-10-(500x)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -89,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -97,6 +135,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,50 +450,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L356"/>
+  <dimension ref="A1:T356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1147</v>
       </c>
@@ -469,7 +542,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>587</v>
       </c>
@@ -484,7 +557,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>9364</v>
       </c>
@@ -499,7 +572,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2109</v>
       </c>
@@ -514,7 +587,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>382</v>
       </c>
@@ -529,7 +602,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1867</v>
       </c>
@@ -544,7 +617,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>427</v>
       </c>
@@ -559,7 +632,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1167</v>
       </c>
@@ -574,7 +647,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>160</v>
       </c>
@@ -589,7 +662,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>413</v>
       </c>
@@ -604,7 +677,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>217</v>
       </c>
@@ -619,7 +692,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>578</v>
       </c>
@@ -634,7 +707,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>792</v>
       </c>
@@ -649,7 +722,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>106</v>
       </c>
@@ -664,7 +737,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2003</v>
       </c>

--- a/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
+++ b/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
@@ -454,7 +454,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +539,9 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="K2" s="1">
+        <v>573</v>
+      </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -554,7 +556,9 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="K3" s="1">
+        <v>358</v>
+      </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -569,7 +573,9 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1">
+        <v>326</v>
+      </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -584,7 +590,9 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1">
+        <v>253</v>
+      </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -599,7 +607,9 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1">
+        <v>298</v>
+      </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -614,7 +624,9 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>651</v>
+      </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -629,7 +641,9 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1">
+        <v>137</v>
+      </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -644,7 +658,9 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1">
+        <v>2648</v>
+      </c>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -659,7 +675,9 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1">
+        <v>1674</v>
+      </c>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -674,7 +692,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1">
+        <v>394</v>
+      </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -689,7 +709,9 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1">
+        <v>2140</v>
+      </c>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -704,7 +726,9 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1">
+        <v>390</v>
+      </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -719,7 +743,9 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1">
+        <v>3771</v>
+      </c>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -734,7 +760,9 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1">
+        <v>1705</v>
+      </c>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -749,7 +777,9 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1">
+        <v>516</v>
+      </c>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -764,7 +794,9 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1">
+        <v>979</v>
+      </c>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -779,7 +811,9 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1">
+        <v>1557</v>
+      </c>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -794,7 +828,9 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1">
+        <v>1084</v>
+      </c>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -809,7 +845,9 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="1">
+        <v>369</v>
+      </c>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -824,7 +862,9 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1">
+        <v>256</v>
+      </c>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -839,7 +879,9 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="K22" s="1">
+        <v>168</v>
+      </c>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -854,7 +896,9 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="1">
+        <v>611</v>
+      </c>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -869,7 +913,9 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="K24" s="1">
+        <v>983</v>
+      </c>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -884,7 +930,9 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="1">
+        <v>353</v>
+      </c>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -899,7 +947,9 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="K26" s="1">
+        <v>317</v>
+      </c>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -914,7 +964,9 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="K27" s="1">
+        <v>1495</v>
+      </c>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -929,7 +981,9 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="K28" s="1">
+        <v>855</v>
+      </c>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -944,7 +998,9 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="K29" s="1">
+        <v>760</v>
+      </c>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -959,7 +1015,9 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="K30" s="1">
+        <v>3201</v>
+      </c>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -974,7 +1032,9 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="K31" s="1">
+        <v>1465</v>
+      </c>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -989,7 +1049,9 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="K32" s="1">
+        <v>741</v>
+      </c>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1004,7 +1066,9 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="K33" s="1">
+        <v>3745</v>
+      </c>
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1019,7 +1083,9 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="K34" s="1">
+        <v>1120</v>
+      </c>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1034,7 +1100,9 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="K35" s="1">
+        <v>1788</v>
+      </c>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1049,7 +1117,9 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="K36" s="1">
+        <v>643</v>
+      </c>
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1064,7 +1134,9 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="K37" s="1">
+        <v>147</v>
+      </c>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1079,7 +1151,9 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="K38" s="1">
+        <v>1000</v>
+      </c>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1094,7 +1168,9 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="K39" s="1">
+        <v>619</v>
+      </c>
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -1109,7 +1185,9 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="K40" s="1">
+        <v>1067</v>
+      </c>
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -1124,7 +1202,9 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="K41" s="1">
+        <v>329</v>
+      </c>
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1139,7 +1219,9 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="K42" s="1">
+        <v>2549</v>
+      </c>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -1154,7 +1236,9 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="K43" s="1">
+        <v>921</v>
+      </c>
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -1169,7 +1253,9 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="K44" s="1">
+        <v>1488</v>
+      </c>
       <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -1184,7 +1270,9 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+      <c r="K45" s="1">
+        <v>105</v>
+      </c>
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -1199,7 +1287,9 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+      <c r="K46" s="1">
+        <v>769</v>
+      </c>
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -1214,7 +1304,9 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+      <c r="K47" s="1">
+        <v>233</v>
+      </c>
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -1229,7 +1321,9 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="K48" s="1">
+        <v>729</v>
+      </c>
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -1244,7 +1338,9 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="K49" s="1">
+        <v>5177</v>
+      </c>
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -1259,7 +1355,9 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
+      <c r="K50" s="1">
+        <v>879</v>
+      </c>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -1274,7 +1372,9 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
+      <c r="K51" s="1">
+        <v>395</v>
+      </c>
       <c r="L51" s="1"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -1289,7 +1389,9 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
+      <c r="K52" s="1">
+        <v>868</v>
+      </c>
       <c r="L52" s="1"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -1304,7 +1406,9 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
+      <c r="K53" s="1">
+        <v>1850</v>
+      </c>
       <c r="L53" s="1"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -1319,7 +1423,9 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
+      <c r="K54" s="1">
+        <v>1233</v>
+      </c>
       <c r="L54" s="1"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -1334,7 +1440,9 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
+      <c r="K55" s="1">
+        <v>404</v>
+      </c>
       <c r="L55" s="1"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -1349,7 +1457,9 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
+      <c r="K56" s="1">
+        <v>387</v>
+      </c>
       <c r="L56" s="1"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -1364,7 +1474,9 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
+      <c r="K57" s="1">
+        <v>434</v>
+      </c>
       <c r="L57" s="1"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -1379,7 +1491,9 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
+      <c r="K58" s="1">
+        <v>618</v>
+      </c>
       <c r="L58" s="1"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -1394,7 +1508,9 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
+      <c r="K59" s="1">
+        <v>268</v>
+      </c>
       <c r="L59" s="1"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -1409,7 +1525,9 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
+      <c r="K60" s="1">
+        <v>446</v>
+      </c>
       <c r="L60" s="1"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -1424,7 +1542,9 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
+      <c r="K61" s="1">
+        <v>4275</v>
+      </c>
       <c r="L61" s="1"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -1439,7 +1559,9 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
+      <c r="K62" s="1">
+        <v>448</v>
+      </c>
       <c r="L62" s="1"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -1454,7 +1576,9 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
+      <c r="K63" s="1">
+        <v>318</v>
+      </c>
       <c r="L63" s="1"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -1469,7 +1593,9 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
+      <c r="K64" s="1">
+        <v>1424</v>
+      </c>
       <c r="L64" s="1"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -1484,7 +1610,9 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
+      <c r="K65" s="1">
+        <v>356</v>
+      </c>
       <c r="L65" s="1"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -1499,7 +1627,9 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
+      <c r="K66" s="1">
+        <v>336</v>
+      </c>
       <c r="L66" s="1"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -1514,7 +1644,9 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
+      <c r="K67" s="1">
+        <v>1817</v>
+      </c>
       <c r="L67" s="1"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -1529,7 +1661,9 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
+      <c r="K68" s="1">
+        <v>1223</v>
+      </c>
       <c r="L68" s="1"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -1544,7 +1678,9 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
+      <c r="K69" s="1">
+        <v>225</v>
+      </c>
       <c r="L69" s="1"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -1559,7 +1695,9 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
+      <c r="K70" s="1">
+        <v>645</v>
+      </c>
       <c r="L70" s="1"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -1574,7 +1712,9 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
+      <c r="K71" s="1">
+        <v>181</v>
+      </c>
       <c r="L71" s="1"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -1589,7 +1729,9 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
+      <c r="K72" s="1">
+        <v>1468</v>
+      </c>
       <c r="L72" s="1"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -1604,7 +1746,9 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
+      <c r="K73" s="1">
+        <v>436</v>
+      </c>
       <c r="L73" s="1"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -1619,7 +1763,9 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
+      <c r="K74" s="1">
+        <v>1708</v>
+      </c>
       <c r="L74" s="1"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -1634,7 +1780,9 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
+      <c r="K75" s="1">
+        <v>1714</v>
+      </c>
       <c r="L75" s="1"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -1649,7 +1797,9 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
+      <c r="K76" s="1">
+        <v>396</v>
+      </c>
       <c r="L76" s="1"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -1664,7 +1814,9 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
+      <c r="K77" s="1">
+        <v>2092</v>
+      </c>
       <c r="L77" s="1"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -1679,7 +1831,9 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
+      <c r="K78" s="1">
+        <v>213</v>
+      </c>
       <c r="L78" s="1"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -1694,7 +1848,9 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
+      <c r="K79" s="1">
+        <v>1381</v>
+      </c>
       <c r="L79" s="1"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -1709,7 +1865,9 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
+      <c r="K80" s="1">
+        <v>329</v>
+      </c>
       <c r="L80" s="1"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -1724,7 +1882,9 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
+      <c r="K81" s="1">
+        <v>304</v>
+      </c>
       <c r="L81" s="1"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -1739,7 +1899,9 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
+      <c r="K82" s="1">
+        <v>726</v>
+      </c>
       <c r="L82" s="1"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -1754,7 +1916,9 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
+      <c r="K83" s="1">
+        <v>851</v>
+      </c>
       <c r="L83" s="1"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -1769,7 +1933,9 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
+      <c r="K84" s="1">
+        <v>1198</v>
+      </c>
       <c r="L84" s="1"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -1784,7 +1950,9 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
+      <c r="K85" s="1">
+        <v>442</v>
+      </c>
       <c r="L85" s="1"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -1799,7 +1967,9 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
+      <c r="K86" s="1">
+        <v>1107</v>
+      </c>
       <c r="L86" s="1"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -1814,7 +1984,9 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
+      <c r="K87" s="1">
+        <v>248</v>
+      </c>
       <c r="L87" s="1"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -1829,7 +2001,9 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
+      <c r="K88" s="1">
+        <v>809</v>
+      </c>
       <c r="L88" s="1"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -1844,7 +2018,9 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
+      <c r="K89" s="1">
+        <v>1520</v>
+      </c>
       <c r="L89" s="1"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -1859,7 +2035,9 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
+      <c r="K90" s="1">
+        <v>480</v>
+      </c>
       <c r="L90" s="1"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -1874,7 +2052,9 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
+      <c r="K91" s="1">
+        <v>481</v>
+      </c>
       <c r="L91" s="1"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -1889,7 +2069,9 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
+      <c r="K92" s="1">
+        <v>894</v>
+      </c>
       <c r="L92" s="1"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -1904,7 +2086,9 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
+      <c r="K93" s="1">
+        <v>136</v>
+      </c>
       <c r="L93" s="1"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -1919,7 +2103,9 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
+      <c r="K94" s="1">
+        <v>895</v>
+      </c>
       <c r="L94" s="1"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -1934,7 +2120,9 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
+      <c r="K95" s="1">
+        <v>1951</v>
+      </c>
       <c r="L95" s="1"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -1949,7 +2137,9 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
+      <c r="K96" s="1">
+        <v>2453</v>
+      </c>
       <c r="L96" s="1"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -1964,7 +2154,9 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
+      <c r="K97" s="1">
+        <v>1123</v>
+      </c>
       <c r="L97" s="1"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -1979,7 +2171,9 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
+      <c r="K98" s="1">
+        <v>212</v>
+      </c>
       <c r="L98" s="1"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -1994,7 +2188,9 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
+      <c r="K99" s="1">
+        <v>908</v>
+      </c>
       <c r="L99" s="1"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -2009,7 +2205,9 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
+      <c r="K100" s="1">
+        <v>551</v>
+      </c>
       <c r="L100" s="1"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -2024,7 +2222,9 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
+      <c r="K101" s="1">
+        <v>711</v>
+      </c>
       <c r="L101" s="1"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -2039,7 +2239,9 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
+      <c r="K102" s="1">
+        <v>545</v>
+      </c>
       <c r="L102" s="1"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -2054,7 +2256,9 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
+      <c r="K103" s="1">
+        <v>821</v>
+      </c>
       <c r="L103" s="1"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -2069,7 +2273,9 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
+      <c r="K104" s="1">
+        <v>873</v>
+      </c>
       <c r="L104" s="1"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -2084,7 +2290,9 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
+      <c r="K105" s="1">
+        <v>112</v>
+      </c>
       <c r="L105" s="1"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -2099,7 +2307,9 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
+      <c r="K106" s="1">
+        <v>388</v>
+      </c>
       <c r="L106" s="1"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -2114,7 +2324,9 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
+      <c r="K107" s="1">
+        <v>498</v>
+      </c>
       <c r="L107" s="1"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -2129,7 +2341,9 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
+      <c r="K108" s="1">
+        <v>262</v>
+      </c>
       <c r="L108" s="1"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -2144,7 +2358,9 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
+      <c r="K109" s="1">
+        <v>332</v>
+      </c>
       <c r="L109" s="1"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -2159,7 +2375,9 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
+      <c r="K110" s="1">
+        <v>481</v>
+      </c>
       <c r="L110" s="1"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -2174,7 +2392,9 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
+      <c r="K111" s="1">
+        <v>798</v>
+      </c>
       <c r="L111" s="1"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -2189,7 +2409,9 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
+      <c r="K112" s="1">
+        <v>2810</v>
+      </c>
       <c r="L112" s="1"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -2204,7 +2426,9 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
+      <c r="K113" s="1">
+        <v>869</v>
+      </c>
       <c r="L113" s="1"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -2219,7 +2443,9 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
+      <c r="K114" s="1">
+        <v>428</v>
+      </c>
       <c r="L114" s="1"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -2234,7 +2460,9 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
+      <c r="K115" s="1">
+        <v>6194</v>
+      </c>
       <c r="L115" s="1"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -2249,7 +2477,9 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
+      <c r="K116" s="1">
+        <v>753</v>
+      </c>
       <c r="L116" s="1"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -2264,7 +2494,9 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
+      <c r="K117" s="1">
+        <v>294</v>
+      </c>
       <c r="L117" s="1"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -2279,7 +2511,9 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
+      <c r="K118" s="1">
+        <v>240</v>
+      </c>
       <c r="L118" s="1"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -2294,7 +2528,9 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
+      <c r="K119" s="1">
+        <v>683</v>
+      </c>
       <c r="L119" s="1"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -2309,7 +2545,9 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
+      <c r="K120" s="1">
+        <v>1634</v>
+      </c>
       <c r="L120" s="1"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -2324,7 +2562,9 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
+      <c r="K121" s="1">
+        <v>2435</v>
+      </c>
       <c r="L121" s="1"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -2339,7 +2579,9 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
+      <c r="K122" s="1">
+        <v>572</v>
+      </c>
       <c r="L122" s="1"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -2354,7 +2596,9 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
-      <c r="K123" s="1"/>
+      <c r="K123" s="1">
+        <v>1820</v>
+      </c>
       <c r="L123" s="1"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -2369,7 +2613,9 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
-      <c r="K124" s="1"/>
+      <c r="K124" s="1">
+        <v>113</v>
+      </c>
       <c r="L124" s="1"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -2384,7 +2630,9 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
-      <c r="K125" s="1"/>
+      <c r="K125" s="1">
+        <v>251</v>
+      </c>
       <c r="L125" s="1"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -2399,7 +2647,9 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
-      <c r="K126" s="1"/>
+      <c r="K126" s="1">
+        <v>981</v>
+      </c>
       <c r="L126" s="1"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -2414,7 +2664,9 @@
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
-      <c r="K127" s="1"/>
+      <c r="K127" s="1">
+        <v>620</v>
+      </c>
       <c r="L127" s="1"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -2429,7 +2681,9 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
-      <c r="K128" s="1"/>
+      <c r="K128" s="1">
+        <v>753</v>
+      </c>
       <c r="L128" s="1"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -2444,7 +2698,9 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
-      <c r="K129" s="1"/>
+      <c r="K129" s="1">
+        <v>299</v>
+      </c>
       <c r="L129" s="1"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -2459,7 +2715,9 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
-      <c r="K130" s="1"/>
+      <c r="K130" s="1">
+        <v>3040</v>
+      </c>
       <c r="L130" s="1"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -2474,7 +2732,9 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
-      <c r="K131" s="1"/>
+      <c r="K131" s="1">
+        <v>314</v>
+      </c>
       <c r="L131" s="1"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -2489,7 +2749,9 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
+      <c r="K132" s="1">
+        <v>2346</v>
+      </c>
       <c r="L132" s="1"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -2504,7 +2766,9 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
+      <c r="K133" s="1">
+        <v>1054</v>
+      </c>
       <c r="L133" s="1"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -2519,7 +2783,9 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
-      <c r="K134" s="1"/>
+      <c r="K134" s="1">
+        <v>867</v>
+      </c>
       <c r="L134" s="1"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -2534,7 +2800,9 @@
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
-      <c r="K135" s="1"/>
+      <c r="K135" s="1">
+        <v>379</v>
+      </c>
       <c r="L135" s="1"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -2549,7 +2817,9 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
-      <c r="K136" s="1"/>
+      <c r="K136" s="1">
+        <v>1280</v>
+      </c>
       <c r="L136" s="1"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -2564,7 +2834,9 @@
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
+      <c r="K137" s="1">
+        <v>2090</v>
+      </c>
       <c r="L137" s="1"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -2579,7 +2851,9 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
-      <c r="K138" s="1"/>
+      <c r="K138" s="1">
+        <v>677</v>
+      </c>
       <c r="L138" s="1"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -2594,7 +2868,9 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
-      <c r="K139" s="1"/>
+      <c r="K139" s="1">
+        <v>279</v>
+      </c>
       <c r="L139" s="1"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -2609,7 +2885,9 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
-      <c r="K140" s="1"/>
+      <c r="K140" s="1">
+        <v>394</v>
+      </c>
       <c r="L140" s="1"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
@@ -2624,7 +2902,9 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
-      <c r="K141" s="1"/>
+      <c r="K141" s="1">
+        <v>351</v>
+      </c>
       <c r="L141" s="1"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -2639,7 +2919,9 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
-      <c r="K142" s="1"/>
+      <c r="K142" s="1">
+        <v>488</v>
+      </c>
       <c r="L142" s="1"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -2654,7 +2936,9 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
-      <c r="K143" s="1"/>
+      <c r="K143" s="1">
+        <v>915</v>
+      </c>
       <c r="L143" s="1"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -2669,7 +2953,9 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
-      <c r="K144" s="1"/>
+      <c r="K144" s="1">
+        <v>1953</v>
+      </c>
       <c r="L144" s="1"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -2684,7 +2970,9 @@
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
-      <c r="K145" s="1"/>
+      <c r="K145" s="1">
+        <v>202</v>
+      </c>
       <c r="L145" s="1"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
@@ -2699,7 +2987,9 @@
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
-      <c r="K146" s="1"/>
+      <c r="K146" s="1">
+        <v>1772</v>
+      </c>
       <c r="L146" s="1"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -2714,7 +3004,9 @@
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
-      <c r="K147" s="1"/>
+      <c r="K147" s="1">
+        <v>889</v>
+      </c>
       <c r="L147" s="1"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -2729,7 +3021,9 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
-      <c r="K148" s="1"/>
+      <c r="K148" s="1">
+        <v>880</v>
+      </c>
       <c r="L148" s="1"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -2744,7 +3038,9 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
-      <c r="K149" s="1"/>
+      <c r="K149" s="1">
+        <v>1604</v>
+      </c>
       <c r="L149" s="1"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
@@ -2759,7 +3055,9 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
-      <c r="K150" s="1"/>
+      <c r="K150" s="1">
+        <v>379</v>
+      </c>
       <c r="L150" s="1"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
@@ -2774,7 +3072,9 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
-      <c r="K151" s="1"/>
+      <c r="K151" s="1">
+        <v>672</v>
+      </c>
       <c r="L151" s="1"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
@@ -2789,7 +3089,9 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
-      <c r="K152" s="1"/>
+      <c r="K152" s="1">
+        <v>596</v>
+      </c>
       <c r="L152" s="1"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -2804,7 +3106,9 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
-      <c r="K153" s="1"/>
+      <c r="K153" s="1">
+        <v>2135</v>
+      </c>
       <c r="L153" s="1"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
@@ -2819,7 +3123,9 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
-      <c r="K154" s="1"/>
+      <c r="K154" s="1">
+        <v>166</v>
+      </c>
       <c r="L154" s="1"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
@@ -2834,7 +3140,9 @@
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
-      <c r="K155" s="1"/>
+      <c r="K155" s="1">
+        <v>974</v>
+      </c>
       <c r="L155" s="1"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -2849,7 +3157,9 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
-      <c r="K156" s="1"/>
+      <c r="K156" s="1">
+        <v>554</v>
+      </c>
       <c r="L156" s="1"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -2864,7 +3174,9 @@
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
-      <c r="K157" s="1"/>
+      <c r="K157" s="1">
+        <v>259</v>
+      </c>
       <c r="L157" s="1"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -2879,7 +3191,9 @@
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
-      <c r="K158" s="1"/>
+      <c r="K158" s="1">
+        <v>409</v>
+      </c>
       <c r="L158" s="1"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -2894,7 +3208,9 @@
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
-      <c r="K159" s="1"/>
+      <c r="K159" s="1">
+        <v>331</v>
+      </c>
       <c r="L159" s="1"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -2909,7 +3225,9 @@
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
+      <c r="K160" s="1">
+        <v>228</v>
+      </c>
       <c r="L160" s="1"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -2924,7 +3242,9 @@
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
-      <c r="K161" s="1"/>
+      <c r="K161" s="1">
+        <v>761</v>
+      </c>
       <c r="L161" s="1"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -2939,7 +3259,9 @@
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
-      <c r="K162" s="1"/>
+      <c r="K162" s="1">
+        <v>437</v>
+      </c>
       <c r="L162" s="1"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -2954,7 +3276,9 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
-      <c r="K163" s="1"/>
+      <c r="K163" s="1">
+        <v>439</v>
+      </c>
       <c r="L163" s="1"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
@@ -2969,7 +3293,9 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
-      <c r="K164" s="1"/>
+      <c r="K164" s="1">
+        <v>488</v>
+      </c>
       <c r="L164" s="1"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
@@ -2984,7 +3310,9 @@
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
-      <c r="K165" s="1"/>
+      <c r="K165" s="1">
+        <v>1439</v>
+      </c>
       <c r="L165" s="1"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -2999,7 +3327,9 @@
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
-      <c r="K166" s="1"/>
+      <c r="K166" s="1">
+        <v>3392</v>
+      </c>
       <c r="L166" s="1"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -3014,7 +3344,9 @@
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
-      <c r="K167" s="1"/>
+      <c r="K167" s="1">
+        <v>1217</v>
+      </c>
       <c r="L167" s="1"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -3029,7 +3361,9 @@
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
-      <c r="K168" s="1"/>
+      <c r="K168" s="1">
+        <v>151</v>
+      </c>
       <c r="L168" s="1"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -3044,7 +3378,9 @@
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
-      <c r="K169" s="1"/>
+      <c r="K169" s="1">
+        <v>1616</v>
+      </c>
       <c r="L169" s="1"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -3059,7 +3395,9 @@
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
-      <c r="K170" s="1"/>
+      <c r="K170" s="1">
+        <v>290</v>
+      </c>
       <c r="L170" s="1"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
@@ -3074,7 +3412,9 @@
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
-      <c r="K171" s="1"/>
+      <c r="K171" s="1">
+        <v>508</v>
+      </c>
       <c r="L171" s="1"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -3089,7 +3429,9 @@
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
-      <c r="K172" s="1"/>
+      <c r="K172" s="1">
+        <v>406</v>
+      </c>
       <c r="L172" s="1"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -3104,7 +3446,9 @@
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
-      <c r="K173" s="1"/>
+      <c r="K173" s="1">
+        <v>7132</v>
+      </c>
       <c r="L173" s="1"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -3119,7 +3463,9 @@
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
-      <c r="K174" s="1"/>
+      <c r="K174" s="1">
+        <v>3965</v>
+      </c>
       <c r="L174" s="1"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -3134,7 +3480,9 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
-      <c r="K175" s="1"/>
+      <c r="K175" s="1">
+        <v>1246</v>
+      </c>
       <c r="L175" s="1"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -3149,7 +3497,9 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
-      <c r="K176" s="1"/>
+      <c r="K176" s="1">
+        <v>1932</v>
+      </c>
       <c r="L176" s="1"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -3164,7 +3514,9 @@
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
-      <c r="K177" s="1"/>
+      <c r="K177" s="1">
+        <v>375</v>
+      </c>
       <c r="L177" s="1"/>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -3179,7 +3531,9 @@
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
-      <c r="K178" s="1"/>
+      <c r="K178" s="1">
+        <v>1625</v>
+      </c>
       <c r="L178" s="1"/>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -3194,7 +3548,9 @@
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
-      <c r="K179" s="1"/>
+      <c r="K179" s="1">
+        <v>482</v>
+      </c>
       <c r="L179" s="1"/>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -3209,7 +3565,9 @@
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
-      <c r="K180" s="1"/>
+      <c r="K180" s="1">
+        <v>360</v>
+      </c>
       <c r="L180" s="1"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -3224,7 +3582,9 @@
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
-      <c r="K181" s="1"/>
+      <c r="K181" s="1">
+        <v>1985</v>
+      </c>
       <c r="L181" s="1"/>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -3239,7 +3599,9 @@
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
-      <c r="K182" s="1"/>
+      <c r="K182" s="1">
+        <v>183</v>
+      </c>
       <c r="L182" s="1"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -3254,7 +3616,9 @@
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
-      <c r="K183" s="1"/>
+      <c r="K183" s="1">
+        <v>973</v>
+      </c>
       <c r="L183" s="1"/>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -3269,7 +3633,9 @@
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
-      <c r="K184" s="1"/>
+      <c r="K184" s="1">
+        <v>1204</v>
+      </c>
       <c r="L184" s="1"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -3284,7 +3650,9 @@
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
-      <c r="K185" s="1"/>
+      <c r="K185" s="1">
+        <v>184</v>
+      </c>
       <c r="L185" s="1"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -3299,7 +3667,9 @@
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
-      <c r="K186" s="1"/>
+      <c r="K186" s="1">
+        <v>1578</v>
+      </c>
       <c r="L186" s="1"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -3314,7 +3684,9 @@
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
-      <c r="K187" s="1"/>
+      <c r="K187" s="1">
+        <v>868</v>
+      </c>
       <c r="L187" s="1"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -3329,7 +3701,9 @@
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
-      <c r="K188" s="1"/>
+      <c r="K188" s="1">
+        <v>380</v>
+      </c>
       <c r="L188" s="1"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -3344,7 +3718,9 @@
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
-      <c r="K189" s="1"/>
+      <c r="K189" s="1">
+        <v>1682</v>
+      </c>
       <c r="L189" s="1"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -3359,7 +3735,9 @@
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
-      <c r="K190" s="1"/>
+      <c r="K190" s="1">
+        <v>883</v>
+      </c>
       <c r="L190" s="1"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -3374,7 +3752,9 @@
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
-      <c r="K191" s="1"/>
+      <c r="K191" s="1">
+        <v>2515</v>
+      </c>
       <c r="L191" s="1"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -3389,7 +3769,9 @@
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
-      <c r="K192" s="1"/>
+      <c r="K192" s="1">
+        <v>474</v>
+      </c>
       <c r="L192" s="1"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
@@ -3404,7 +3786,9 @@
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
-      <c r="K193" s="1"/>
+      <c r="K193" s="1">
+        <v>1440</v>
+      </c>
       <c r="L193" s="1"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
@@ -3419,7 +3803,9 @@
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
-      <c r="K194" s="1"/>
+      <c r="K194" s="1">
+        <v>891</v>
+      </c>
       <c r="L194" s="1"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
@@ -3434,7 +3820,9 @@
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
-      <c r="K195" s="1"/>
+      <c r="K195" s="1">
+        <v>782</v>
+      </c>
       <c r="L195" s="1"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
@@ -3449,7 +3837,9 @@
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
-      <c r="K196" s="1"/>
+      <c r="K196" s="1">
+        <v>166</v>
+      </c>
       <c r="L196" s="1"/>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
@@ -3464,7 +3854,9 @@
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
-      <c r="K197" s="1"/>
+      <c r="K197" s="1">
+        <v>1897</v>
+      </c>
       <c r="L197" s="1"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
@@ -3479,7 +3871,9 @@
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
-      <c r="K198" s="1"/>
+      <c r="K198" s="1">
+        <v>108</v>
+      </c>
       <c r="L198" s="1"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
@@ -3494,7 +3888,9 @@
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
-      <c r="K199" s="1"/>
+      <c r="K199" s="1">
+        <v>149</v>
+      </c>
       <c r="L199" s="1"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
@@ -3509,7 +3905,9 @@
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
-      <c r="K200" s="1"/>
+      <c r="K200" s="1">
+        <v>260</v>
+      </c>
       <c r="L200" s="1"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
@@ -3524,7 +3922,9 @@
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
-      <c r="K201" s="1"/>
+      <c r="K201" s="1">
+        <v>1410</v>
+      </c>
       <c r="L201" s="1"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
@@ -3539,7 +3939,9 @@
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
-      <c r="K202" s="1"/>
+      <c r="K202" s="1">
+        <v>182</v>
+      </c>
       <c r="L202" s="1"/>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
@@ -3554,7 +3956,9 @@
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
-      <c r="K203" s="1"/>
+      <c r="K203" s="1">
+        <v>1420</v>
+      </c>
       <c r="L203" s="1"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
@@ -3569,7 +3973,9 @@
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
-      <c r="K204" s="1"/>
+      <c r="K204" s="1">
+        <v>6364</v>
+      </c>
       <c r="L204" s="1"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
@@ -3584,7 +3990,9 @@
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
-      <c r="K205" s="1"/>
+      <c r="K205" s="1">
+        <v>2131</v>
+      </c>
       <c r="L205" s="1"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
@@ -3599,7 +4007,9 @@
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
-      <c r="K206" s="1"/>
+      <c r="K206" s="1">
+        <v>1024</v>
+      </c>
       <c r="L206" s="1"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
@@ -3614,7 +4024,9 @@
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
-      <c r="K207" s="1"/>
+      <c r="K207" s="1">
+        <v>292</v>
+      </c>
       <c r="L207" s="1"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
@@ -3629,7 +4041,9 @@
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
-      <c r="K208" s="1"/>
+      <c r="K208" s="1">
+        <v>1958</v>
+      </c>
       <c r="L208" s="1"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
@@ -3644,7 +4058,9 @@
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
-      <c r="K209" s="1"/>
+      <c r="K209" s="1">
+        <v>819</v>
+      </c>
       <c r="L209" s="1"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
@@ -3659,7 +4075,9 @@
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
-      <c r="K210" s="1"/>
+      <c r="K210" s="1">
+        <v>412</v>
+      </c>
       <c r="L210" s="1"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
@@ -3674,7 +4092,9 @@
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
-      <c r="K211" s="1"/>
+      <c r="K211" s="1">
+        <v>2152</v>
+      </c>
       <c r="L211" s="1"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
@@ -3689,7 +4109,9 @@
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
-      <c r="K212" s="1"/>
+      <c r="K212" s="1">
+        <v>934</v>
+      </c>
       <c r="L212" s="1"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
@@ -3704,7 +4126,9 @@
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
-      <c r="K213" s="1"/>
+      <c r="K213" s="1">
+        <v>681</v>
+      </c>
       <c r="L213" s="1"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
@@ -3719,7 +4143,9 @@
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
-      <c r="K214" s="1"/>
+      <c r="K214" s="1">
+        <v>757</v>
+      </c>
       <c r="L214" s="1"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
@@ -3734,7 +4160,9 @@
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
-      <c r="K215" s="1"/>
+      <c r="K215" s="1">
+        <v>220</v>
+      </c>
       <c r="L215" s="1"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
@@ -3749,7 +4177,9 @@
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
-      <c r="K216" s="1"/>
+      <c r="K216" s="1">
+        <v>477</v>
+      </c>
       <c r="L216" s="1"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
@@ -3764,7 +4194,9 @@
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
-      <c r="K217" s="1"/>
+      <c r="K217" s="1">
+        <v>3197</v>
+      </c>
       <c r="L217" s="1"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
@@ -3779,7 +4211,9 @@
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
-      <c r="K218" s="1"/>
+      <c r="K218" s="1">
+        <v>1277</v>
+      </c>
       <c r="L218" s="1"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
@@ -3794,7 +4228,9 @@
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
-      <c r="K219" s="1"/>
+      <c r="K219" s="1">
+        <v>205</v>
+      </c>
       <c r="L219" s="1"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
@@ -3809,7 +4245,9 @@
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
-      <c r="K220" s="1"/>
+      <c r="K220" s="1">
+        <v>1266</v>
+      </c>
       <c r="L220" s="1"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
@@ -3824,7 +4262,9 @@
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
-      <c r="K221" s="1"/>
+      <c r="K221" s="1">
+        <v>3274</v>
+      </c>
       <c r="L221" s="1"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
@@ -3839,7 +4279,9 @@
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
-      <c r="K222" s="1"/>
+      <c r="K222" s="1">
+        <v>457</v>
+      </c>
       <c r="L222" s="1"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
@@ -3854,7 +4296,9 @@
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
-      <c r="K223" s="1"/>
+      <c r="K223" s="1">
+        <v>1943</v>
+      </c>
       <c r="L223" s="1"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
@@ -3869,7 +4313,9 @@
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
-      <c r="K224" s="1"/>
+      <c r="K224" s="1">
+        <v>1002</v>
+      </c>
       <c r="L224" s="1"/>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
@@ -3884,7 +4330,9 @@
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
-      <c r="K225" s="1"/>
+      <c r="K225" s="1">
+        <v>2502</v>
+      </c>
       <c r="L225" s="1"/>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
@@ -3899,7 +4347,9 @@
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
-      <c r="K226" s="1"/>
+      <c r="K226" s="1">
+        <v>399</v>
+      </c>
       <c r="L226" s="1"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
@@ -3914,7 +4364,9 @@
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
-      <c r="K227" s="1"/>
+      <c r="K227" s="1">
+        <v>402</v>
+      </c>
       <c r="L227" s="1"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
@@ -3929,7 +4381,9 @@
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
-      <c r="K228" s="1"/>
+      <c r="K228" s="1">
+        <v>755</v>
+      </c>
       <c r="L228" s="1"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
@@ -3944,7 +4398,9 @@
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
-      <c r="K229" s="1"/>
+      <c r="K229" s="1">
+        <v>2451</v>
+      </c>
       <c r="L229" s="1"/>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
@@ -3959,7 +4415,9 @@
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
-      <c r="K230" s="1"/>
+      <c r="K230" s="1">
+        <v>2155</v>
+      </c>
       <c r="L230" s="1"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
@@ -3974,7 +4432,9 @@
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
-      <c r="K231" s="1"/>
+      <c r="K231" s="1">
+        <v>583</v>
+      </c>
       <c r="L231" s="1"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
@@ -3989,7 +4449,9 @@
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
-      <c r="K232" s="1"/>
+      <c r="K232" s="1">
+        <v>380</v>
+      </c>
       <c r="L232" s="1"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
@@ -4004,7 +4466,9 @@
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
-      <c r="K233" s="1"/>
+      <c r="K233" s="1">
+        <v>2083</v>
+      </c>
       <c r="L233" s="1"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
@@ -4019,7 +4483,9 @@
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
-      <c r="K234" s="1"/>
+      <c r="K234" s="1">
+        <v>391</v>
+      </c>
       <c r="L234" s="1"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
@@ -4034,7 +4500,9 @@
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
-      <c r="K235" s="1"/>
+      <c r="K235" s="1">
+        <v>1511</v>
+      </c>
       <c r="L235" s="1"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
@@ -4049,7 +4517,9 @@
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
-      <c r="K236" s="1"/>
+      <c r="K236" s="1">
+        <v>887</v>
+      </c>
       <c r="L236" s="1"/>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
@@ -4064,7 +4534,9 @@
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
-      <c r="K237" s="1"/>
+      <c r="K237" s="1">
+        <v>543</v>
+      </c>
       <c r="L237" s="1"/>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
@@ -4079,7 +4551,9 @@
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
-      <c r="K238" s="1"/>
+      <c r="K238" s="1">
+        <v>332</v>
+      </c>
       <c r="L238" s="1"/>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
@@ -4094,7 +4568,9 @@
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
-      <c r="K239" s="1"/>
+      <c r="K239" s="1">
+        <v>291</v>
+      </c>
       <c r="L239" s="1"/>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
@@ -4109,7 +4585,9 @@
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
-      <c r="K240" s="1"/>
+      <c r="K240" s="1">
+        <v>418</v>
+      </c>
       <c r="L240" s="1"/>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
@@ -4124,7 +4602,9 @@
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
-      <c r="K241" s="1"/>
+      <c r="K241" s="1">
+        <v>723</v>
+      </c>
       <c r="L241" s="1"/>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
@@ -4139,7 +4619,9 @@
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
-      <c r="K242" s="1"/>
+      <c r="K242" s="1">
+        <v>6033</v>
+      </c>
       <c r="L242" s="1"/>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
@@ -4154,7 +4636,9 @@
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
-      <c r="K243" s="1"/>
+      <c r="K243" s="1">
+        <v>752</v>
+      </c>
       <c r="L243" s="1"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
@@ -4169,7 +4653,9 @@
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
-      <c r="K244" s="1"/>
+      <c r="K244" s="1">
+        <v>830</v>
+      </c>
       <c r="L244" s="1"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
@@ -4184,7 +4670,9 @@
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
-      <c r="K245" s="1"/>
+      <c r="K245" s="1">
+        <v>862</v>
+      </c>
       <c r="L245" s="1"/>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
@@ -4199,7 +4687,9 @@
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
-      <c r="K246" s="1"/>
+      <c r="K246" s="1">
+        <v>1539</v>
+      </c>
       <c r="L246" s="1"/>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
@@ -4214,7 +4704,9 @@
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
-      <c r="K247" s="1"/>
+      <c r="K247" s="1">
+        <v>836</v>
+      </c>
       <c r="L247" s="1"/>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
@@ -4229,7 +4721,9 @@
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
-      <c r="K248" s="1"/>
+      <c r="K248" s="1">
+        <v>1376</v>
+      </c>
       <c r="L248" s="1"/>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
@@ -4244,7 +4738,9 @@
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
-      <c r="K249" s="1"/>
+      <c r="K249" s="1">
+        <v>841</v>
+      </c>
       <c r="L249" s="1"/>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
@@ -4259,7 +4755,9 @@
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
-      <c r="K250" s="1"/>
+      <c r="K250" s="1">
+        <v>885</v>
+      </c>
       <c r="L250" s="1"/>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
@@ -4274,7 +4772,9 @@
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
-      <c r="K251" s="1"/>
+      <c r="K251" s="1">
+        <v>3709</v>
+      </c>
       <c r="L251" s="1"/>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
@@ -4289,7 +4789,9 @@
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
-      <c r="K252" s="1"/>
+      <c r="K252" s="1">
+        <v>166</v>
+      </c>
       <c r="L252" s="1"/>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
@@ -4304,7 +4806,9 @@
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
-      <c r="K253" s="1"/>
+      <c r="K253" s="1">
+        <v>529</v>
+      </c>
       <c r="L253" s="1"/>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
@@ -4319,7 +4823,9 @@
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
-      <c r="K254" s="1"/>
+      <c r="K254" s="1">
+        <v>3715</v>
+      </c>
       <c r="L254" s="1"/>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
@@ -4334,7 +4840,9 @@
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
-      <c r="K255" s="1"/>
+      <c r="K255" s="1">
+        <v>714</v>
+      </c>
       <c r="L255" s="1"/>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
@@ -4349,7 +4857,9 @@
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
-      <c r="K256" s="1"/>
+      <c r="K256" s="1">
+        <v>773</v>
+      </c>
       <c r="L256" s="1"/>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
@@ -4364,7 +4874,9 @@
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
-      <c r="K257" s="1"/>
+      <c r="K257" s="1">
+        <v>1120</v>
+      </c>
       <c r="L257" s="1"/>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
@@ -4379,7 +4891,9 @@
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
-      <c r="K258" s="1"/>
+      <c r="K258" s="1">
+        <v>1946</v>
+      </c>
       <c r="L258" s="1"/>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
@@ -4394,7 +4908,9 @@
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
-      <c r="K259" s="1"/>
+      <c r="K259" s="1">
+        <v>516</v>
+      </c>
       <c r="L259" s="1"/>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
@@ -4409,7 +4925,9 @@
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
-      <c r="K260" s="1"/>
+      <c r="K260" s="1">
+        <v>1510</v>
+      </c>
       <c r="L260" s="1"/>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
@@ -4424,7 +4942,9 @@
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
-      <c r="K261" s="1"/>
+      <c r="K261" s="1">
+        <v>1376</v>
+      </c>
       <c r="L261" s="1"/>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
@@ -4439,7 +4959,9 @@
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
-      <c r="K262" s="1"/>
+      <c r="K262" s="1">
+        <v>246</v>
+      </c>
       <c r="L262" s="1"/>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
@@ -4454,7 +4976,9 @@
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
-      <c r="K263" s="1"/>
+      <c r="K263" s="1">
+        <v>336</v>
+      </c>
       <c r="L263" s="1"/>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
@@ -4469,7 +4993,9 @@
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
-      <c r="K264" s="1"/>
+      <c r="K264" s="1">
+        <v>217</v>
+      </c>
       <c r="L264" s="1"/>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
@@ -4484,7 +5010,9 @@
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
-      <c r="K265" s="1"/>
+      <c r="K265" s="1">
+        <v>373</v>
+      </c>
       <c r="L265" s="1"/>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
@@ -4499,7 +5027,9 @@
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
-      <c r="K266" s="1"/>
+      <c r="K266" s="1">
+        <v>129</v>
+      </c>
       <c r="L266" s="1"/>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
@@ -4514,7 +5044,9 @@
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
-      <c r="K267" s="1"/>
+      <c r="K267" s="1">
+        <v>1096</v>
+      </c>
       <c r="L267" s="1"/>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
@@ -4529,7 +5061,9 @@
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
-      <c r="K268" s="1"/>
+      <c r="K268" s="1">
+        <v>9621</v>
+      </c>
       <c r="L268" s="1"/>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
@@ -4544,7 +5078,9 @@
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
-      <c r="K269" s="1"/>
+      <c r="K269" s="1">
+        <v>105</v>
+      </c>
       <c r="L269" s="1"/>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
@@ -4559,7 +5095,9 @@
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
-      <c r="K270" s="1"/>
+      <c r="K270" s="1">
+        <v>428</v>
+      </c>
       <c r="L270" s="1"/>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
@@ -4574,7 +5112,9 @@
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
-      <c r="K271" s="1"/>
+      <c r="K271" s="1">
+        <v>1166</v>
+      </c>
       <c r="L271" s="1"/>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
@@ -4589,7 +5129,9 @@
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
-      <c r="K272" s="1"/>
+      <c r="K272" s="1">
+        <v>153</v>
+      </c>
       <c r="L272" s="1"/>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
@@ -4604,7 +5146,9 @@
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
-      <c r="K273" s="1"/>
+      <c r="K273" s="1">
+        <v>637</v>
+      </c>
       <c r="L273" s="1"/>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
@@ -4619,7 +5163,9 @@
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
-      <c r="K274" s="1"/>
+      <c r="K274" s="1">
+        <v>189</v>
+      </c>
       <c r="L274" s="1"/>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
@@ -4634,7 +5180,9 @@
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
-      <c r="K275" s="1"/>
+      <c r="K275" s="1">
+        <v>584</v>
+      </c>
       <c r="L275" s="1"/>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
@@ -4649,7 +5197,9 @@
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
-      <c r="K276" s="1"/>
+      <c r="K276" s="1">
+        <v>989</v>
+      </c>
       <c r="L276" s="1"/>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
@@ -4664,7 +5214,9 @@
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
-      <c r="K277" s="1"/>
+      <c r="K277" s="1">
+        <v>606</v>
+      </c>
       <c r="L277" s="1"/>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
@@ -4679,7 +5231,9 @@
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
-      <c r="K278" s="1"/>
+      <c r="K278" s="1">
+        <v>3265</v>
+      </c>
       <c r="L278" s="1"/>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
@@ -4694,7 +5248,9 @@
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
-      <c r="K279" s="1"/>
+      <c r="K279" s="1">
+        <v>1611</v>
+      </c>
       <c r="L279" s="1"/>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
@@ -4709,7 +5265,9 @@
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
-      <c r="K280" s="1"/>
+      <c r="K280" s="1">
+        <v>2971</v>
+      </c>
       <c r="L280" s="1"/>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
@@ -4724,7 +5282,9 @@
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
-      <c r="K281" s="1"/>
+      <c r="K281" s="1">
+        <v>368</v>
+      </c>
       <c r="L281" s="1"/>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
@@ -4739,7 +5299,9 @@
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
-      <c r="K282" s="1"/>
+      <c r="K282" s="1">
+        <v>553</v>
+      </c>
       <c r="L282" s="1"/>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
@@ -4754,7 +5316,9 @@
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
-      <c r="K283" s="1"/>
+      <c r="K283" s="1">
+        <v>2316</v>
+      </c>
       <c r="L283" s="1"/>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
@@ -4769,7 +5333,9 @@
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
-      <c r="K284" s="1"/>
+      <c r="K284" s="1">
+        <v>1162</v>
+      </c>
       <c r="L284" s="1"/>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
@@ -4784,7 +5350,9 @@
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
-      <c r="K285" s="1"/>
+      <c r="K285" s="1">
+        <v>991</v>
+      </c>
       <c r="L285" s="1"/>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
@@ -4799,7 +5367,9 @@
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
-      <c r="K286" s="1"/>
+      <c r="K286" s="1">
+        <v>235</v>
+      </c>
       <c r="L286" s="1"/>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
@@ -4814,7 +5384,9 @@
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
-      <c r="K287" s="1"/>
+      <c r="K287" s="1">
+        <v>593</v>
+      </c>
       <c r="L287" s="1"/>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
@@ -4829,7 +5401,9 @@
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
-      <c r="K288" s="1"/>
+      <c r="K288" s="1">
+        <v>157</v>
+      </c>
       <c r="L288" s="1"/>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
@@ -4844,7 +5418,9 @@
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
-      <c r="K289" s="1"/>
+      <c r="K289" s="1">
+        <v>321</v>
+      </c>
       <c r="L289" s="1"/>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
@@ -4859,7 +5435,9 @@
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
-      <c r="K290" s="1"/>
+      <c r="K290" s="1">
+        <v>334</v>
+      </c>
       <c r="L290" s="1"/>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
@@ -4874,7 +5452,9 @@
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
-      <c r="K291" s="1"/>
+      <c r="K291" s="1">
+        <v>796</v>
+      </c>
       <c r="L291" s="1"/>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
@@ -4889,7 +5469,9 @@
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
-      <c r="K292" s="1"/>
+      <c r="K292" s="1">
+        <v>1327</v>
+      </c>
       <c r="L292" s="1"/>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
@@ -4904,7 +5486,9 @@
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
-      <c r="K293" s="1"/>
+      <c r="K293" s="1">
+        <v>756</v>
+      </c>
       <c r="L293" s="1"/>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
@@ -4919,7 +5503,9 @@
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
-      <c r="K294" s="1"/>
+      <c r="K294" s="1">
+        <v>6006</v>
+      </c>
       <c r="L294" s="1"/>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
@@ -4934,7 +5520,9 @@
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
       <c r="J295" s="1"/>
-      <c r="K295" s="1"/>
+      <c r="K295" s="1">
+        <v>1408</v>
+      </c>
       <c r="L295" s="1"/>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
@@ -4949,7 +5537,9 @@
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
       <c r="J296" s="1"/>
-      <c r="K296" s="1"/>
+      <c r="K296" s="1">
+        <v>110</v>
+      </c>
       <c r="L296" s="1"/>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
@@ -4964,7 +5554,9 @@
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
       <c r="J297" s="1"/>
-      <c r="K297" s="1"/>
+      <c r="K297" s="1">
+        <v>2262</v>
+      </c>
       <c r="L297" s="1"/>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
@@ -4979,7 +5571,9 @@
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
       <c r="J298" s="1"/>
-      <c r="K298" s="1"/>
+      <c r="K298" s="1">
+        <v>4205</v>
+      </c>
       <c r="L298" s="1"/>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
@@ -4994,7 +5588,9 @@
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
       <c r="J299" s="1"/>
-      <c r="K299" s="1"/>
+      <c r="K299" s="1">
+        <v>2880</v>
+      </c>
       <c r="L299" s="1"/>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
@@ -5009,7 +5605,9 @@
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
-      <c r="K300" s="1"/>
+      <c r="K300" s="1">
+        <v>375</v>
+      </c>
       <c r="L300" s="1"/>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
@@ -5024,7 +5622,9 @@
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
       <c r="J301" s="1"/>
-      <c r="K301" s="1"/>
+      <c r="K301" s="1">
+        <v>858</v>
+      </c>
       <c r="L301" s="1"/>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
@@ -5039,7 +5639,9 @@
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
       <c r="J302" s="1"/>
-      <c r="K302" s="1"/>
+      <c r="K302" s="1">
+        <v>4670</v>
+      </c>
       <c r="L302" s="1"/>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
@@ -5054,7 +5656,9 @@
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
       <c r="J303" s="1"/>
-      <c r="K303" s="1"/>
+      <c r="K303" s="1">
+        <v>2175</v>
+      </c>
       <c r="L303" s="1"/>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
@@ -5069,7 +5673,9 @@
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
-      <c r="K304" s="1"/>
+      <c r="K304" s="1">
+        <v>1303</v>
+      </c>
       <c r="L304" s="1"/>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
@@ -5084,7 +5690,9 @@
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
       <c r="J305" s="1"/>
-      <c r="K305" s="1"/>
+      <c r="K305" s="1">
+        <v>765</v>
+      </c>
       <c r="L305" s="1"/>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
@@ -5099,7 +5707,9 @@
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
       <c r="J306" s="1"/>
-      <c r="K306" s="1"/>
+      <c r="K306" s="1">
+        <v>5362</v>
+      </c>
       <c r="L306" s="1"/>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
@@ -5114,7 +5724,9 @@
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
       <c r="J307" s="1"/>
-      <c r="K307" s="1"/>
+      <c r="K307" s="1">
+        <v>702</v>
+      </c>
       <c r="L307" s="1"/>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
@@ -5129,7 +5741,9 @@
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
-      <c r="K308" s="1"/>
+      <c r="K308" s="1">
+        <v>727</v>
+      </c>
       <c r="L308" s="1"/>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
@@ -5144,7 +5758,9 @@
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
       <c r="J309" s="1"/>
-      <c r="K309" s="1"/>
+      <c r="K309" s="1">
+        <v>1667</v>
+      </c>
       <c r="L309" s="1"/>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
@@ -5159,7 +5775,9 @@
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
       <c r="J310" s="1"/>
-      <c r="K310" s="1"/>
+      <c r="K310" s="1">
+        <v>314</v>
+      </c>
       <c r="L310" s="1"/>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
@@ -5174,7 +5792,9 @@
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
       <c r="J311" s="1"/>
-      <c r="K311" s="1"/>
+      <c r="K311" s="1">
+        <v>2248</v>
+      </c>
       <c r="L311" s="1"/>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
@@ -5189,7 +5809,9 @@
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
       <c r="J312" s="1"/>
-      <c r="K312" s="1"/>
+      <c r="K312" s="1">
+        <v>1129</v>
+      </c>
       <c r="L312" s="1"/>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.25">
@@ -5204,7 +5826,9 @@
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
       <c r="J313" s="1"/>
-      <c r="K313" s="1"/>
+      <c r="K313" s="1">
+        <v>135</v>
+      </c>
       <c r="L313" s="1"/>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
@@ -5219,7 +5843,9 @@
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
       <c r="J314" s="1"/>
-      <c r="K314" s="1"/>
+      <c r="K314" s="1">
+        <v>207</v>
+      </c>
       <c r="L314" s="1"/>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
@@ -5234,7 +5860,9 @@
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
-      <c r="K315" s="1"/>
+      <c r="K315" s="1">
+        <v>273</v>
+      </c>
       <c r="L315" s="1"/>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
@@ -5249,7 +5877,9 @@
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
       <c r="J316" s="1"/>
-      <c r="K316" s="1"/>
+      <c r="K316" s="1">
+        <v>651</v>
+      </c>
       <c r="L316" s="1"/>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
@@ -5264,7 +5894,9 @@
       <c r="H317" s="1"/>
       <c r="I317" s="1"/>
       <c r="J317" s="1"/>
-      <c r="K317" s="1"/>
+      <c r="K317" s="1">
+        <v>4061</v>
+      </c>
       <c r="L317" s="1"/>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
@@ -5279,7 +5911,9 @@
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
       <c r="J318" s="1"/>
-      <c r="K318" s="1"/>
+      <c r="K318" s="1">
+        <v>415</v>
+      </c>
       <c r="L318" s="1"/>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
@@ -5294,7 +5928,9 @@
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
-      <c r="K319" s="1"/>
+      <c r="K319" s="1">
+        <v>1593</v>
+      </c>
       <c r="L319" s="1"/>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
@@ -5309,7 +5945,9 @@
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
-      <c r="K320" s="1"/>
+      <c r="K320" s="1">
+        <v>1301</v>
+      </c>
       <c r="L320" s="1"/>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
@@ -5324,7 +5962,9 @@
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
       <c r="J321" s="1"/>
-      <c r="K321" s="1"/>
+      <c r="K321" s="1">
+        <v>657</v>
+      </c>
       <c r="L321" s="1"/>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
@@ -5339,7 +5979,9 @@
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
       <c r="J322" s="1"/>
-      <c r="K322" s="1"/>
+      <c r="K322" s="1">
+        <v>654</v>
+      </c>
       <c r="L322" s="1"/>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
@@ -5354,7 +5996,9 @@
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
       <c r="J323" s="1"/>
-      <c r="K323" s="1"/>
+      <c r="K323" s="1">
+        <v>329</v>
+      </c>
       <c r="L323" s="1"/>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">

--- a/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
+++ b/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Area of ROI</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>1024*1280</t>
   </si>
 </sst>
 </file>
@@ -577,9 +580,8 @@
       <c r="A3" s="3">
         <v>587</v>
       </c>
-      <c r="B3" s="3">
-        <f>1024*1280</f>
-        <v>1310720</v>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>

--- a/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
+++ b/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Area of ROI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>CS-1-(100x)</t>
   </si>
@@ -480,7 +477,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,64 +493,64 @@
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -561,7 +558,7 @@
         <v>1147</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -581,7 +578,7 @@
         <v>587</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -601,7 +598,7 @@
         <v>9364</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -620,9 +617,8 @@
       <c r="A5" s="3">
         <v>2109</v>
       </c>
-      <c r="B5" s="3">
-        <f>SUM(A:A)</f>
-        <v>299232</v>
+      <c r="B5" s="6">
+        <v>0.22828999999999999</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -662,7 +658,7 @@
         <v>1867</v>
       </c>
       <c r="B7" s="6">
-        <v>0.22828999999999999</v>
+        <v>7.6910000000000006E-2</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -681,9 +677,6 @@
       <c r="A8" s="3">
         <v>427</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -700,9 +693,6 @@
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1167</v>
-      </c>
-      <c r="B9" s="6">
-        <v>7.6910000000000006E-2</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>

--- a/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
+++ b/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>CS-1-(100x)</t>
   </si>
@@ -473,11 +473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U356"/>
+  <dimension ref="A1:V356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:B7"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,12 +486,14 @@
     <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="20" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="1" customWidth="1"/>
+    <col min="14" max="21" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -525,35 +527,35 @@
       <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1147</v>
       </c>
@@ -571,9 +573,12 @@
       <c r="L2" s="3">
         <v>573</v>
       </c>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>587</v>
       </c>
@@ -591,9 +596,12 @@
       <c r="L3" s="3">
         <v>358</v>
       </c>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>9364</v>
       </c>
@@ -611,9 +619,12 @@
       <c r="L4" s="3">
         <v>326</v>
       </c>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2109</v>
       </c>
@@ -631,9 +642,12 @@
       <c r="L5" s="3">
         <v>253</v>
       </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M5" s="6">
+        <v>0.22828999999999999</v>
+      </c>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>382</v>
       </c>
@@ -651,9 +665,12 @@
       <c r="L6" s="3">
         <v>298</v>
       </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1867</v>
       </c>
@@ -671,9 +688,12 @@
       <c r="L7" s="3">
         <v>651</v>
       </c>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M7" s="6">
+        <v>7.6910000000000006E-2</v>
+      </c>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>427</v>
       </c>
@@ -689,8 +709,9 @@
         <v>137</v>
       </c>
       <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1167</v>
       </c>
@@ -706,8 +727,9 @@
         <v>2648</v>
       </c>
       <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>160</v>
       </c>
@@ -724,8 +746,9 @@
         <v>1674</v>
       </c>
       <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>413</v>
       </c>
@@ -742,8 +765,9 @@
         <v>394</v>
       </c>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>217</v>
       </c>
@@ -760,8 +784,9 @@
         <v>2140</v>
       </c>
       <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>578</v>
       </c>
@@ -778,8 +803,9 @@
         <v>390</v>
       </c>
       <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>792</v>
       </c>
@@ -796,8 +822,9 @@
         <v>3771</v>
       </c>
       <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>106</v>
       </c>
@@ -814,8 +841,9 @@
         <v>1705</v>
       </c>
       <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2003</v>
       </c>
@@ -832,8 +860,9 @@
         <v>516</v>
       </c>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>308</v>
       </c>
@@ -850,8 +879,9 @@
         <v>979</v>
       </c>
       <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>172</v>
       </c>
@@ -868,8 +898,9 @@
         <v>1557</v>
       </c>
       <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1253</v>
       </c>
@@ -886,8 +917,9 @@
         <v>1084</v>
       </c>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>546</v>
       </c>
@@ -904,8 +936,9 @@
         <v>369</v>
       </c>
       <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>341</v>
       </c>
@@ -922,8 +955,9 @@
         <v>256</v>
       </c>
       <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>140</v>
       </c>
@@ -940,8 +974,9 @@
         <v>168</v>
       </c>
       <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>711</v>
       </c>
@@ -958,8 +993,9 @@
         <v>611</v>
       </c>
       <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>529</v>
       </c>
@@ -976,8 +1012,9 @@
         <v>983</v>
       </c>
       <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>400</v>
       </c>
@@ -994,8 +1031,9 @@
         <v>353</v>
       </c>
       <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>215</v>
       </c>
@@ -1012,8 +1050,9 @@
         <v>317</v>
       </c>
       <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2959</v>
       </c>
@@ -1030,8 +1069,9 @@
         <v>1495</v>
       </c>
       <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>349</v>
       </c>
@@ -1048,8 +1088,9 @@
         <v>855</v>
       </c>
       <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>972</v>
       </c>
@@ -1066,8 +1107,9 @@
         <v>760</v>
       </c>
       <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>942</v>
       </c>
@@ -1084,8 +1126,9 @@
         <v>3201</v>
       </c>
       <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>1172</v>
       </c>
@@ -1102,8 +1145,9 @@
         <v>1465</v>
       </c>
       <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>358</v>
       </c>
@@ -1120,8 +1164,9 @@
         <v>741</v>
       </c>
       <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2155</v>
       </c>
@@ -1138,8 +1183,9 @@
         <v>3745</v>
       </c>
       <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>268</v>
       </c>
@@ -1156,8 +1202,9 @@
         <v>1120</v>
       </c>
       <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>992</v>
       </c>
@@ -1174,8 +1221,9 @@
         <v>1788</v>
       </c>
       <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>678</v>
       </c>
@@ -1192,8 +1240,9 @@
         <v>643</v>
       </c>
       <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>829</v>
       </c>
@@ -1210,8 +1259,9 @@
         <v>147</v>
       </c>
       <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>487</v>
       </c>
@@ -1228,8 +1278,9 @@
         <v>1000</v>
       </c>
       <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2772</v>
       </c>
@@ -1246,8 +1297,9 @@
         <v>619</v>
       </c>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>1978</v>
       </c>
@@ -1264,8 +1316,9 @@
         <v>1067</v>
       </c>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>376</v>
       </c>
@@ -1282,8 +1335,9 @@
         <v>329</v>
       </c>
       <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>205</v>
       </c>
@@ -1300,8 +1354,9 @@
         <v>2549</v>
       </c>
       <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>246</v>
       </c>
@@ -1318,8 +1373,9 @@
         <v>921</v>
       </c>
       <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>559</v>
       </c>
@@ -1336,8 +1392,9 @@
         <v>1488</v>
       </c>
       <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>333</v>
       </c>
@@ -1354,8 +1411,9 @@
         <v>105</v>
       </c>
       <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>588</v>
       </c>
@@ -1372,8 +1430,9 @@
         <v>769</v>
       </c>
       <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>353</v>
       </c>
@@ -1390,8 +1449,9 @@
         <v>233</v>
       </c>
       <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>174</v>
       </c>
@@ -1408,8 +1468,9 @@
         <v>729</v>
       </c>
       <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>1841</v>
       </c>
@@ -1426,8 +1487,9 @@
         <v>5177</v>
       </c>
       <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>674</v>
       </c>
@@ -1444,8 +1506,9 @@
         <v>879</v>
       </c>
       <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>1577</v>
       </c>
@@ -1462,8 +1525,9 @@
         <v>395</v>
       </c>
       <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>436</v>
       </c>
@@ -1480,8 +1544,9 @@
         <v>868</v>
       </c>
       <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>132</v>
       </c>
@@ -1498,8 +1563,9 @@
         <v>1850</v>
       </c>
       <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>227</v>
       </c>
@@ -1516,8 +1582,9 @@
         <v>1233</v>
       </c>
       <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>332</v>
       </c>
@@ -1534,8 +1601,9 @@
         <v>404</v>
       </c>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>593</v>
       </c>
@@ -1552,8 +1620,9 @@
         <v>387</v>
       </c>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>359</v>
       </c>
@@ -1570,8 +1639,9 @@
         <v>434</v>
       </c>
       <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>369</v>
       </c>
@@ -1588,8 +1658,9 @@
         <v>618</v>
       </c>
       <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>917</v>
       </c>
@@ -1606,8 +1677,9 @@
         <v>268</v>
       </c>
       <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>1157</v>
       </c>
@@ -1624,8 +1696,9 @@
         <v>446</v>
       </c>
       <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>217</v>
       </c>
@@ -1642,8 +1715,9 @@
         <v>4275</v>
       </c>
       <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>378</v>
       </c>
@@ -1660,8 +1734,9 @@
         <v>448</v>
       </c>
       <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>522</v>
       </c>
@@ -1678,8 +1753,9 @@
         <v>318</v>
       </c>
       <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>376</v>
       </c>
@@ -1696,8 +1772,9 @@
         <v>1424</v>
       </c>
       <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>310</v>
       </c>
@@ -1714,8 +1791,9 @@
         <v>356</v>
       </c>
       <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>1307</v>
       </c>
@@ -1732,8 +1810,9 @@
         <v>336</v>
       </c>
       <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>572</v>
       </c>
@@ -1750,8 +1829,9 @@
         <v>1817</v>
       </c>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>608</v>
       </c>
@@ -1768,8 +1848,9 @@
         <v>1223</v>
       </c>
       <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>888</v>
       </c>
@@ -1786,8 +1867,9 @@
         <v>225</v>
       </c>
       <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>1005</v>
       </c>
@@ -1804,8 +1886,9 @@
         <v>645</v>
       </c>
       <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>508</v>
       </c>
@@ -1822,8 +1905,9 @@
         <v>181</v>
       </c>
       <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>579</v>
       </c>
@@ -1840,8 +1924,9 @@
         <v>1468</v>
       </c>
       <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>3575</v>
       </c>
@@ -1858,8 +1943,9 @@
         <v>436</v>
       </c>
       <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>256</v>
       </c>
@@ -1876,8 +1962,9 @@
         <v>1708</v>
       </c>
       <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>114</v>
       </c>
@@ -1894,8 +1981,9 @@
         <v>1714</v>
       </c>
       <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>368</v>
       </c>
@@ -1912,8 +2000,9 @@
         <v>396</v>
       </c>
       <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>1098</v>
       </c>
@@ -1930,8 +2019,9 @@
         <v>2092</v>
       </c>
       <c r="M77" s="3"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77" s="3"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>238</v>
       </c>
@@ -1948,8 +2038,9 @@
         <v>213</v>
       </c>
       <c r="M78" s="3"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78" s="3"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>1355</v>
       </c>
@@ -1966,8 +2057,9 @@
         <v>1381</v>
       </c>
       <c r="M79" s="3"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79" s="3"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>3195</v>
       </c>
@@ -1984,8 +2076,9 @@
         <v>329</v>
       </c>
       <c r="M80" s="3"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80" s="3"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>825</v>
       </c>
@@ -2002,8 +2095,9 @@
         <v>304</v>
       </c>
       <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>1381</v>
       </c>
@@ -2020,8 +2114,9 @@
         <v>726</v>
       </c>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>141</v>
       </c>
@@ -2038,8 +2133,9 @@
         <v>851</v>
       </c>
       <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>425</v>
       </c>
@@ -2056,8 +2152,9 @@
         <v>1198</v>
       </c>
       <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>379</v>
       </c>
@@ -2074,8 +2171,9 @@
         <v>442</v>
       </c>
       <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>5634</v>
       </c>
@@ -2092,8 +2190,9 @@
         <v>1107</v>
       </c>
       <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>199</v>
       </c>
@@ -2110,8 +2209,9 @@
         <v>248</v>
       </c>
       <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>226</v>
       </c>
@@ -2128,8 +2228,9 @@
         <v>809</v>
       </c>
       <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>257</v>
       </c>
@@ -2146,8 +2247,9 @@
         <v>1520</v>
       </c>
       <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>2059</v>
       </c>
@@ -2164,8 +2266,9 @@
         <v>480</v>
       </c>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>416</v>
       </c>
@@ -2182,8 +2285,9 @@
         <v>481</v>
       </c>
       <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>152</v>
       </c>
@@ -2200,8 +2304,9 @@
         <v>894</v>
       </c>
       <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>372</v>
       </c>
@@ -2218,8 +2323,9 @@
         <v>136</v>
       </c>
       <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>2275</v>
       </c>
@@ -2236,8 +2342,9 @@
         <v>895</v>
       </c>
       <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>276</v>
       </c>
@@ -2254,8 +2361,9 @@
         <v>1951</v>
       </c>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>285</v>
       </c>
@@ -2272,8 +2380,9 @@
         <v>2453</v>
       </c>
       <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>338</v>
       </c>
@@ -2290,8 +2399,9 @@
         <v>1123</v>
       </c>
       <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>487</v>
       </c>
@@ -2308,8 +2418,9 @@
         <v>212</v>
       </c>
       <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>1295</v>
       </c>
@@ -2326,8 +2437,9 @@
         <v>908</v>
       </c>
       <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>425</v>
       </c>
@@ -2344,8 +2456,9 @@
         <v>551</v>
       </c>
       <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>1417</v>
       </c>
@@ -2362,8 +2475,9 @@
         <v>711</v>
       </c>
       <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>509</v>
       </c>
@@ -2380,8 +2494,9 @@
         <v>545</v>
       </c>
       <c r="M102" s="3"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N102" s="3"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>1044</v>
       </c>
@@ -2398,8 +2513,9 @@
         <v>821</v>
       </c>
       <c r="M103" s="3"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N103" s="3"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>1279</v>
       </c>
@@ -2416,8 +2532,9 @@
         <v>873</v>
       </c>
       <c r="M104" s="3"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N104" s="3"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>3877</v>
       </c>
@@ -2434,8 +2551,9 @@
         <v>112</v>
       </c>
       <c r="M105" s="3"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N105" s="3"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>589</v>
       </c>
@@ -2452,8 +2570,9 @@
         <v>388</v>
       </c>
       <c r="M106" s="3"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N106" s="3"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>127</v>
       </c>
@@ -2470,8 +2589,9 @@
         <v>498</v>
       </c>
       <c r="M107" s="3"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N107" s="3"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>560</v>
       </c>
@@ -2488,8 +2608,9 @@
         <v>262</v>
       </c>
       <c r="M108" s="3"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N108" s="3"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>955</v>
       </c>
@@ -2506,8 +2627,9 @@
         <v>332</v>
       </c>
       <c r="M109" s="3"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N109" s="3"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>1736</v>
       </c>
@@ -2524,8 +2646,9 @@
         <v>481</v>
       </c>
       <c r="M110" s="3"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N110" s="3"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>1299</v>
       </c>
@@ -2542,8 +2665,9 @@
         <v>798</v>
       </c>
       <c r="M111" s="3"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N111" s="3"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>2793</v>
       </c>
@@ -2560,8 +2684,9 @@
         <v>2810</v>
       </c>
       <c r="M112" s="3"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N112" s="3"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>1043</v>
       </c>
@@ -2578,8 +2703,9 @@
         <v>869</v>
       </c>
       <c r="M113" s="3"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N113" s="3"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>279</v>
       </c>
@@ -2596,8 +2722,9 @@
         <v>428</v>
       </c>
       <c r="M114" s="3"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N114" s="3"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>919</v>
       </c>
@@ -2614,8 +2741,9 @@
         <v>6194</v>
       </c>
       <c r="M115" s="3"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N115" s="3"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>1788</v>
       </c>
@@ -2632,8 +2760,9 @@
         <v>753</v>
       </c>
       <c r="M116" s="3"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N116" s="3"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>749</v>
       </c>
@@ -2650,8 +2779,9 @@
         <v>294</v>
       </c>
       <c r="M117" s="3"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N117" s="3"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>473</v>
       </c>
@@ -2668,8 +2798,9 @@
         <v>240</v>
       </c>
       <c r="M118" s="3"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N118" s="3"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>967</v>
       </c>
@@ -2686,8 +2817,9 @@
         <v>683</v>
       </c>
       <c r="M119" s="3"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N119" s="3"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>477</v>
       </c>
@@ -2704,8 +2836,9 @@
         <v>1634</v>
       </c>
       <c r="M120" s="3"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N120" s="3"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>708</v>
       </c>
@@ -2722,8 +2855,9 @@
         <v>2435</v>
       </c>
       <c r="M121" s="3"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N121" s="3"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>404</v>
       </c>
@@ -2740,8 +2874,9 @@
         <v>572</v>
       </c>
       <c r="M122" s="3"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N122" s="3"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>588</v>
       </c>
@@ -2758,8 +2893,9 @@
         <v>1820</v>
       </c>
       <c r="M123" s="3"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N123" s="3"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>208</v>
       </c>
@@ -2776,8 +2912,9 @@
         <v>113</v>
       </c>
       <c r="M124" s="3"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N124" s="3"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>569</v>
       </c>
@@ -2794,8 +2931,9 @@
         <v>251</v>
       </c>
       <c r="M125" s="3"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N125" s="3"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>247</v>
       </c>
@@ -2812,8 +2950,9 @@
         <v>981</v>
       </c>
       <c r="M126" s="3"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N126" s="3"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>894</v>
       </c>
@@ -2830,8 +2969,9 @@
         <v>620</v>
       </c>
       <c r="M127" s="3"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N127" s="3"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>1920</v>
       </c>
@@ -2848,8 +2988,9 @@
         <v>753</v>
       </c>
       <c r="M128" s="3"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N128" s="3"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>375</v>
       </c>
@@ -2866,8 +3007,9 @@
         <v>299</v>
       </c>
       <c r="M129" s="3"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N129" s="3"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>948</v>
       </c>
@@ -2884,8 +3026,9 @@
         <v>3040</v>
       </c>
       <c r="M130" s="3"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N130" s="3"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>1303</v>
       </c>
@@ -2902,8 +3045,9 @@
         <v>314</v>
       </c>
       <c r="M131" s="3"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N131" s="3"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>449</v>
       </c>
@@ -2920,8 +3064,9 @@
         <v>2346</v>
       </c>
       <c r="M132" s="3"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N132" s="3"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>1214</v>
       </c>
@@ -2938,8 +3083,9 @@
         <v>1054</v>
       </c>
       <c r="M133" s="3"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N133" s="3"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>348</v>
       </c>
@@ -2956,8 +3102,9 @@
         <v>867</v>
       </c>
       <c r="M134" s="3"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N134" s="3"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>511</v>
       </c>
@@ -2974,8 +3121,9 @@
         <v>379</v>
       </c>
       <c r="M135" s="3"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N135" s="3"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>1490</v>
       </c>
@@ -2992,8 +3140,9 @@
         <v>1280</v>
       </c>
       <c r="M136" s="3"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N136" s="3"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>213</v>
       </c>
@@ -3010,8 +3159,9 @@
         <v>2090</v>
       </c>
       <c r="M137" s="3"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N137" s="3"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>810</v>
       </c>
@@ -3028,8 +3178,9 @@
         <v>677</v>
       </c>
       <c r="M138" s="3"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N138" s="3"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>2612</v>
       </c>
@@ -3046,8 +3197,9 @@
         <v>279</v>
       </c>
       <c r="M139" s="3"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N139" s="3"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>289</v>
       </c>
@@ -3064,8 +3216,9 @@
         <v>394</v>
       </c>
       <c r="M140" s="3"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N140" s="3"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>1190</v>
       </c>
@@ -3082,8 +3235,9 @@
         <v>351</v>
       </c>
       <c r="M141" s="3"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N141" s="3"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>449</v>
       </c>
@@ -3100,8 +3254,9 @@
         <v>488</v>
       </c>
       <c r="M142" s="3"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N142" s="3"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>444</v>
       </c>
@@ -3118,8 +3273,9 @@
         <v>915</v>
       </c>
       <c r="M143" s="3"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N143" s="3"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>203</v>
       </c>
@@ -3136,8 +3292,9 @@
         <v>1953</v>
       </c>
       <c r="M144" s="3"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N144" s="3"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>2208</v>
       </c>
@@ -3154,8 +3311,9 @@
         <v>202</v>
       </c>
       <c r="M145" s="3"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N145" s="3"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>695</v>
       </c>
@@ -3172,8 +3330,9 @@
         <v>1772</v>
       </c>
       <c r="M146" s="3"/>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N146" s="3"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>694</v>
       </c>
@@ -3190,8 +3349,9 @@
         <v>889</v>
       </c>
       <c r="M147" s="3"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N147" s="3"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>418</v>
       </c>
@@ -3208,8 +3368,9 @@
         <v>880</v>
       </c>
       <c r="M148" s="3"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N148" s="3"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>250</v>
       </c>
@@ -3226,8 +3387,9 @@
         <v>1604</v>
       </c>
       <c r="M149" s="3"/>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N149" s="3"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>678</v>
       </c>
@@ -3244,8 +3406,9 @@
         <v>379</v>
       </c>
       <c r="M150" s="3"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N150" s="3"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>174</v>
       </c>
@@ -3262,8 +3425,9 @@
         <v>672</v>
       </c>
       <c r="M151" s="3"/>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N151" s="3"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>359</v>
       </c>
@@ -3280,8 +3444,9 @@
         <v>596</v>
       </c>
       <c r="M152" s="3"/>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N152" s="3"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>847</v>
       </c>
@@ -3298,8 +3463,9 @@
         <v>2135</v>
       </c>
       <c r="M153" s="3"/>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N153" s="3"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>864</v>
       </c>
@@ -3316,8 +3482,9 @@
         <v>166</v>
       </c>
       <c r="M154" s="3"/>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N154" s="3"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>1672</v>
       </c>
@@ -3334,8 +3501,9 @@
         <v>974</v>
       </c>
       <c r="M155" s="3"/>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N155" s="3"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>426</v>
       </c>
@@ -3352,8 +3520,9 @@
         <v>554</v>
       </c>
       <c r="M156" s="3"/>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N156" s="3"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>1095</v>
       </c>
@@ -3370,8 +3539,9 @@
         <v>259</v>
       </c>
       <c r="M157" s="3"/>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N157" s="3"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>227</v>
       </c>
@@ -3388,8 +3558,9 @@
         <v>409</v>
       </c>
       <c r="M158" s="3"/>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N158" s="3"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>1271</v>
       </c>
@@ -3406,8 +3577,9 @@
         <v>331</v>
       </c>
       <c r="M159" s="3"/>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N159" s="3"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>1468</v>
       </c>
@@ -3424,8 +3596,9 @@
         <v>228</v>
       </c>
       <c r="M160" s="3"/>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N160" s="3"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>389</v>
       </c>
@@ -3442,8 +3615,9 @@
         <v>761</v>
       </c>
       <c r="M161" s="3"/>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N161" s="3"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>863</v>
       </c>
@@ -3460,8 +3634,9 @@
         <v>437</v>
       </c>
       <c r="M162" s="3"/>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N162" s="3"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>645</v>
       </c>
@@ -3478,8 +3653,9 @@
         <v>439</v>
       </c>
       <c r="M163" s="3"/>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N163" s="3"/>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>153</v>
       </c>
@@ -3496,8 +3672,9 @@
         <v>488</v>
       </c>
       <c r="M164" s="3"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N164" s="3"/>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>199</v>
       </c>
@@ -3514,8 +3691,9 @@
         <v>1439</v>
       </c>
       <c r="M165" s="3"/>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N165" s="3"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>1259</v>
       </c>
@@ -3532,8 +3710,9 @@
         <v>3392</v>
       </c>
       <c r="M166" s="3"/>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N166" s="3"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>307</v>
       </c>
@@ -3550,8 +3729,9 @@
         <v>1217</v>
       </c>
       <c r="M167" s="3"/>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N167" s="3"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>634</v>
       </c>
@@ -3568,8 +3748,9 @@
         <v>151</v>
       </c>
       <c r="M168" s="3"/>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N168" s="3"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>1174</v>
       </c>
@@ -3586,8 +3767,9 @@
         <v>1616</v>
       </c>
       <c r="M169" s="3"/>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N169" s="3"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>263</v>
       </c>
@@ -3604,8 +3786,9 @@
         <v>290</v>
       </c>
       <c r="M170" s="3"/>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N170" s="3"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>311</v>
       </c>
@@ -3622,8 +3805,9 @@
         <v>508</v>
       </c>
       <c r="M171" s="3"/>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N171" s="3"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>256</v>
       </c>
@@ -3640,8 +3824,9 @@
         <v>406</v>
       </c>
       <c r="M172" s="3"/>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N172" s="3"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>393</v>
       </c>
@@ -3658,8 +3843,9 @@
         <v>7132</v>
       </c>
       <c r="M173" s="3"/>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N173" s="3"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>124</v>
       </c>
@@ -3676,8 +3862,9 @@
         <v>3965</v>
       </c>
       <c r="M174" s="3"/>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N174" s="3"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>1383</v>
       </c>
@@ -3694,8 +3881,9 @@
         <v>1246</v>
       </c>
       <c r="M175" s="3"/>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N175" s="3"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>209</v>
       </c>
@@ -3712,8 +3900,9 @@
         <v>1932</v>
       </c>
       <c r="M176" s="3"/>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N176" s="3"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>561</v>
       </c>
@@ -3730,8 +3919,9 @@
         <v>375</v>
       </c>
       <c r="M177" s="3"/>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N177" s="3"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>1354</v>
       </c>
@@ -3748,8 +3938,9 @@
         <v>1625</v>
       </c>
       <c r="M178" s="3"/>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N178" s="3"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>1370</v>
       </c>
@@ -3766,8 +3957,9 @@
         <v>482</v>
       </c>
       <c r="M179" s="3"/>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N179" s="3"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>351</v>
       </c>
@@ -3784,8 +3976,9 @@
         <v>360</v>
       </c>
       <c r="M180" s="3"/>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N180" s="3"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>5442</v>
       </c>
@@ -3802,8 +3995,9 @@
         <v>1985</v>
       </c>
       <c r="M181" s="3"/>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N181" s="3"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>1373</v>
       </c>
@@ -3820,8 +4014,9 @@
         <v>183</v>
       </c>
       <c r="M182" s="3"/>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N182" s="3"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>406</v>
       </c>
@@ -3838,8 +4033,9 @@
         <v>973</v>
       </c>
       <c r="M183" s="3"/>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N183" s="3"/>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>193</v>
       </c>
@@ -3856,8 +4052,9 @@
         <v>1204</v>
       </c>
       <c r="M184" s="3"/>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N184" s="3"/>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>408</v>
       </c>
@@ -3874,8 +4071,9 @@
         <v>184</v>
       </c>
       <c r="M185" s="3"/>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N185" s="3"/>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>117</v>
       </c>
@@ -3892,8 +4090,9 @@
         <v>1578</v>
       </c>
       <c r="M186" s="3"/>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N186" s="3"/>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>651</v>
       </c>
@@ -3910,8 +4109,9 @@
         <v>868</v>
       </c>
       <c r="M187" s="3"/>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N187" s="3"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>1422</v>
       </c>
@@ -3928,8 +4128,9 @@
         <v>380</v>
       </c>
       <c r="M188" s="3"/>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N188" s="3"/>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>352</v>
       </c>
@@ -3946,8 +4147,9 @@
         <v>1682</v>
       </c>
       <c r="M189" s="3"/>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N189" s="3"/>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>1625</v>
       </c>
@@ -3964,8 +4166,9 @@
         <v>883</v>
       </c>
       <c r="M190" s="3"/>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N190" s="3"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>324</v>
       </c>
@@ -3982,8 +4185,9 @@
         <v>2515</v>
       </c>
       <c r="M191" s="3"/>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N191" s="3"/>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>1455</v>
       </c>
@@ -4000,8 +4204,9 @@
         <v>474</v>
       </c>
       <c r="M192" s="3"/>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N192" s="3"/>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>538</v>
       </c>
@@ -4018,8 +4223,9 @@
         <v>1440</v>
       </c>
       <c r="M193" s="3"/>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N193" s="3"/>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>345</v>
       </c>
@@ -4036,8 +4242,9 @@
         <v>891</v>
       </c>
       <c r="M194" s="3"/>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N194" s="3"/>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>220</v>
       </c>
@@ -4054,8 +4261,9 @@
         <v>782</v>
       </c>
       <c r="M195" s="3"/>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N195" s="3"/>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>278</v>
       </c>
@@ -4072,8 +4280,9 @@
         <v>166</v>
       </c>
       <c r="M196" s="3"/>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N196" s="3"/>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>2241</v>
       </c>
@@ -4090,8 +4299,9 @@
         <v>1897</v>
       </c>
       <c r="M197" s="3"/>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N197" s="3"/>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>110</v>
       </c>
@@ -4108,8 +4318,9 @@
         <v>108</v>
       </c>
       <c r="M198" s="3"/>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N198" s="3"/>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>957</v>
       </c>
@@ -4126,8 +4337,9 @@
         <v>149</v>
       </c>
       <c r="M199" s="3"/>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N199" s="3"/>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>221</v>
       </c>
@@ -4144,8 +4356,9 @@
         <v>260</v>
       </c>
       <c r="M200" s="3"/>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N200" s="3"/>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>194</v>
       </c>
@@ -4162,8 +4375,9 @@
         <v>1410</v>
       </c>
       <c r="M201" s="3"/>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N201" s="3"/>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>2117</v>
       </c>
@@ -4180,8 +4394,9 @@
         <v>182</v>
       </c>
       <c r="M202" s="3"/>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N202" s="3"/>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>353</v>
       </c>
@@ -4198,8 +4413,9 @@
         <v>1420</v>
       </c>
       <c r="M203" s="3"/>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N203" s="3"/>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>618</v>
       </c>
@@ -4216,8 +4432,9 @@
         <v>6364</v>
       </c>
       <c r="M204" s="3"/>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N204" s="3"/>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>1984</v>
       </c>
@@ -4234,8 +4451,9 @@
         <v>2131</v>
       </c>
       <c r="M205" s="3"/>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N205" s="3"/>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>601</v>
       </c>
@@ -4252,8 +4470,9 @@
         <v>1024</v>
       </c>
       <c r="M206" s="3"/>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N206" s="3"/>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>365</v>
       </c>
@@ -4270,8 +4489,9 @@
         <v>292</v>
       </c>
       <c r="M207" s="3"/>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N207" s="3"/>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>2202</v>
       </c>
@@ -4288,8 +4508,9 @@
         <v>1958</v>
       </c>
       <c r="M208" s="3"/>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N208" s="3"/>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>461</v>
       </c>
@@ -4306,8 +4527,9 @@
         <v>819</v>
       </c>
       <c r="M209" s="3"/>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N209" s="3"/>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>166</v>
       </c>
@@ -4324,8 +4546,9 @@
         <v>412</v>
       </c>
       <c r="M210" s="3"/>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N210" s="3"/>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>106</v>
       </c>
@@ -4342,8 +4565,9 @@
         <v>2152</v>
       </c>
       <c r="M211" s="3"/>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N211" s="3"/>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>349</v>
       </c>
@@ -4360,8 +4584,9 @@
         <v>934</v>
       </c>
       <c r="M212" s="3"/>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N212" s="3"/>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>282</v>
       </c>
@@ -4378,8 +4603,9 @@
         <v>681</v>
       </c>
       <c r="M213" s="3"/>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N213" s="3"/>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>472</v>
       </c>
@@ -4396,8 +4622,9 @@
         <v>757</v>
       </c>
       <c r="M214" s="3"/>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N214" s="3"/>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>457</v>
       </c>
@@ -4414,8 +4641,9 @@
         <v>220</v>
       </c>
       <c r="M215" s="3"/>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N215" s="3"/>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>2395</v>
       </c>
@@ -4432,8 +4660,9 @@
         <v>477</v>
       </c>
       <c r="M216" s="3"/>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N216" s="3"/>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>813</v>
       </c>
@@ -4450,8 +4679,9 @@
         <v>3197</v>
       </c>
       <c r="M217" s="3"/>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N217" s="3"/>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>1681</v>
       </c>
@@ -4468,8 +4698,9 @@
         <v>1277</v>
       </c>
       <c r="M218" s="3"/>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N218" s="3"/>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>502</v>
       </c>
@@ -4486,8 +4717,9 @@
         <v>205</v>
       </c>
       <c r="M219" s="3"/>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N219" s="3"/>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>412</v>
       </c>
@@ -4504,8 +4736,9 @@
         <v>1266</v>
       </c>
       <c r="M220" s="3"/>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N220" s="3"/>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>1087</v>
       </c>
@@ -4522,8 +4755,9 @@
         <v>3274</v>
       </c>
       <c r="M221" s="3"/>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N221" s="3"/>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>1292</v>
       </c>
@@ -4540,8 +4774,9 @@
         <v>457</v>
       </c>
       <c r="M222" s="3"/>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N222" s="3"/>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>2020</v>
       </c>
@@ -4558,8 +4793,9 @@
         <v>1943</v>
       </c>
       <c r="M223" s="3"/>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N223" s="3"/>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>225</v>
       </c>
@@ -4576,8 +4812,9 @@
         <v>1002</v>
       </c>
       <c r="M224" s="3"/>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N224" s="3"/>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>1638</v>
       </c>
@@ -4594,8 +4831,9 @@
         <v>2502</v>
       </c>
       <c r="M225" s="3"/>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N225" s="3"/>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>1020</v>
       </c>
@@ -4612,8 +4850,9 @@
         <v>399</v>
       </c>
       <c r="M226" s="3"/>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N226" s="3"/>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>936</v>
       </c>
@@ -4630,8 +4869,9 @@
         <v>402</v>
       </c>
       <c r="M227" s="3"/>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N227" s="3"/>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>708</v>
       </c>
@@ -4648,8 +4888,9 @@
         <v>755</v>
       </c>
       <c r="M228" s="3"/>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N228" s="3"/>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>261</v>
       </c>
@@ -4666,8 +4907,9 @@
         <v>2451</v>
       </c>
       <c r="M229" s="3"/>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N229" s="3"/>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>150</v>
       </c>
@@ -4684,8 +4926,9 @@
         <v>2155</v>
       </c>
       <c r="M230" s="3"/>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N230" s="3"/>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>282</v>
       </c>
@@ -4702,8 +4945,9 @@
         <v>583</v>
       </c>
       <c r="M231" s="3"/>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N231" s="3"/>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>1313</v>
       </c>
@@ -4720,8 +4964,9 @@
         <v>380</v>
       </c>
       <c r="M232" s="3"/>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N232" s="3"/>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>1603</v>
       </c>
@@ -4738,8 +4983,9 @@
         <v>2083</v>
       </c>
       <c r="M233" s="3"/>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N233" s="3"/>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>898</v>
       </c>
@@ -4756,8 +5002,9 @@
         <v>391</v>
       </c>
       <c r="M234" s="3"/>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N234" s="3"/>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>290</v>
       </c>
@@ -4774,8 +5021,9 @@
         <v>1511</v>
       </c>
       <c r="M235" s="3"/>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N235" s="3"/>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>343</v>
       </c>
@@ -4792,8 +5040,9 @@
         <v>887</v>
       </c>
       <c r="M236" s="3"/>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N236" s="3"/>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>2031</v>
       </c>
@@ -4810,8 +5059,9 @@
         <v>543</v>
       </c>
       <c r="M237" s="3"/>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N237" s="3"/>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>409</v>
       </c>
@@ -4828,8 +5078,9 @@
         <v>332</v>
       </c>
       <c r="M238" s="3"/>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N238" s="3"/>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>786</v>
       </c>
@@ -4846,8 +5097,9 @@
         <v>291</v>
       </c>
       <c r="M239" s="3"/>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N239" s="3"/>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>839</v>
       </c>
@@ -4864,8 +5116,9 @@
         <v>418</v>
       </c>
       <c r="M240" s="3"/>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N240" s="3"/>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>3374</v>
       </c>
@@ -4882,8 +5135,9 @@
         <v>723</v>
       </c>
       <c r="M241" s="3"/>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N241" s="3"/>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>627</v>
       </c>
@@ -4900,8 +5154,9 @@
         <v>6033</v>
       </c>
       <c r="M242" s="3"/>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N242" s="3"/>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>488</v>
       </c>
@@ -4918,8 +5173,9 @@
         <v>752</v>
       </c>
       <c r="M243" s="3"/>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N243" s="3"/>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>166</v>
       </c>
@@ -4936,8 +5192,9 @@
         <v>830</v>
       </c>
       <c r="M244" s="3"/>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N244" s="3"/>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>1297</v>
       </c>
@@ -4954,8 +5211,9 @@
         <v>862</v>
       </c>
       <c r="M245" s="3"/>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N245" s="3"/>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>720</v>
       </c>
@@ -4972,8 +5230,9 @@
         <v>1539</v>
       </c>
       <c r="M246" s="3"/>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N246" s="3"/>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>704</v>
       </c>
@@ -4990,8 +5249,9 @@
         <v>836</v>
       </c>
       <c r="M247" s="3"/>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N247" s="3"/>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>149</v>
       </c>
@@ -5008,8 +5268,9 @@
         <v>1376</v>
       </c>
       <c r="M248" s="3"/>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N248" s="3"/>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>384</v>
       </c>
@@ -5026,8 +5287,9 @@
         <v>841</v>
       </c>
       <c r="M249" s="3"/>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N249" s="3"/>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>628</v>
       </c>
@@ -5044,8 +5306,9 @@
         <v>885</v>
       </c>
       <c r="M250" s="3"/>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N250" s="3"/>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>1536</v>
       </c>
@@ -5062,8 +5325,9 @@
         <v>3709</v>
       </c>
       <c r="M251" s="3"/>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N251" s="3"/>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>1736</v>
       </c>
@@ -5080,8 +5344,9 @@
         <v>166</v>
       </c>
       <c r="M252" s="3"/>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N252" s="3"/>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>2841</v>
       </c>
@@ -5098,8 +5363,9 @@
         <v>529</v>
       </c>
       <c r="M253" s="3"/>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N253" s="3"/>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>132</v>
       </c>
@@ -5116,8 +5382,9 @@
         <v>3715</v>
       </c>
       <c r="M254" s="3"/>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N254" s="3"/>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>347</v>
       </c>
@@ -5134,8 +5401,9 @@
         <v>714</v>
       </c>
       <c r="M255" s="3"/>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N255" s="3"/>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>756</v>
       </c>
@@ -5152,8 +5420,9 @@
         <v>773</v>
       </c>
       <c r="M256" s="3"/>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N256" s="3"/>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>519</v>
       </c>
@@ -5170,8 +5439,9 @@
         <v>1120</v>
       </c>
       <c r="M257" s="3"/>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N257" s="3"/>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>298</v>
       </c>
@@ -5188,8 +5458,9 @@
         <v>1946</v>
       </c>
       <c r="M258" s="3"/>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N258" s="3"/>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>384</v>
       </c>
@@ -5206,8 +5477,9 @@
         <v>516</v>
       </c>
       <c r="M259" s="3"/>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N259" s="3"/>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>455</v>
       </c>
@@ -5224,8 +5496,9 @@
         <v>1510</v>
       </c>
       <c r="M260" s="3"/>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N260" s="3"/>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>401</v>
       </c>
@@ -5242,8 +5515,9 @@
         <v>1376</v>
       </c>
       <c r="M261" s="3"/>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N261" s="3"/>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>161</v>
       </c>
@@ -5260,8 +5534,9 @@
         <v>246</v>
       </c>
       <c r="M262" s="3"/>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N262" s="3"/>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>680</v>
       </c>
@@ -5278,8 +5553,9 @@
         <v>336</v>
       </c>
       <c r="M263" s="3"/>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N263" s="3"/>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>378</v>
       </c>
@@ -5296,8 +5572,9 @@
         <v>217</v>
       </c>
       <c r="M264" s="3"/>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N264" s="3"/>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>1078</v>
       </c>
@@ -5314,8 +5591,9 @@
         <v>373</v>
       </c>
       <c r="M265" s="3"/>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N265" s="3"/>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>1595</v>
       </c>
@@ -5332,8 +5610,9 @@
         <v>129</v>
       </c>
       <c r="M266" s="3"/>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N266" s="3"/>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>163</v>
       </c>
@@ -5350,8 +5629,9 @@
         <v>1096</v>
       </c>
       <c r="M267" s="3"/>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N267" s="3"/>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>291</v>
       </c>
@@ -5368,8 +5648,9 @@
         <v>9621</v>
       </c>
       <c r="M268" s="3"/>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N268" s="3"/>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>3323</v>
       </c>
@@ -5386,8 +5667,9 @@
         <v>105</v>
       </c>
       <c r="M269" s="3"/>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N269" s="3"/>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>894</v>
       </c>
@@ -5404,8 +5686,9 @@
         <v>428</v>
       </c>
       <c r="M270" s="3"/>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N270" s="3"/>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>245</v>
       </c>
@@ -5422,8 +5705,9 @@
         <v>1166</v>
       </c>
       <c r="M271" s="3"/>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N271" s="3"/>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>226</v>
       </c>
@@ -5440,8 +5724,9 @@
         <v>153</v>
       </c>
       <c r="M272" s="3"/>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N272" s="3"/>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>1177</v>
       </c>
@@ -5458,8 +5743,9 @@
         <v>637</v>
       </c>
       <c r="M273" s="3"/>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N273" s="3"/>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>547</v>
       </c>
@@ -5476,8 +5762,9 @@
         <v>189</v>
       </c>
       <c r="M274" s="3"/>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N274" s="3"/>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>214</v>
       </c>
@@ -5494,8 +5781,9 @@
         <v>584</v>
       </c>
       <c r="M275" s="3"/>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N275" s="3"/>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>182</v>
       </c>
@@ -5512,8 +5800,9 @@
         <v>989</v>
       </c>
       <c r="M276" s="3"/>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N276" s="3"/>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>2074</v>
       </c>
@@ -5530,8 +5819,9 @@
         <v>606</v>
       </c>
       <c r="M277" s="3"/>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N277" s="3"/>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>307</v>
       </c>
@@ -5548,8 +5838,9 @@
         <v>3265</v>
       </c>
       <c r="M278" s="3"/>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N278" s="3"/>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>1043</v>
       </c>
@@ -5566,8 +5857,9 @@
         <v>1611</v>
       </c>
       <c r="M279" s="3"/>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N279" s="3"/>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>687</v>
       </c>
@@ -5584,8 +5876,9 @@
         <v>2971</v>
       </c>
       <c r="M280" s="3"/>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N280" s="3"/>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>718</v>
       </c>
@@ -5602,8 +5895,9 @@
         <v>368</v>
       </c>
       <c r="M281" s="3"/>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N281" s="3"/>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>571</v>
       </c>
@@ -5620,8 +5914,9 @@
         <v>553</v>
       </c>
       <c r="M282" s="3"/>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N282" s="3"/>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>1377</v>
       </c>
@@ -5638,8 +5933,9 @@
         <v>2316</v>
       </c>
       <c r="M283" s="3"/>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N283" s="3"/>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>568</v>
       </c>
@@ -5656,8 +5952,9 @@
         <v>1162</v>
       </c>
       <c r="M284" s="3"/>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N284" s="3"/>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>1150</v>
       </c>
@@ -5674,8 +5971,9 @@
         <v>991</v>
       </c>
       <c r="M285" s="3"/>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N285" s="3"/>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>170</v>
       </c>
@@ -5692,8 +5990,9 @@
         <v>235</v>
       </c>
       <c r="M286" s="3"/>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N286" s="3"/>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>2090</v>
       </c>
@@ -5710,8 +6009,9 @@
         <v>593</v>
       </c>
       <c r="M287" s="3"/>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N287" s="3"/>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>385</v>
       </c>
@@ -5728,8 +6028,9 @@
         <v>157</v>
       </c>
       <c r="M288" s="3"/>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N288" s="3"/>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>505</v>
       </c>
@@ -5746,8 +6047,9 @@
         <v>321</v>
       </c>
       <c r="M289" s="3"/>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N289" s="3"/>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>292</v>
       </c>
@@ -5764,8 +6066,9 @@
         <v>334</v>
       </c>
       <c r="M290" s="3"/>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N290" s="3"/>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>275</v>
       </c>
@@ -5782,8 +6085,9 @@
         <v>796</v>
       </c>
       <c r="M291" s="3"/>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N291" s="3"/>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>1209</v>
       </c>
@@ -5800,8 +6104,9 @@
         <v>1327</v>
       </c>
       <c r="M292" s="3"/>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N292" s="3"/>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>377</v>
       </c>
@@ -5818,8 +6123,9 @@
         <v>756</v>
       </c>
       <c r="M293" s="3"/>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N293" s="3"/>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>477</v>
       </c>
@@ -5836,8 +6142,9 @@
         <v>6006</v>
       </c>
       <c r="M294" s="3"/>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N294" s="3"/>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>174</v>
       </c>
@@ -5854,8 +6161,9 @@
         <v>1408</v>
       </c>
       <c r="M295" s="3"/>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N295" s="3"/>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>240</v>
       </c>
@@ -5872,8 +6180,9 @@
         <v>110</v>
       </c>
       <c r="M296" s="3"/>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N296" s="3"/>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>1244</v>
       </c>
@@ -5890,8 +6199,9 @@
         <v>2262</v>
       </c>
       <c r="M297" s="3"/>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N297" s="3"/>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>1127</v>
       </c>
@@ -5908,8 +6218,9 @@
         <v>4205</v>
       </c>
       <c r="M298" s="3"/>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N298" s="3"/>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>2002</v>
       </c>
@@ -5926,8 +6237,9 @@
         <v>2880</v>
       </c>
       <c r="M299" s="3"/>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N299" s="3"/>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>646</v>
       </c>
@@ -5944,8 +6256,9 @@
         <v>375</v>
       </c>
       <c r="M300" s="3"/>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N300" s="3"/>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>699</v>
       </c>
@@ -5962,8 +6275,9 @@
         <v>858</v>
       </c>
       <c r="M301" s="3"/>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N301" s="3"/>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>113</v>
       </c>
@@ -5980,8 +6294,9 @@
         <v>4670</v>
       </c>
       <c r="M302" s="3"/>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N302" s="3"/>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>1598</v>
       </c>
@@ -5998,8 +6313,9 @@
         <v>2175</v>
       </c>
       <c r="M303" s="3"/>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N303" s="3"/>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>206</v>
       </c>
@@ -6016,8 +6332,9 @@
         <v>1303</v>
       </c>
       <c r="M304" s="3"/>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N304" s="3"/>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>327</v>
       </c>
@@ -6034,8 +6351,9 @@
         <v>765</v>
       </c>
       <c r="M305" s="3"/>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N305" s="3"/>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>966</v>
       </c>
@@ -6052,8 +6370,9 @@
         <v>5362</v>
       </c>
       <c r="M306" s="3"/>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N306" s="3"/>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>1012</v>
       </c>
@@ -6070,8 +6389,9 @@
         <v>702</v>
       </c>
       <c r="M307" s="3"/>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N307" s="3"/>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>418</v>
       </c>
@@ -6088,8 +6408,9 @@
         <v>727</v>
       </c>
       <c r="M308" s="3"/>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N308" s="3"/>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>609</v>
       </c>
@@ -6106,8 +6427,9 @@
         <v>1667</v>
       </c>
       <c r="M309" s="3"/>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N309" s="3"/>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>373</v>
       </c>
@@ -6124,8 +6446,9 @@
         <v>314</v>
       </c>
       <c r="M310" s="3"/>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N310" s="3"/>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>571</v>
       </c>
@@ -6142,8 +6465,9 @@
         <v>2248</v>
       </c>
       <c r="M311" s="3"/>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N311" s="3"/>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>1954</v>
       </c>
@@ -6160,8 +6484,9 @@
         <v>1129</v>
       </c>
       <c r="M312" s="3"/>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N312" s="3"/>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>817</v>
       </c>
@@ -6178,8 +6503,9 @@
         <v>135</v>
       </c>
       <c r="M313" s="3"/>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N313" s="3"/>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>202</v>
       </c>
@@ -6196,8 +6522,9 @@
         <v>207</v>
       </c>
       <c r="M314" s="3"/>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N314" s="3"/>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>350</v>
       </c>
@@ -6214,8 +6541,9 @@
         <v>273</v>
       </c>
       <c r="M315" s="3"/>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N315" s="3"/>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>183</v>
       </c>
@@ -6232,8 +6560,9 @@
         <v>651</v>
       </c>
       <c r="M316" s="3"/>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N316" s="3"/>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>756</v>
       </c>
@@ -6250,8 +6579,9 @@
         <v>4061</v>
       </c>
       <c r="M317" s="3"/>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N317" s="3"/>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>333</v>
       </c>
@@ -6268,8 +6598,9 @@
         <v>415</v>
       </c>
       <c r="M318" s="3"/>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N318" s="3"/>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <v>1534</v>
       </c>
@@ -6286,8 +6617,9 @@
         <v>1593</v>
       </c>
       <c r="M319" s="3"/>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N319" s="3"/>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <v>592</v>
       </c>
@@ -6304,8 +6636,9 @@
         <v>1301</v>
       </c>
       <c r="M320" s="3"/>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N320" s="3"/>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <v>455</v>
       </c>
@@ -6322,8 +6655,9 @@
         <v>657</v>
       </c>
       <c r="M321" s="3"/>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N321" s="3"/>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>1350</v>
       </c>
@@ -6340,8 +6674,9 @@
         <v>654</v>
       </c>
       <c r="M322" s="3"/>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N322" s="3"/>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>866</v>
       </c>
@@ -6358,8 +6693,9 @@
         <v>329</v>
       </c>
       <c r="M323" s="3"/>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N323" s="3"/>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>498</v>
       </c>
@@ -6374,8 +6710,9 @@
       <c r="K324" s="3"/>
       <c r="L324" s="3"/>
       <c r="M324" s="3"/>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N324" s="3"/>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>636</v>
       </c>
@@ -6390,8 +6727,9 @@
       <c r="K325" s="3"/>
       <c r="L325" s="3"/>
       <c r="M325" s="3"/>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N325" s="3"/>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>377</v>
       </c>
@@ -6406,8 +6744,9 @@
       <c r="K326" s="3"/>
       <c r="L326" s="3"/>
       <c r="M326" s="3"/>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N326" s="3"/>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>835</v>
       </c>
@@ -6422,8 +6761,9 @@
       <c r="K327" s="3"/>
       <c r="L327" s="3"/>
       <c r="M327" s="3"/>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N327" s="3"/>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>1985</v>
       </c>
@@ -6438,8 +6778,9 @@
       <c r="K328" s="3"/>
       <c r="L328" s="3"/>
       <c r="M328" s="3"/>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N328" s="3"/>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>274</v>
       </c>
@@ -6454,8 +6795,9 @@
       <c r="K329" s="3"/>
       <c r="L329" s="3"/>
       <c r="M329" s="3"/>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N329" s="3"/>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>1075</v>
       </c>
@@ -6470,8 +6812,9 @@
       <c r="K330" s="3"/>
       <c r="L330" s="3"/>
       <c r="M330" s="3"/>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N330" s="3"/>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>474</v>
       </c>
@@ -6486,8 +6829,9 @@
       <c r="K331" s="3"/>
       <c r="L331" s="3"/>
       <c r="M331" s="3"/>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N331" s="3"/>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>433</v>
       </c>
@@ -6502,8 +6846,9 @@
       <c r="K332" s="3"/>
       <c r="L332" s="3"/>
       <c r="M332" s="3"/>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N332" s="3"/>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>1694</v>
       </c>
@@ -6518,8 +6863,9 @@
       <c r="K333" s="3"/>
       <c r="L333" s="3"/>
       <c r="M333" s="3"/>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N333" s="3"/>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>570</v>
       </c>
@@ -6534,8 +6880,9 @@
       <c r="K334" s="3"/>
       <c r="L334" s="3"/>
       <c r="M334" s="3"/>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N334" s="3"/>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>360</v>
       </c>
@@ -6550,8 +6897,9 @@
       <c r="K335" s="3"/>
       <c r="L335" s="3"/>
       <c r="M335" s="3"/>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N335" s="3"/>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>99</v>
       </c>
@@ -6566,8 +6914,9 @@
       <c r="K336" s="3"/>
       <c r="L336" s="3"/>
       <c r="M336" s="3"/>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N336" s="3"/>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>376</v>
       </c>
@@ -6582,8 +6931,9 @@
       <c r="K337" s="3"/>
       <c r="L337" s="3"/>
       <c r="M337" s="3"/>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N337" s="3"/>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>355</v>
       </c>
@@ -6598,8 +6948,9 @@
       <c r="K338" s="3"/>
       <c r="L338" s="3"/>
       <c r="M338" s="3"/>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N338" s="3"/>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>1405</v>
       </c>
@@ -6614,8 +6965,9 @@
       <c r="K339" s="3"/>
       <c r="L339" s="3"/>
       <c r="M339" s="3"/>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N339" s="3"/>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>824</v>
       </c>
@@ -6630,8 +6982,9 @@
       <c r="K340" s="3"/>
       <c r="L340" s="3"/>
       <c r="M340" s="3"/>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N340" s="3"/>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>1208</v>
       </c>
@@ -6646,8 +6999,9 @@
       <c r="K341" s="3"/>
       <c r="L341" s="3"/>
       <c r="M341" s="3"/>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N341" s="3"/>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>394</v>
       </c>
@@ -6662,8 +7016,9 @@
       <c r="K342" s="3"/>
       <c r="L342" s="3"/>
       <c r="M342" s="3"/>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N342" s="3"/>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>911</v>
       </c>
@@ -6678,8 +7033,9 @@
       <c r="K343" s="3"/>
       <c r="L343" s="3"/>
       <c r="M343" s="3"/>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N343" s="3"/>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>1317</v>
       </c>
@@ -6694,8 +7050,9 @@
       <c r="K344" s="3"/>
       <c r="L344" s="3"/>
       <c r="M344" s="3"/>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N344" s="3"/>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>192</v>
       </c>
@@ -6710,8 +7067,9 @@
       <c r="K345" s="3"/>
       <c r="L345" s="3"/>
       <c r="M345" s="3"/>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N345" s="3"/>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>2006</v>
       </c>
@@ -6726,8 +7084,9 @@
       <c r="K346" s="3"/>
       <c r="L346" s="3"/>
       <c r="M346" s="3"/>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N346" s="3"/>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
         <v>1054</v>
       </c>
@@ -6742,8 +7101,9 @@
       <c r="K347" s="3"/>
       <c r="L347" s="3"/>
       <c r="M347" s="3"/>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N347" s="3"/>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>372</v>
       </c>
@@ -6758,8 +7118,9 @@
       <c r="K348" s="3"/>
       <c r="L348" s="3"/>
       <c r="M348" s="3"/>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N348" s="3"/>
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>1274</v>
       </c>
@@ -6774,8 +7135,9 @@
       <c r="K349" s="3"/>
       <c r="L349" s="3"/>
       <c r="M349" s="3"/>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N349" s="3"/>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>676</v>
       </c>
@@ -6790,8 +7152,9 @@
       <c r="K350" s="3"/>
       <c r="L350" s="3"/>
       <c r="M350" s="3"/>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N350" s="3"/>
+    </row>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
         <v>584</v>
       </c>
@@ -6806,8 +7169,9 @@
       <c r="K351" s="3"/>
       <c r="L351" s="3"/>
       <c r="M351" s="3"/>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N351" s="3"/>
+    </row>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>352</v>
       </c>
@@ -6822,8 +7186,9 @@
       <c r="K352" s="3"/>
       <c r="L352" s="3"/>
       <c r="M352" s="3"/>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N352" s="3"/>
+    </row>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>691</v>
       </c>
@@ -6838,8 +7203,9 @@
       <c r="K353" s="3"/>
       <c r="L353" s="3"/>
       <c r="M353" s="3"/>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N353" s="3"/>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>398</v>
       </c>
@@ -6854,8 +7220,9 @@
       <c r="K354" s="3"/>
       <c r="L354" s="3"/>
       <c r="M354" s="3"/>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N354" s="3"/>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>587</v>
       </c>
@@ -6870,8 +7237,9 @@
       <c r="K355" s="3"/>
       <c r="L355" s="3"/>
       <c r="M355" s="3"/>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N355" s="3"/>
+    </row>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
         <v>100</v>
       </c>
@@ -6886,6 +7254,7 @@
       <c r="K356" s="3"/>
       <c r="L356" s="3"/>
       <c r="M356" s="3"/>
+      <c r="N356" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
+++ b/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>CS-1-(100x)</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>1024*1280</t>
+  </si>
+  <si>
+    <t>960*1280</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +600,7 @@
         <v>358</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N3" s="3"/>
     </row>

--- a/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
+++ b/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
@@ -24,7 +24,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+  <si>
+    <t>Area of ROI</t>
+  </si>
   <si>
     <t>CS-1-(100x)</t>
   </si>
@@ -480,7 +483,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +493,7 @@
     <col min="3" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="21" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="1"/>
@@ -498,64 +501,64 @@
   <sheetData>
     <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -563,7 +566,7 @@
         <v>1147</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -577,7 +580,7 @@
         <v>573</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2" s="3"/>
     </row>
@@ -586,7 +589,7 @@
         <v>587</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -600,16 +603,16 @@
         <v>358</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>9364</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -623,7 +626,7 @@
         <v>326</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N4" s="4"/>
     </row>
@@ -631,8 +634,9 @@
       <c r="A5" s="3">
         <v>2109</v>
       </c>
-      <c r="B5" s="6">
-        <v>0.22828999999999999</v>
+      <c r="B5" s="1">
+        <f>SUM(A:A)</f>
+        <v>299232</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -646,7 +650,7 @@
         <v>253</v>
       </c>
       <c r="M5" s="6">
-        <v>0.22828999999999999</v>
+        <v>0.29881000000000002</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -669,7 +673,7 @@
         <v>298</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="3"/>
     </row>
@@ -678,7 +682,7 @@
         <v>1867</v>
       </c>
       <c r="B7" s="6">
-        <v>7.6910000000000006E-2</v>
+        <v>0.22828999999999999</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -692,13 +696,16 @@
         <v>651</v>
       </c>
       <c r="M7" s="6">
-        <v>7.6910000000000006E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>427</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -718,6 +725,9 @@
       <c r="A9" s="3">
         <v>1167</v>
       </c>
+      <c r="B9" s="6">
+        <v>7.6910000000000006E-2</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -736,7 +746,6 @@
       <c r="A10" s="3">
         <v>160</v>
       </c>
-      <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -755,7 +764,6 @@
       <c r="A11" s="3">
         <v>413</v>
       </c>
-      <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -869,7 +877,6 @@
       <c r="A17" s="3">
         <v>308</v>
       </c>
-      <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -888,7 +895,6 @@
       <c r="A18" s="3">
         <v>172</v>
       </c>
-      <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -907,7 +913,6 @@
       <c r="A19" s="3">
         <v>1253</v>
       </c>
-      <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -926,7 +931,6 @@
       <c r="A20" s="3">
         <v>546</v>
       </c>
-      <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>

--- a/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
+++ b/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Area of ROI</t>
   </si>
@@ -483,7 +483,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,8 +625,8 @@
       <c r="L4" s="3">
         <v>326</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>22</v>
+      <c r="M4" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="N4" s="4"/>
     </row>
@@ -649,8 +649,9 @@
       <c r="L5" s="3">
         <v>253</v>
       </c>
-      <c r="M5" s="6">
-        <v>0.29881000000000002</v>
+      <c r="M5" s="1">
+        <f>SUM(L:L)</f>
+        <v>367184</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -672,9 +673,6 @@
       <c r="L6" s="3">
         <v>298</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -694,9 +692,6 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3">
         <v>651</v>
-      </c>
-      <c r="M7" s="6">
-        <v>8.2199999999999995E-2</v>
       </c>
       <c r="N7" s="3"/>
     </row>
@@ -961,7 +956,9 @@
       <c r="L21" s="3">
         <v>256</v>
       </c>
-      <c r="M21" s="3"/>
+      <c r="M21" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -980,7 +977,9 @@
       <c r="L22" s="3">
         <v>168</v>
       </c>
-      <c r="M22" s="3"/>
+      <c r="M22" s="6">
+        <v>0.29881000000000002</v>
+      </c>
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -999,7 +998,9 @@
       <c r="L23" s="3">
         <v>611</v>
       </c>
-      <c r="M23" s="3"/>
+      <c r="M23" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1018,7 +1019,9 @@
       <c r="L24" s="3">
         <v>983</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="6">
+        <v>8.2199999999999995E-2</v>
+      </c>
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">

--- a/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
+++ b/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
@@ -483,7 +483,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,6 +673,9 @@
       <c r="L6" s="3">
         <v>298</v>
       </c>
+      <c r="M6" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -693,6 +696,9 @@
       <c r="L7" s="3">
         <v>651</v>
       </c>
+      <c r="M7" s="6">
+        <v>0.29881000000000002</v>
+      </c>
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -713,7 +719,9 @@
       <c r="L8" s="3">
         <v>137</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -734,7 +742,9 @@
       <c r="L9" s="3">
         <v>2648</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="6">
+        <v>8.2199999999999995E-2</v>
+      </c>
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -956,9 +966,6 @@
       <c r="L21" s="3">
         <v>256</v>
       </c>
-      <c r="M21" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -977,9 +984,6 @@
       <c r="L22" s="3">
         <v>168</v>
       </c>
-      <c r="M22" s="6">
-        <v>0.29881000000000002</v>
-      </c>
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -998,9 +1002,6 @@
       <c r="L23" s="3">
         <v>611</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1018,9 +1019,6 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3">
         <v>983</v>
-      </c>
-      <c r="M24" s="6">
-        <v>8.2199999999999995E-2</v>
       </c>
       <c r="N24" s="3"/>
     </row>

--- a/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
+++ b/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
@@ -21,6 +21,40 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Sharan Chandran</author>
+  </authors>
+  <commentList>
+    <comment ref="M3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sharan Chandran:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Micro marker was Trimmed</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -108,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +157,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -478,12 +525,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6:M9"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7267,5 +7314,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
+++ b/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
@@ -29,6 +29,30 @@
     <author>Sharan Chandran</author>
   </authors>
   <commentList>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sharan Chandran:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mirco marker not trimmed - 2014*1280</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="M3" authorId="0" shapeId="0">
       <text>
         <r>
@@ -49,7 +73,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Micro marker was Trimmed</t>
+Micro marker was Trimmed - 960*1280</t>
         </r>
       </text>
     </comment>
@@ -58,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Area of ROI</t>
   </si>
@@ -131,18 +155,12 @@
   <si>
     <t>Error</t>
   </si>
-  <si>
-    <t>1024*1280</t>
-  </si>
-  <si>
-    <t>960*1280</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +188,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -530,7 +561,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,8 +666,9 @@
       <c r="A3" s="3">
         <v>587</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
+      <c r="B3" s="3">
+        <f>1024*1280</f>
+        <v>1310720</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -649,8 +681,9 @@
       <c r="L3" s="3">
         <v>358</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>25</v>
+      <c r="M3" s="3">
+        <f>960*1280</f>
+        <v>1228800</v>
       </c>
       <c r="N3" s="3"/>
     </row>

--- a/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
+++ b/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
@@ -125,12 +125,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="S3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sharan Chandran:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Micro marker was Trimmed - 960*1280</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Area of ROI</t>
   </si>
@@ -605,11 +629,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X356"/>
+  <dimension ref="A1:Y356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11"/>
+      <selection pane="bottomLeft" activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,13 +647,15 @@
     <col min="14" max="14" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.140625" style="2" customWidth="1"/>
     <col min="16" max="16" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.85546875" style="2" customWidth="1"/>
-    <col min="18" max="23" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="2"/>
+    <col min="17" max="17" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -672,26 +698,26 @@
       <c r="R1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1147</v>
       </c>
@@ -724,8 +750,14 @@
       <c r="Q2" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R2" s="1">
+        <v>635</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>587</v>
       </c>
@@ -762,8 +794,15 @@
         <f>960*1280</f>
         <v>1228800</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R3" s="1">
+        <v>1347</v>
+      </c>
+      <c r="S3" s="4">
+        <f>960*1280</f>
+        <v>1228800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>9364</v>
       </c>
@@ -796,8 +835,14 @@
       <c r="Q4" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R4" s="1">
+        <v>2141</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2109</v>
       </c>
@@ -834,8 +879,15 @@
         <f>SUM(P:P)</f>
         <v>374287</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R5" s="1">
+        <v>8090</v>
+      </c>
+      <c r="S5" s="2">
+        <f>SUM(R:R)</f>
+        <v>403130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>382</v>
       </c>
@@ -868,8 +920,14 @@
       <c r="Q6" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R6" s="1">
+        <v>6942</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1867</v>
       </c>
@@ -900,10 +958,18 @@
         <v>1940</v>
       </c>
       <c r="Q7" s="6">
-        <v>0.30459000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <f>(Q5/Q3)</f>
+        <v>0.30459554036458331</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2446</v>
+      </c>
+      <c r="S7" s="6">
+        <f>(S5/S3)</f>
+        <v>0.32806803385416666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>427</v>
       </c>
@@ -936,8 +1002,14 @@
       <c r="Q8" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R8" s="1">
+        <v>2194</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1167</v>
       </c>
@@ -970,8 +1042,14 @@
       <c r="Q9" s="6">
         <v>9.6820000000000003E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R9" s="1">
+        <v>4052</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0.2238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>160</v>
       </c>
@@ -995,8 +1073,12 @@
         <v>1971</v>
       </c>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R10" s="1">
+        <v>5546</v>
+      </c>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>413</v>
       </c>
@@ -1020,8 +1102,12 @@
         <v>305</v>
       </c>
       <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R11" s="1">
+        <v>2724</v>
+      </c>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>217</v>
       </c>
@@ -1046,8 +1132,12 @@
         <v>301</v>
       </c>
       <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R12" s="1">
+        <v>4204</v>
+      </c>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>578</v>
       </c>
@@ -1072,8 +1162,12 @@
         <v>2241</v>
       </c>
       <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R13" s="1">
+        <v>1490</v>
+      </c>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>792</v>
       </c>
@@ -1098,8 +1192,12 @@
         <v>517</v>
       </c>
       <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R14" s="1">
+        <v>2848</v>
+      </c>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>106</v>
       </c>
@@ -1124,8 +1222,12 @@
         <v>456</v>
       </c>
       <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R15" s="1">
+        <v>14421</v>
+      </c>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2003</v>
       </c>
@@ -1150,8 +1252,12 @@
         <v>416</v>
       </c>
       <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" s="1">
+        <v>11621</v>
+      </c>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>308</v>
       </c>
@@ -1175,8 +1281,12 @@
         <v>502</v>
       </c>
       <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" s="1">
+        <v>15959</v>
+      </c>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>172</v>
       </c>
@@ -1200,8 +1310,12 @@
         <v>229</v>
       </c>
       <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="1">
+        <v>2539</v>
+      </c>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1253</v>
       </c>
@@ -1225,8 +1339,12 @@
         <v>2931</v>
       </c>
       <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" s="1">
+        <v>1143</v>
+      </c>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>546</v>
       </c>
@@ -1250,8 +1368,12 @@
         <v>882</v>
       </c>
       <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" s="1">
+        <v>11192</v>
+      </c>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>341</v>
       </c>
@@ -1275,8 +1397,12 @@
         <v>1521</v>
       </c>
       <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" s="1">
+        <v>3845</v>
+      </c>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>140</v>
       </c>
@@ -1300,8 +1426,12 @@
         <v>431</v>
       </c>
       <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" s="1">
+        <v>15697</v>
+      </c>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>711</v>
       </c>
@@ -1325,8 +1455,12 @@
         <v>1520</v>
       </c>
       <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" s="1">
+        <v>1737</v>
+      </c>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>529</v>
       </c>
@@ -1350,8 +1484,12 @@
         <v>1014</v>
       </c>
       <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24" s="1">
+        <v>16767</v>
+      </c>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>400</v>
       </c>
@@ -1376,8 +1514,12 @@
         <v>435</v>
       </c>
       <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25" s="1">
+        <v>15131</v>
+      </c>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>215</v>
       </c>
@@ -1402,8 +1544,12 @@
         <v>263</v>
       </c>
       <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" s="1">
+        <v>850</v>
+      </c>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2959</v>
       </c>
@@ -1428,8 +1574,12 @@
         <v>971</v>
       </c>
       <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" s="1">
+        <v>3582</v>
+      </c>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>349</v>
       </c>
@@ -1454,8 +1604,12 @@
         <v>503</v>
       </c>
       <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" s="1">
+        <v>1897</v>
+      </c>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>972</v>
       </c>
@@ -1480,8 +1634,12 @@
         <v>7077</v>
       </c>
       <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29" s="1">
+        <v>1791</v>
+      </c>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>942</v>
       </c>
@@ -1506,8 +1664,12 @@
         <v>1290</v>
       </c>
       <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30" s="1">
+        <v>1357</v>
+      </c>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1172</v>
       </c>
@@ -1532,8 +1694,12 @@
         <v>104</v>
       </c>
       <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31" s="1">
+        <v>2364</v>
+      </c>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>358</v>
       </c>
@@ -1558,8 +1724,12 @@
         <v>1067</v>
       </c>
       <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32" s="1">
+        <v>9608</v>
+      </c>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>2155</v>
       </c>
@@ -1584,8 +1754,12 @@
         <v>8084</v>
       </c>
       <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33" s="1">
+        <v>56145</v>
+      </c>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>268</v>
       </c>
@@ -1610,8 +1784,12 @@
         <v>258</v>
       </c>
       <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34" s="1">
+        <v>4266</v>
+      </c>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>992</v>
       </c>
@@ -1636,8 +1814,12 @@
         <v>936</v>
       </c>
       <c r="Q35" s="1"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35" s="1">
+        <v>4119</v>
+      </c>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>678</v>
       </c>
@@ -1662,8 +1844,12 @@
         <v>240</v>
       </c>
       <c r="Q36" s="1"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36" s="1">
+        <v>33922</v>
+      </c>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>829</v>
       </c>
@@ -1688,8 +1874,12 @@
         <v>790</v>
       </c>
       <c r="Q37" s="1"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37" s="1">
+        <v>3771</v>
+      </c>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>487</v>
       </c>
@@ -1714,8 +1904,12 @@
         <v>1241</v>
       </c>
       <c r="Q38" s="1"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38" s="1">
+        <v>2178</v>
+      </c>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>2772</v>
       </c>
@@ -1740,8 +1934,12 @@
         <v>1941</v>
       </c>
       <c r="Q39" s="1"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39" s="1">
+        <v>989</v>
+      </c>
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>1978</v>
       </c>
@@ -1766,8 +1964,12 @@
         <v>213</v>
       </c>
       <c r="Q40" s="1"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40" s="1">
+        <v>4687</v>
+      </c>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>376</v>
       </c>
@@ -1792,8 +1994,12 @@
         <v>1338</v>
       </c>
       <c r="Q41" s="1"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41" s="1">
+        <v>12849</v>
+      </c>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>205</v>
       </c>
@@ -1818,8 +2024,12 @@
         <v>231</v>
       </c>
       <c r="Q42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42" s="1">
+        <v>720</v>
+      </c>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>246</v>
       </c>
@@ -1844,8 +2054,12 @@
         <v>346</v>
       </c>
       <c r="Q43" s="1"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43" s="1">
+        <v>6329</v>
+      </c>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>559</v>
       </c>
@@ -1870,8 +2084,12 @@
         <v>103</v>
       </c>
       <c r="Q44" s="1"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44" s="1">
+        <v>1772</v>
+      </c>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>333</v>
       </c>
@@ -1896,8 +2114,12 @@
         <v>1702</v>
       </c>
       <c r="Q45" s="1"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45" s="1">
+        <v>21122</v>
+      </c>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>588</v>
       </c>
@@ -1922,8 +2144,12 @@
         <v>2310</v>
       </c>
       <c r="Q46" s="1"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46" s="1">
+        <v>3423</v>
+      </c>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>353</v>
       </c>
@@ -1948,8 +2174,12 @@
         <v>168</v>
       </c>
       <c r="Q47" s="1"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47" s="1">
+        <v>1612</v>
+      </c>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>174</v>
       </c>
@@ -1974,8 +2204,12 @@
         <v>1318</v>
       </c>
       <c r="Q48" s="1"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48" s="1">
+        <v>1773</v>
+      </c>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>1841</v>
       </c>
@@ -2000,8 +2234,12 @@
         <v>1439</v>
       </c>
       <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49" s="1">
+        <v>1009</v>
+      </c>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>674</v>
       </c>
@@ -2026,8 +2264,12 @@
         <v>970</v>
       </c>
       <c r="Q50" s="1"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50" s="1">
+        <v>5550</v>
+      </c>
+      <c r="S50" s="1"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>1577</v>
       </c>
@@ -2052,8 +2294,12 @@
         <v>605</v>
       </c>
       <c r="Q51" s="1"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51" s="1">
+        <v>30583</v>
+      </c>
+      <c r="S51" s="1"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>436</v>
       </c>
@@ -2078,8 +2324,12 @@
         <v>408</v>
       </c>
       <c r="Q52" s="1"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R52" s="1">
+        <v>2563</v>
+      </c>
+      <c r="S52" s="1"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>132</v>
       </c>
@@ -2104,8 +2354,12 @@
         <v>149</v>
       </c>
       <c r="Q53" s="1"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53" s="1">
+        <v>9482</v>
+      </c>
+      <c r="S53" s="1"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>227</v>
       </c>
@@ -2130,8 +2384,12 @@
         <v>5041</v>
       </c>
       <c r="Q54" s="1"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54" s="1">
+        <v>4134</v>
+      </c>
+      <c r="S54" s="1"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>332</v>
       </c>
@@ -2156,8 +2414,12 @@
         <v>3298</v>
       </c>
       <c r="Q55" s="1"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R55" s="1">
+        <v>6430</v>
+      </c>
+      <c r="S55" s="1"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>593</v>
       </c>
@@ -2182,8 +2444,12 @@
         <v>1034</v>
       </c>
       <c r="Q56" s="1"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56" s="1">
+        <v>5414</v>
+      </c>
+      <c r="S56" s="1"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>359</v>
       </c>
@@ -2208,8 +2474,12 @@
         <v>208</v>
       </c>
       <c r="Q57" s="1"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R57" s="1">
+        <v>2128</v>
+      </c>
+      <c r="S57" s="1"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>369</v>
       </c>
@@ -2234,8 +2504,9 @@
         <v>335</v>
       </c>
       <c r="Q58" s="1"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S58" s="1"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>917</v>
       </c>
@@ -2260,8 +2531,9 @@
         <v>795</v>
       </c>
       <c r="Q59" s="1"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S59" s="1"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>1157</v>
       </c>
@@ -2286,8 +2558,9 @@
         <v>343</v>
       </c>
       <c r="Q60" s="1"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S60" s="1"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>217</v>
       </c>
@@ -2312,8 +2585,9 @@
         <v>2564</v>
       </c>
       <c r="Q61" s="1"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S61" s="1"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>378</v>
       </c>
@@ -2338,8 +2612,9 @@
         <v>376</v>
       </c>
       <c r="Q62" s="1"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S62" s="1"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>522</v>
       </c>
@@ -2364,8 +2639,9 @@
         <v>769</v>
       </c>
       <c r="Q63" s="1"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S63" s="1"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>376</v>
       </c>
@@ -2390,8 +2666,9 @@
         <v>563</v>
       </c>
       <c r="Q64" s="1"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S64" s="1"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>310</v>
       </c>
@@ -2416,8 +2693,9 @@
         <v>2965</v>
       </c>
       <c r="Q65" s="1"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S65" s="1"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>1307</v>
       </c>
@@ -2442,8 +2720,9 @@
         <v>520</v>
       </c>
       <c r="Q66" s="1"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S66" s="1"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>572</v>
       </c>
@@ -2468,8 +2747,9 @@
         <v>642</v>
       </c>
       <c r="Q67" s="1"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S67" s="1"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>608</v>
       </c>
@@ -2494,8 +2774,9 @@
         <v>485</v>
       </c>
       <c r="Q68" s="1"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S68" s="1"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>888</v>
       </c>
@@ -2520,8 +2801,9 @@
         <v>220</v>
       </c>
       <c r="Q69" s="1"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S69" s="1"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>1005</v>
       </c>
@@ -2546,8 +2828,9 @@
         <v>434</v>
       </c>
       <c r="Q70" s="1"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S70" s="1"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>508</v>
       </c>
@@ -2572,8 +2855,9 @@
         <v>531</v>
       </c>
       <c r="Q71" s="1"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S71" s="1"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>579</v>
       </c>
@@ -2598,8 +2882,9 @@
         <v>111</v>
       </c>
       <c r="Q72" s="1"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S72" s="1"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>3575</v>
       </c>
@@ -2624,8 +2909,9 @@
         <v>462</v>
       </c>
       <c r="Q73" s="1"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S73" s="1"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>256</v>
       </c>
@@ -2650,8 +2936,9 @@
         <v>854</v>
       </c>
       <c r="Q74" s="1"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S74" s="1"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>114</v>
       </c>
@@ -2676,8 +2963,9 @@
         <v>1558</v>
       </c>
       <c r="Q75" s="1"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S75" s="1"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>368</v>
       </c>
@@ -2702,8 +2990,9 @@
         <v>300</v>
       </c>
       <c r="Q76" s="1"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S76" s="1"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>1098</v>
       </c>
@@ -2728,8 +3017,9 @@
         <v>1701</v>
       </c>
       <c r="Q77" s="1"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S77" s="1"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>238</v>
       </c>
@@ -2754,8 +3044,9 @@
         <v>1281</v>
       </c>
       <c r="Q78" s="1"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S78" s="1"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>1355</v>
       </c>
@@ -2780,8 +3071,9 @@
         <v>2063</v>
       </c>
       <c r="Q79" s="1"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S79" s="1"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>3195</v>
       </c>
@@ -2806,8 +3098,9 @@
         <v>887</v>
       </c>
       <c r="Q80" s="1"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S80" s="1"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>825</v>
       </c>
@@ -2832,8 +3125,9 @@
         <v>1540</v>
       </c>
       <c r="Q81" s="1"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S81" s="1"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>1381</v>
       </c>
@@ -2858,8 +3152,9 @@
         <v>825</v>
       </c>
       <c r="Q82" s="1"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S82" s="1"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>141</v>
       </c>
@@ -2884,8 +3179,9 @@
         <v>814</v>
       </c>
       <c r="Q83" s="1"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S83" s="1"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>425</v>
       </c>
@@ -2910,8 +3206,9 @@
         <v>974</v>
       </c>
       <c r="Q84" s="1"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S84" s="1"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>379</v>
       </c>
@@ -2936,8 +3233,9 @@
         <v>366</v>
       </c>
       <c r="Q85" s="1"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S85" s="1"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>5634</v>
       </c>
@@ -2962,8 +3260,9 @@
         <v>180</v>
       </c>
       <c r="Q86" s="1"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S86" s="1"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>199</v>
       </c>
@@ -2988,8 +3287,9 @@
         <v>423</v>
       </c>
       <c r="Q87" s="1"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S87" s="1"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>226</v>
       </c>
@@ -3014,8 +3314,9 @@
         <v>440</v>
       </c>
       <c r="Q88" s="1"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S88" s="1"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>257</v>
       </c>
@@ -3040,8 +3341,9 @@
         <v>533</v>
       </c>
       <c r="Q89" s="1"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S89" s="1"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>2059</v>
       </c>
@@ -3066,8 +3368,9 @@
         <v>1589</v>
       </c>
       <c r="Q90" s="1"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S90" s="1"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>416</v>
       </c>
@@ -3092,8 +3395,9 @@
         <v>462</v>
       </c>
       <c r="Q91" s="1"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S91" s="1"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>152</v>
       </c>
@@ -3118,8 +3422,9 @@
         <v>570</v>
       </c>
       <c r="Q92" s="1"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S92" s="1"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>372</v>
       </c>
@@ -3144,8 +3449,9 @@
         <v>1513</v>
       </c>
       <c r="Q93" s="1"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S93" s="1"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>2275</v>
       </c>
@@ -3170,8 +3476,9 @@
         <v>267</v>
       </c>
       <c r="Q94" s="1"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S94" s="1"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>276</v>
       </c>
@@ -3196,8 +3503,9 @@
         <v>812</v>
       </c>
       <c r="Q95" s="1"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S95" s="1"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>285</v>
       </c>
@@ -3222,8 +3530,9 @@
         <v>1070</v>
       </c>
       <c r="Q96" s="1"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S96" s="1"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>338</v>
       </c>
@@ -3248,8 +3557,9 @@
         <v>499</v>
       </c>
       <c r="Q97" s="1"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S97" s="1"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>487</v>
       </c>
@@ -3274,8 +3584,9 @@
         <v>406</v>
       </c>
       <c r="Q98" s="1"/>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S98" s="1"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>1295</v>
       </c>
@@ -3300,8 +3611,9 @@
         <v>394</v>
       </c>
       <c r="Q99" s="1"/>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S99" s="1"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>425</v>
       </c>
@@ -3326,8 +3638,9 @@
         <v>246</v>
       </c>
       <c r="Q100" s="1"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S100" s="1"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>1417</v>
       </c>
@@ -3352,8 +3665,9 @@
         <v>10509</v>
       </c>
       <c r="Q101" s="1"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S101" s="1"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>509</v>
       </c>
@@ -3378,8 +3692,9 @@
         <v>545</v>
       </c>
       <c r="Q102" s="1"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S102" s="1"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>1044</v>
       </c>
@@ -3404,8 +3719,9 @@
         <v>6974</v>
       </c>
       <c r="Q103" s="1"/>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S103" s="1"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>1279</v>
       </c>
@@ -3430,8 +3746,9 @@
         <v>666</v>
       </c>
       <c r="Q104" s="1"/>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S104" s="1"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>3877</v>
       </c>
@@ -3456,8 +3773,9 @@
         <v>117</v>
       </c>
       <c r="Q105" s="1"/>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S105" s="1"/>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>589</v>
       </c>
@@ -3482,8 +3800,9 @@
         <v>338</v>
       </c>
       <c r="Q106" s="1"/>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S106" s="1"/>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>127</v>
       </c>
@@ -3508,8 +3827,9 @@
         <v>1090</v>
       </c>
       <c r="Q107" s="1"/>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S107" s="1"/>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>560</v>
       </c>
@@ -3534,8 +3854,9 @@
         <v>399</v>
       </c>
       <c r="Q108" s="1"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S108" s="1"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>955</v>
       </c>
@@ -3560,8 +3881,9 @@
         <v>399</v>
       </c>
       <c r="Q109" s="1"/>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S109" s="1"/>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>1736</v>
       </c>
@@ -3586,8 +3908,9 @@
         <v>901</v>
       </c>
       <c r="Q110" s="1"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S110" s="1"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>1299</v>
       </c>
@@ -3612,8 +3935,9 @@
         <v>581</v>
       </c>
       <c r="Q111" s="1"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S111" s="1"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>2793</v>
       </c>
@@ -3638,8 +3962,9 @@
         <v>3132</v>
       </c>
       <c r="Q112" s="1"/>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S112" s="1"/>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>1043</v>
       </c>
@@ -3664,8 +3989,9 @@
         <v>238</v>
       </c>
       <c r="Q113" s="1"/>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S113" s="1"/>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>279</v>
       </c>
@@ -3690,8 +4016,9 @@
         <v>2088</v>
       </c>
       <c r="Q114" s="1"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S114" s="1"/>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>919</v>
       </c>
@@ -3716,8 +4043,9 @@
         <v>1456</v>
       </c>
       <c r="Q115" s="1"/>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S115" s="1"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>1788</v>
       </c>
@@ -3742,8 +4070,9 @@
         <v>382</v>
       </c>
       <c r="Q116" s="1"/>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S116" s="1"/>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>749</v>
       </c>
@@ -3768,8 +4097,9 @@
         <v>706</v>
       </c>
       <c r="Q117" s="1"/>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S117" s="1"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>473</v>
       </c>
@@ -3794,8 +4124,9 @@
         <v>343</v>
       </c>
       <c r="Q118" s="1"/>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S118" s="1"/>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>967</v>
       </c>
@@ -3820,8 +4151,9 @@
         <v>199</v>
       </c>
       <c r="Q119" s="1"/>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S119" s="1"/>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>477</v>
       </c>
@@ -3846,8 +4178,9 @@
         <v>633</v>
       </c>
       <c r="Q120" s="1"/>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S120" s="1"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>708</v>
       </c>
@@ -3872,8 +4205,9 @@
         <v>2487</v>
       </c>
       <c r="Q121" s="1"/>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S121" s="1"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>404</v>
       </c>
@@ -3898,8 +4232,9 @@
         <v>1069</v>
       </c>
       <c r="Q122" s="1"/>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S122" s="1"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>588</v>
       </c>
@@ -3924,8 +4259,9 @@
         <v>2870</v>
       </c>
       <c r="Q123" s="1"/>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S123" s="1"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>208</v>
       </c>
@@ -3950,8 +4286,9 @@
         <v>149</v>
       </c>
       <c r="Q124" s="1"/>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S124" s="1"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>569</v>
       </c>
@@ -3976,8 +4313,9 @@
         <v>175</v>
       </c>
       <c r="Q125" s="1"/>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S125" s="1"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>247</v>
       </c>
@@ -4002,8 +4340,9 @@
         <v>299</v>
       </c>
       <c r="Q126" s="1"/>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S126" s="1"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>894</v>
       </c>
@@ -4028,8 +4367,9 @@
         <v>762</v>
       </c>
       <c r="Q127" s="1"/>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S127" s="1"/>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>1920</v>
       </c>
@@ -4054,8 +4394,9 @@
         <v>1173</v>
       </c>
       <c r="Q128" s="1"/>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S128" s="1"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>375</v>
       </c>
@@ -4080,8 +4421,9 @@
         <v>415</v>
       </c>
       <c r="Q129" s="1"/>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S129" s="1"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>948</v>
       </c>
@@ -4106,8 +4448,9 @@
         <v>281</v>
       </c>
       <c r="Q130" s="1"/>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S130" s="1"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>1303</v>
       </c>
@@ -4132,8 +4475,9 @@
         <v>2402</v>
       </c>
       <c r="Q131" s="1"/>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S131" s="1"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>449</v>
       </c>
@@ -4158,8 +4502,9 @@
         <v>887</v>
       </c>
       <c r="Q132" s="1"/>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S132" s="1"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>1214</v>
       </c>
@@ -4184,8 +4529,9 @@
         <v>3834</v>
       </c>
       <c r="Q133" s="1"/>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S133" s="1"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>348</v>
       </c>
@@ -4210,8 +4556,9 @@
         <v>658</v>
       </c>
       <c r="Q134" s="1"/>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S134" s="1"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>511</v>
       </c>
@@ -4236,8 +4583,9 @@
         <v>639</v>
       </c>
       <c r="Q135" s="1"/>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S135" s="1"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>1490</v>
       </c>
@@ -4262,8 +4610,9 @@
         <v>447</v>
       </c>
       <c r="Q136" s="1"/>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S136" s="1"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>213</v>
       </c>
@@ -4288,8 +4637,9 @@
         <v>499</v>
       </c>
       <c r="Q137" s="1"/>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S137" s="1"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>810</v>
       </c>
@@ -4314,8 +4664,9 @@
         <v>246</v>
       </c>
       <c r="Q138" s="1"/>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S138" s="1"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>2612</v>
       </c>
@@ -4340,8 +4691,9 @@
         <v>644</v>
       </c>
       <c r="Q139" s="1"/>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S139" s="1"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>289</v>
       </c>
@@ -4366,8 +4718,9 @@
         <v>260</v>
       </c>
       <c r="Q140" s="1"/>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S140" s="1"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>1190</v>
       </c>
@@ -4392,8 +4745,9 @@
         <v>1488</v>
       </c>
       <c r="Q141" s="1"/>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S141" s="1"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>449</v>
       </c>
@@ -4418,8 +4772,9 @@
         <v>1621</v>
       </c>
       <c r="Q142" s="1"/>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S142" s="1"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>444</v>
       </c>
@@ -4444,8 +4799,9 @@
         <v>323</v>
       </c>
       <c r="Q143" s="1"/>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S143" s="1"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>203</v>
       </c>
@@ -4470,8 +4826,9 @@
         <v>362</v>
       </c>
       <c r="Q144" s="1"/>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S144" s="1"/>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>2208</v>
       </c>
@@ -4496,8 +4853,9 @@
         <v>672</v>
       </c>
       <c r="Q145" s="1"/>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S145" s="1"/>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>695</v>
       </c>
@@ -4522,8 +4880,9 @@
         <v>499</v>
       </c>
       <c r="Q146" s="1"/>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S146" s="1"/>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>694</v>
       </c>
@@ -4548,8 +4907,9 @@
         <v>408</v>
       </c>
       <c r="Q147" s="1"/>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S147" s="1"/>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>418</v>
       </c>
@@ -4574,8 +4934,9 @@
         <v>336</v>
       </c>
       <c r="Q148" s="1"/>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S148" s="1"/>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>250</v>
       </c>
@@ -4600,8 +4961,9 @@
         <v>139</v>
       </c>
       <c r="Q149" s="1"/>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S149" s="1"/>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>678</v>
       </c>
@@ -4626,8 +4988,9 @@
         <v>2029</v>
       </c>
       <c r="Q150" s="1"/>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S150" s="1"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>174</v>
       </c>
@@ -4652,8 +5015,9 @@
         <v>739</v>
       </c>
       <c r="Q151" s="1"/>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S151" s="1"/>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>359</v>
       </c>
@@ -4678,8 +5042,9 @@
         <v>469</v>
       </c>
       <c r="Q152" s="1"/>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S152" s="1"/>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>847</v>
       </c>
@@ -4704,8 +5069,9 @@
         <v>3035</v>
       </c>
       <c r="Q153" s="1"/>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S153" s="1"/>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>864</v>
       </c>
@@ -4730,8 +5096,9 @@
         <v>443</v>
       </c>
       <c r="Q154" s="1"/>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S154" s="1"/>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>1672</v>
       </c>
@@ -4756,8 +5123,9 @@
         <v>2875</v>
       </c>
       <c r="Q155" s="1"/>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S155" s="1"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>426</v>
       </c>
@@ -4782,8 +5150,9 @@
         <v>372</v>
       </c>
       <c r="Q156" s="1"/>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S156" s="1"/>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>1095</v>
       </c>
@@ -4808,8 +5177,9 @@
         <v>161</v>
       </c>
       <c r="Q157" s="1"/>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S157" s="1"/>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>227</v>
       </c>
@@ -4834,8 +5204,9 @@
         <v>392</v>
       </c>
       <c r="Q158" s="1"/>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S158" s="1"/>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>1271</v>
       </c>
@@ -4860,8 +5231,9 @@
         <v>534</v>
       </c>
       <c r="Q159" s="1"/>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S159" s="1"/>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>1468</v>
       </c>
@@ -4886,8 +5258,9 @@
         <v>661</v>
       </c>
       <c r="Q160" s="1"/>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S160" s="1"/>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>389</v>
       </c>
@@ -4912,8 +5285,9 @@
         <v>1024</v>
       </c>
       <c r="Q161" s="1"/>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S161" s="1"/>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>863</v>
       </c>
@@ -4938,8 +5312,9 @@
         <v>317</v>
       </c>
       <c r="Q162" s="1"/>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S162" s="1"/>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>645</v>
       </c>
@@ -4964,8 +5339,9 @@
         <v>2447</v>
       </c>
       <c r="Q163" s="1"/>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S163" s="1"/>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>153</v>
       </c>
@@ -4990,8 +5366,9 @@
         <v>860</v>
       </c>
       <c r="Q164" s="1"/>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S164" s="1"/>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>199</v>
       </c>
@@ -5016,8 +5393,9 @@
         <v>607</v>
       </c>
       <c r="Q165" s="1"/>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S165" s="1"/>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>1259</v>
       </c>
@@ -5042,8 +5420,9 @@
         <v>1516</v>
       </c>
       <c r="Q166" s="1"/>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S166" s="1"/>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>307</v>
       </c>
@@ -5068,8 +5447,9 @@
         <v>140</v>
       </c>
       <c r="Q167" s="1"/>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S167" s="1"/>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>634</v>
       </c>
@@ -5094,8 +5474,9 @@
         <v>927</v>
       </c>
       <c r="Q168" s="1"/>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S168" s="1"/>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>1174</v>
       </c>
@@ -5120,8 +5501,9 @@
         <v>635</v>
       </c>
       <c r="Q169" s="1"/>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S169" s="1"/>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>263</v>
       </c>
@@ -5146,8 +5528,9 @@
         <v>9051</v>
       </c>
       <c r="Q170" s="1"/>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S170" s="1"/>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>311</v>
       </c>
@@ -5172,8 +5555,9 @@
         <v>926</v>
       </c>
       <c r="Q171" s="1"/>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S171" s="1"/>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>256</v>
       </c>
@@ -5198,8 +5582,9 @@
         <v>748</v>
       </c>
       <c r="Q172" s="1"/>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S172" s="1"/>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>393</v>
       </c>
@@ -5224,8 +5609,9 @@
         <v>1059</v>
       </c>
       <c r="Q173" s="1"/>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S173" s="1"/>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>124</v>
       </c>
@@ -5250,8 +5636,9 @@
         <v>823</v>
       </c>
       <c r="Q174" s="1"/>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S174" s="1"/>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>1383</v>
       </c>
@@ -5276,8 +5663,9 @@
         <v>5709</v>
       </c>
       <c r="Q175" s="1"/>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S175" s="1"/>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>209</v>
       </c>
@@ -5302,8 +5690,9 @@
         <v>1768</v>
       </c>
       <c r="Q176" s="1"/>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S176" s="1"/>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>561</v>
       </c>
@@ -5328,8 +5717,9 @@
         <v>2928</v>
       </c>
       <c r="Q177" s="1"/>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S177" s="1"/>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>1354</v>
       </c>
@@ -5354,8 +5744,9 @@
         <v>323</v>
       </c>
       <c r="Q178" s="1"/>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S178" s="1"/>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>1370</v>
       </c>
@@ -5380,8 +5771,9 @@
         <v>2721</v>
       </c>
       <c r="Q179" s="1"/>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S179" s="1"/>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>351</v>
       </c>
@@ -5406,8 +5798,9 @@
         <v>162</v>
       </c>
       <c r="Q180" s="1"/>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S180" s="1"/>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>5442</v>
       </c>
@@ -5432,8 +5825,9 @@
         <v>748</v>
       </c>
       <c r="Q181" s="1"/>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S181" s="1"/>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>1373</v>
       </c>
@@ -5458,8 +5852,9 @@
         <v>3354</v>
       </c>
       <c r="Q182" s="1"/>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S182" s="1"/>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>406</v>
       </c>
@@ -5484,8 +5879,9 @@
         <v>3168</v>
       </c>
       <c r="Q183" s="1"/>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S183" s="1"/>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>193</v>
       </c>
@@ -5510,8 +5906,9 @@
         <v>674</v>
       </c>
       <c r="Q184" s="1"/>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S184" s="1"/>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>408</v>
       </c>
@@ -5536,8 +5933,9 @@
         <v>870</v>
       </c>
       <c r="Q185" s="1"/>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S185" s="1"/>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>117</v>
       </c>
@@ -5562,8 +5960,9 @@
         <v>229</v>
       </c>
       <c r="Q186" s="1"/>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S186" s="1"/>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>651</v>
       </c>
@@ -5588,8 +5987,9 @@
         <v>467</v>
       </c>
       <c r="Q187" s="1"/>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S187" s="1"/>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>1422</v>
       </c>
@@ -5614,8 +6014,9 @@
         <v>2629</v>
       </c>
       <c r="Q188" s="1"/>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S188" s="1"/>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>352</v>
       </c>
@@ -5640,8 +6041,9 @@
         <v>2503</v>
       </c>
       <c r="Q189" s="1"/>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S189" s="1"/>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>1625</v>
       </c>
@@ -5666,8 +6068,9 @@
         <v>657</v>
       </c>
       <c r="Q190" s="1"/>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S190" s="1"/>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>324</v>
       </c>
@@ -5692,8 +6095,9 @@
         <v>685</v>
       </c>
       <c r="Q191" s="1"/>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S191" s="1"/>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>1455</v>
       </c>
@@ -5718,8 +6122,9 @@
         <v>399</v>
       </c>
       <c r="Q192" s="1"/>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S192" s="1"/>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>538</v>
       </c>
@@ -5744,8 +6149,9 @@
         <v>117</v>
       </c>
       <c r="Q193" s="1"/>
-    </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S193" s="1"/>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>345</v>
       </c>
@@ -5770,8 +6176,9 @@
         <v>195</v>
       </c>
       <c r="Q194" s="1"/>
-    </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S194" s="1"/>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>220</v>
       </c>
@@ -5796,8 +6203,9 @@
         <v>384</v>
       </c>
       <c r="Q195" s="1"/>
-    </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S195" s="1"/>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>278</v>
       </c>
@@ -5822,8 +6230,9 @@
         <v>118</v>
       </c>
       <c r="Q196" s="1"/>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S196" s="1"/>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>2241</v>
       </c>
@@ -5848,8 +6257,9 @@
         <v>3584</v>
       </c>
       <c r="Q197" s="1"/>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S197" s="1"/>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>110</v>
       </c>
@@ -5874,8 +6284,9 @@
         <v>11364</v>
       </c>
       <c r="Q198" s="1"/>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S198" s="1"/>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>957</v>
       </c>
@@ -5900,8 +6311,9 @@
         <v>587</v>
       </c>
       <c r="Q199" s="1"/>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S199" s="1"/>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>221</v>
       </c>
@@ -5926,8 +6338,9 @@
         <v>653</v>
       </c>
       <c r="Q200" s="1"/>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S200" s="1"/>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>194</v>
       </c>
@@ -5952,8 +6365,9 @@
         <v>625</v>
       </c>
       <c r="Q201" s="1"/>
-    </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S201" s="1"/>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>2117</v>
       </c>
@@ -5978,8 +6392,9 @@
         <v>376</v>
       </c>
       <c r="Q202" s="1"/>
-    </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S202" s="1"/>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>353</v>
       </c>
@@ -6004,8 +6419,9 @@
         <v>776</v>
       </c>
       <c r="Q203" s="1"/>
-    </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S203" s="1"/>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>618</v>
       </c>
@@ -6030,8 +6446,9 @@
         <v>291</v>
       </c>
       <c r="Q204" s="1"/>
-    </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S204" s="1"/>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>1984</v>
       </c>
@@ -6056,8 +6473,9 @@
         <v>1179</v>
       </c>
       <c r="Q205" s="1"/>
-    </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S205" s="1"/>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>601</v>
       </c>
@@ -6082,8 +6500,9 @@
         <v>477</v>
       </c>
       <c r="Q206" s="1"/>
-    </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S206" s="1"/>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>365</v>
       </c>
@@ -6108,8 +6527,9 @@
         <v>1970</v>
       </c>
       <c r="Q207" s="1"/>
-    </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S207" s="1"/>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>2202</v>
       </c>
@@ -6134,8 +6554,9 @@
         <v>1305</v>
       </c>
       <c r="Q208" s="1"/>
-    </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S208" s="1"/>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>461</v>
       </c>
@@ -6160,8 +6581,9 @@
         <v>958</v>
       </c>
       <c r="Q209" s="1"/>
-    </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S209" s="1"/>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>166</v>
       </c>
@@ -6186,8 +6608,9 @@
         <v>349</v>
       </c>
       <c r="Q210" s="1"/>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S210" s="1"/>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>106</v>
       </c>
@@ -6212,8 +6635,9 @@
         <v>1596</v>
       </c>
       <c r="Q211" s="1"/>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S211" s="1"/>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>349</v>
       </c>
@@ -6238,8 +6662,9 @@
         <v>256</v>
       </c>
       <c r="Q212" s="1"/>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S212" s="1"/>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>282</v>
       </c>
@@ -6264,8 +6689,9 @@
         <v>8874</v>
       </c>
       <c r="Q213" s="1"/>
-    </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S213" s="1"/>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>472</v>
       </c>
@@ -6290,8 +6716,9 @@
         <v>309</v>
       </c>
       <c r="Q214" s="1"/>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S214" s="1"/>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>457</v>
       </c>
@@ -6316,8 +6743,9 @@
         <v>970</v>
       </c>
       <c r="Q215" s="1"/>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S215" s="1"/>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>2395</v>
       </c>
@@ -6342,8 +6770,9 @@
         <v>744</v>
       </c>
       <c r="Q216" s="1"/>
-    </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S216" s="1"/>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>813</v>
       </c>
@@ -6368,8 +6797,9 @@
         <v>130</v>
       </c>
       <c r="Q217" s="1"/>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S217" s="1"/>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>1681</v>
       </c>
@@ -6394,8 +6824,9 @@
         <v>862</v>
       </c>
       <c r="Q218" s="1"/>
-    </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S218" s="1"/>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>502</v>
       </c>
@@ -6420,8 +6851,9 @@
         <v>279</v>
       </c>
       <c r="Q219" s="1"/>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S219" s="1"/>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>412</v>
       </c>
@@ -6446,8 +6878,9 @@
         <v>679</v>
       </c>
       <c r="Q220" s="1"/>
-    </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S220" s="1"/>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>1087</v>
       </c>
@@ -6472,8 +6905,9 @@
         <v>481</v>
       </c>
       <c r="Q221" s="1"/>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S221" s="1"/>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>1292</v>
       </c>
@@ -6498,8 +6932,9 @@
         <v>676</v>
       </c>
       <c r="Q222" s="1"/>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S222" s="1"/>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>2020</v>
       </c>
@@ -6524,8 +6959,9 @@
         <v>248</v>
       </c>
       <c r="Q223" s="1"/>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S223" s="1"/>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>225</v>
       </c>
@@ -6550,8 +6986,9 @@
         <v>190</v>
       </c>
       <c r="Q224" s="1"/>
-    </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S224" s="1"/>
+    </row>
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>1638</v>
       </c>
@@ -6576,8 +7013,9 @@
         <v>115</v>
       </c>
       <c r="Q225" s="1"/>
-    </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S225" s="1"/>
+    </row>
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>1020</v>
       </c>
@@ -6602,8 +7040,9 @@
         <v>2972</v>
       </c>
       <c r="Q226" s="1"/>
-    </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S226" s="1"/>
+    </row>
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>936</v>
       </c>
@@ -6628,8 +7067,9 @@
         <v>1157</v>
       </c>
       <c r="Q227" s="1"/>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S227" s="1"/>
+    </row>
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>708</v>
       </c>
@@ -6654,8 +7094,9 @@
         <v>1426</v>
       </c>
       <c r="Q228" s="1"/>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S228" s="1"/>
+    </row>
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>261</v>
       </c>
@@ -6680,8 +7121,9 @@
         <v>1681</v>
       </c>
       <c r="Q229" s="1"/>
-    </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S229" s="1"/>
+    </row>
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>150</v>
       </c>
@@ -6706,8 +7148,9 @@
         <v>159</v>
       </c>
       <c r="Q230" s="1"/>
-    </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S230" s="1"/>
+    </row>
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>282</v>
       </c>
@@ -6732,8 +7175,9 @@
         <v>376</v>
       </c>
       <c r="Q231" s="1"/>
-    </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S231" s="1"/>
+    </row>
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>1313</v>
       </c>
@@ -6758,8 +7202,9 @@
         <v>2869</v>
       </c>
       <c r="Q232" s="1"/>
-    </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S232" s="1"/>
+    </row>
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>1603</v>
       </c>
@@ -6784,8 +7229,9 @@
         <v>3459</v>
       </c>
       <c r="Q233" s="1"/>
-    </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S233" s="1"/>
+    </row>
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>898</v>
       </c>
@@ -6810,8 +7256,9 @@
         <v>2791</v>
       </c>
       <c r="Q234" s="1"/>
-    </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S234" s="1"/>
+    </row>
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>290</v>
       </c>
@@ -6836,8 +7283,9 @@
         <v>2134</v>
       </c>
       <c r="Q235" s="1"/>
-    </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S235" s="1"/>
+    </row>
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>343</v>
       </c>
@@ -6862,8 +7310,9 @@
         <v>335</v>
       </c>
       <c r="Q236" s="1"/>
-    </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S236" s="1"/>
+    </row>
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>2031</v>
       </c>
@@ -6888,8 +7337,9 @@
         <v>311</v>
       </c>
       <c r="Q237" s="1"/>
-    </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S237" s="1"/>
+    </row>
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>409</v>
       </c>
@@ -6914,8 +7364,9 @@
         <v>2808</v>
       </c>
       <c r="Q238" s="1"/>
-    </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S238" s="1"/>
+    </row>
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>786</v>
       </c>
@@ -6940,8 +7391,9 @@
         <v>237</v>
       </c>
       <c r="Q239" s="1"/>
-    </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S239" s="1"/>
+    </row>
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>839</v>
       </c>
@@ -6966,8 +7418,9 @@
         <v>1583</v>
       </c>
       <c r="Q240" s="1"/>
-    </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S240" s="1"/>
+    </row>
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>3374</v>
       </c>
@@ -6992,8 +7445,9 @@
         <v>4088</v>
       </c>
       <c r="Q241" s="1"/>
-    </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S241" s="1"/>
+    </row>
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>627</v>
       </c>
@@ -7018,8 +7472,9 @@
         <v>570</v>
       </c>
       <c r="Q242" s="1"/>
-    </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S242" s="1"/>
+    </row>
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>488</v>
       </c>
@@ -7044,8 +7499,9 @@
         <v>805</v>
       </c>
       <c r="Q243" s="1"/>
-    </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S243" s="1"/>
+    </row>
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>166</v>
       </c>
@@ -7070,8 +7526,9 @@
         <v>161</v>
       </c>
       <c r="Q244" s="1"/>
-    </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S244" s="1"/>
+    </row>
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>1297</v>
       </c>
@@ -7096,8 +7553,9 @@
         <v>1138</v>
       </c>
       <c r="Q245" s="1"/>
-    </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S245" s="1"/>
+    </row>
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>720</v>
       </c>
@@ -7122,8 +7580,9 @@
         <v>326</v>
       </c>
       <c r="Q246" s="1"/>
-    </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S246" s="1"/>
+    </row>
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>704</v>
       </c>
@@ -7148,8 +7607,9 @@
         <v>405</v>
       </c>
       <c r="Q247" s="1"/>
-    </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S247" s="1"/>
+    </row>
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>149</v>
       </c>
@@ -7174,8 +7634,9 @@
         <v>227</v>
       </c>
       <c r="Q248" s="1"/>
-    </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S248" s="1"/>
+    </row>
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>384</v>
       </c>
@@ -7200,8 +7661,9 @@
         <v>1066</v>
       </c>
       <c r="Q249" s="1"/>
-    </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S249" s="1"/>
+    </row>
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>628</v>
       </c>
@@ -7226,8 +7688,9 @@
         <v>1617</v>
       </c>
       <c r="Q250" s="1"/>
-    </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S250" s="1"/>
+    </row>
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>1536</v>
       </c>
@@ -7252,8 +7715,9 @@
         <v>648</v>
       </c>
       <c r="Q251" s="1"/>
-    </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S251" s="1"/>
+    </row>
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>1736</v>
       </c>
@@ -7278,8 +7742,9 @@
         <v>3426</v>
       </c>
       <c r="Q252" s="1"/>
-    </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S252" s="1"/>
+    </row>
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>2841</v>
       </c>
@@ -7304,8 +7769,9 @@
         <v>1795</v>
       </c>
       <c r="Q253" s="1"/>
-    </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S253" s="1"/>
+    </row>
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>132</v>
       </c>
@@ -7330,8 +7796,9 @@
         <v>5332</v>
       </c>
       <c r="Q254" s="1"/>
-    </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S254" s="1"/>
+    </row>
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>347</v>
       </c>
@@ -7356,8 +7823,9 @@
         <v>268</v>
       </c>
       <c r="Q255" s="1"/>
-    </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S255" s="1"/>
+    </row>
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>756</v>
       </c>
@@ -7382,8 +7850,9 @@
         <v>114</v>
       </c>
       <c r="Q256" s="1"/>
-    </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S256" s="1"/>
+    </row>
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>519</v>
       </c>
@@ -7408,8 +7877,9 @@
         <v>2039</v>
       </c>
       <c r="Q257" s="1"/>
-    </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S257" s="1"/>
+    </row>
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>298</v>
       </c>
@@ -7434,8 +7904,9 @@
         <v>2514</v>
       </c>
       <c r="Q258" s="1"/>
-    </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S258" s="1"/>
+    </row>
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>384</v>
       </c>
@@ -7460,8 +7931,9 @@
         <v>1341</v>
       </c>
       <c r="Q259" s="1"/>
-    </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S259" s="1"/>
+    </row>
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>455</v>
       </c>
@@ -7486,8 +7958,9 @@
         <v>215</v>
       </c>
       <c r="Q260" s="1"/>
-    </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S260" s="1"/>
+    </row>
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>401</v>
       </c>
@@ -7512,8 +7985,9 @@
         <v>817</v>
       </c>
       <c r="Q261" s="1"/>
-    </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S261" s="1"/>
+    </row>
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>161</v>
       </c>
@@ -7538,8 +8012,9 @@
         <v>452</v>
       </c>
       <c r="Q262" s="1"/>
-    </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S262" s="1"/>
+    </row>
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>680</v>
       </c>
@@ -7564,8 +8039,9 @@
         <v>363</v>
       </c>
       <c r="Q263" s="1"/>
-    </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S263" s="1"/>
+    </row>
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>378</v>
       </c>
@@ -7590,8 +8066,9 @@
         <v>614</v>
       </c>
       <c r="Q264" s="1"/>
-    </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S264" s="1"/>
+    </row>
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>1078</v>
       </c>
@@ -7616,8 +8093,9 @@
         <v>2540</v>
       </c>
       <c r="Q265" s="1"/>
-    </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S265" s="1"/>
+    </row>
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>1595</v>
       </c>
@@ -7642,8 +8120,9 @@
         <v>1116</v>
       </c>
       <c r="Q266" s="1"/>
-    </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S266" s="1"/>
+    </row>
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>163</v>
       </c>
@@ -7668,8 +8147,9 @@
         <v>12683</v>
       </c>
       <c r="Q267" s="1"/>
-    </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S267" s="1"/>
+    </row>
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>291</v>
       </c>
@@ -7694,8 +8174,9 @@
         <v>633</v>
       </c>
       <c r="Q268" s="1"/>
-    </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S268" s="1"/>
+    </row>
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>3323</v>
       </c>
@@ -7720,8 +8201,9 @@
         <v>1293</v>
       </c>
       <c r="Q269" s="1"/>
-    </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S269" s="1"/>
+    </row>
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>894</v>
       </c>
@@ -7746,8 +8228,9 @@
         <v>471</v>
       </c>
       <c r="Q270" s="1"/>
-    </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S270" s="1"/>
+    </row>
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>245</v>
       </c>
@@ -7772,8 +8255,9 @@
         <v>1281</v>
       </c>
       <c r="Q271" s="1"/>
-    </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S271" s="1"/>
+    </row>
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>226</v>
       </c>
@@ -7798,8 +8282,9 @@
         <v>175</v>
       </c>
       <c r="Q272" s="1"/>
-    </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S272" s="1"/>
+    </row>
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>1177</v>
       </c>
@@ -7824,8 +8309,9 @@
         <v>1097</v>
       </c>
       <c r="Q273" s="1"/>
-    </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S273" s="1"/>
+    </row>
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>547</v>
       </c>
@@ -7850,8 +8336,9 @@
         <v>329</v>
       </c>
       <c r="Q274" s="1"/>
-    </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S274" s="1"/>
+    </row>
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>214</v>
       </c>
@@ -7876,8 +8363,9 @@
         <v>2550</v>
       </c>
       <c r="Q275" s="1"/>
-    </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S275" s="1"/>
+    </row>
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>182</v>
       </c>
@@ -7902,8 +8390,9 @@
         <v>351</v>
       </c>
       <c r="Q276" s="1"/>
-    </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S276" s="1"/>
+    </row>
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>2074</v>
       </c>
@@ -7928,8 +8417,9 @@
         <v>1097</v>
       </c>
       <c r="Q277" s="1"/>
-    </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S277" s="1"/>
+    </row>
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>307</v>
       </c>
@@ -7954,8 +8444,9 @@
         <v>759</v>
       </c>
       <c r="Q278" s="1"/>
-    </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S278" s="1"/>
+    </row>
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>1043</v>
       </c>
@@ -7980,8 +8471,9 @@
         <v>644</v>
       </c>
       <c r="Q279" s="1"/>
-    </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S279" s="1"/>
+    </row>
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>687</v>
       </c>
@@ -8006,8 +8498,9 @@
         <v>1783</v>
       </c>
       <c r="Q280" s="1"/>
-    </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S280" s="1"/>
+    </row>
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>718</v>
       </c>
@@ -8032,8 +8525,9 @@
         <v>1797</v>
       </c>
       <c r="Q281" s="1"/>
-    </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S281" s="1"/>
+    </row>
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>571</v>
       </c>
@@ -8058,8 +8552,9 @@
         <v>1446</v>
       </c>
       <c r="Q282" s="1"/>
-    </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S282" s="1"/>
+    </row>
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>1377</v>
       </c>
@@ -8084,8 +8579,9 @@
         <v>340</v>
       </c>
       <c r="Q283" s="1"/>
-    </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S283" s="1"/>
+    </row>
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>568</v>
       </c>
@@ -8110,8 +8606,9 @@
         <v>3158</v>
       </c>
       <c r="Q284" s="1"/>
-    </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S284" s="1"/>
+    </row>
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>1150</v>
       </c>
@@ -8136,8 +8633,9 @@
         <v>1829</v>
       </c>
       <c r="Q285" s="1"/>
-    </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S285" s="1"/>
+    </row>
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <v>170</v>
       </c>
@@ -8162,8 +8660,9 @@
         <v>713</v>
       </c>
       <c r="Q286" s="1"/>
-    </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S286" s="1"/>
+    </row>
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>2090</v>
       </c>
@@ -8188,8 +8687,9 @@
         <v>387</v>
       </c>
       <c r="Q287" s="1"/>
-    </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S287" s="1"/>
+    </row>
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>385</v>
       </c>
@@ -8214,8 +8714,9 @@
         <v>2320</v>
       </c>
       <c r="Q288" s="1"/>
-    </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S288" s="1"/>
+    </row>
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>505</v>
       </c>
@@ -8240,8 +8741,9 @@
         <v>400</v>
       </c>
       <c r="Q289" s="1"/>
-    </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S289" s="1"/>
+    </row>
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <v>292</v>
       </c>
@@ -8266,8 +8768,9 @@
         <v>1519</v>
       </c>
       <c r="Q290" s="1"/>
-    </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S290" s="1"/>
+    </row>
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>275</v>
       </c>
@@ -8292,8 +8795,9 @@
         <v>150</v>
       </c>
       <c r="Q291" s="1"/>
-    </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S291" s="1"/>
+    </row>
+    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <v>1209</v>
       </c>
@@ -8318,8 +8822,9 @@
         <v>872</v>
       </c>
       <c r="Q292" s="1"/>
-    </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S292" s="1"/>
+    </row>
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <v>377</v>
       </c>
@@ -8344,8 +8849,9 @@
         <v>375</v>
       </c>
       <c r="Q293" s="1"/>
-    </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S293" s="1"/>
+    </row>
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>477</v>
       </c>
@@ -8370,8 +8876,9 @@
         <v>603</v>
       </c>
       <c r="Q294" s="1"/>
-    </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S294" s="1"/>
+    </row>
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <v>174</v>
       </c>
@@ -8396,8 +8903,9 @@
         <v>400</v>
       </c>
       <c r="Q295" s="1"/>
-    </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S295" s="1"/>
+    </row>
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <v>240</v>
       </c>
@@ -8422,8 +8930,9 @@
         <v>861</v>
       </c>
       <c r="Q296" s="1"/>
-    </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S296" s="1"/>
+    </row>
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <v>1244</v>
       </c>
@@ -8448,8 +8957,9 @@
         <v>977</v>
       </c>
       <c r="Q297" s="1"/>
-    </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S297" s="1"/>
+    </row>
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <v>1127</v>
       </c>
@@ -8474,8 +8984,9 @@
         <v>503</v>
       </c>
       <c r="Q298" s="1"/>
-    </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S298" s="1"/>
+    </row>
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <v>2002</v>
       </c>
@@ -8500,8 +9011,9 @@
         <v>371</v>
       </c>
       <c r="Q299" s="1"/>
-    </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S299" s="1"/>
+    </row>
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <v>646</v>
       </c>
@@ -8526,8 +9038,9 @@
         <v>435</v>
       </c>
       <c r="Q300" s="1"/>
-    </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S300" s="1"/>
+    </row>
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <v>699</v>
       </c>
@@ -8552,8 +9065,9 @@
         <v>271</v>
       </c>
       <c r="Q301" s="1"/>
-    </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S301" s="1"/>
+    </row>
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>113</v>
       </c>
@@ -8578,8 +9092,9 @@
         <v>685</v>
       </c>
       <c r="Q302" s="1"/>
-    </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S302" s="1"/>
+    </row>
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>1598</v>
       </c>
@@ -8604,8 +9119,9 @@
         <v>275</v>
       </c>
       <c r="Q303" s="1"/>
-    </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S303" s="1"/>
+    </row>
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <v>206</v>
       </c>
@@ -8628,8 +9144,9 @@
         <v>417</v>
       </c>
       <c r="Q304" s="1"/>
-    </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S304" s="1"/>
+    </row>
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <v>327</v>
       </c>
@@ -8652,8 +9169,9 @@
         <v>253</v>
       </c>
       <c r="Q305" s="1"/>
-    </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S305" s="1"/>
+    </row>
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <v>966</v>
       </c>
@@ -8676,8 +9194,9 @@
         <v>338</v>
       </c>
       <c r="Q306" s="1"/>
-    </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S306" s="1"/>
+    </row>
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <v>1012</v>
       </c>
@@ -8700,8 +9219,9 @@
         <v>191</v>
       </c>
       <c r="Q307" s="1"/>
-    </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S307" s="1"/>
+    </row>
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <v>418</v>
       </c>
@@ -8721,7 +9241,7 @@
       <c r="N308" s="4"/>
       <c r="O308" s="4"/>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <v>609</v>
       </c>
@@ -8741,7 +9261,7 @@
       <c r="N309" s="4"/>
       <c r="O309" s="4"/>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <v>373</v>
       </c>
@@ -8761,7 +9281,7 @@
       <c r="N310" s="4"/>
       <c r="O310" s="4"/>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <v>571</v>
       </c>
@@ -8781,7 +9301,7 @@
       <c r="N311" s="4"/>
       <c r="O311" s="4"/>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <v>1954</v>
       </c>
@@ -8801,7 +9321,7 @@
       <c r="N312" s="4"/>
       <c r="O312" s="4"/>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <v>817</v>
       </c>
@@ -8821,7 +9341,7 @@
       <c r="N313" s="4"/>
       <c r="O313" s="4"/>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <v>202</v>
       </c>
@@ -8841,7 +9361,7 @@
       <c r="N314" s="4"/>
       <c r="O314" s="4"/>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <v>350</v>
       </c>
@@ -8861,7 +9381,7 @@
       <c r="N315" s="4"/>
       <c r="O315" s="4"/>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <v>183</v>
       </c>
@@ -8881,7 +9401,7 @@
       <c r="N316" s="4"/>
       <c r="O316" s="4"/>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <v>756</v>
       </c>
@@ -8901,7 +9421,7 @@
       <c r="N317" s="4"/>
       <c r="O317" s="4"/>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <v>333</v>
       </c>
@@ -8921,7 +9441,7 @@
       <c r="N318" s="4"/>
       <c r="O318" s="4"/>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <v>1534</v>
       </c>
@@ -8941,7 +9461,7 @@
       <c r="N319" s="4"/>
       <c r="O319" s="4"/>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <v>592</v>
       </c>

--- a/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
+++ b/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
@@ -149,12 +149,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="U3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sharan Chandran:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Micro marker was Trimmed - 960*1280</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sharan Chandran:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Micro marker was Trimmed - 960*1280</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>Area of ROI</t>
   </si>
@@ -629,11 +677,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y356"/>
+  <dimension ref="A1:AA356"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T11" sqref="T11"/>
+      <selection pane="bottomLeft" activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,12 +698,16 @@
     <col min="17" max="17" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" style="2" customWidth="1"/>
-    <col min="20" max="24" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="20" max="20" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" style="2" customWidth="1"/>
+    <col min="24" max="26" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -701,23 +753,23 @@
       <c r="T1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1147</v>
       </c>
@@ -756,8 +808,20 @@
       <c r="S2" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T2" s="1">
+        <v>3529</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="1">
+        <v>387</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>587</v>
       </c>
@@ -801,8 +865,22 @@
         <f>960*1280</f>
         <v>1228800</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T3" s="1">
+        <v>1097</v>
+      </c>
+      <c r="U3" s="4">
+        <f>960*1280</f>
+        <v>1228800</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1004</v>
+      </c>
+      <c r="W3" s="4">
+        <f>960*1280</f>
+        <v>1228800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>9364</v>
       </c>
@@ -841,8 +919,20 @@
       <c r="S4" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T4" s="1">
+        <v>1692</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>5515</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2109</v>
       </c>
@@ -886,8 +976,22 @@
         <f>SUM(R:R)</f>
         <v>403130</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T5" s="1">
+        <v>3244</v>
+      </c>
+      <c r="U5" s="2">
+        <f>SUM(T:T)</f>
+        <v>329439</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1528</v>
+      </c>
+      <c r="W5" s="2">
+        <f>SUM(V:V)</f>
+        <v>443099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>382</v>
       </c>
@@ -926,8 +1030,20 @@
       <c r="S6" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T6" s="1">
+        <v>556</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" s="1">
+        <v>665</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1867</v>
       </c>
@@ -968,8 +1084,22 @@
         <f>(S5/S3)</f>
         <v>0.32806803385416666</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T7" s="1">
+        <v>2615</v>
+      </c>
+      <c r="U7" s="6">
+        <f>(U5/U3)</f>
+        <v>0.26809814453125003</v>
+      </c>
+      <c r="V7" s="1">
+        <v>3972</v>
+      </c>
+      <c r="W7" s="6">
+        <f>(W5/W3)</f>
+        <v>0.36059488932291667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>427</v>
       </c>
@@ -1008,8 +1138,20 @@
       <c r="S8" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T8" s="1">
+        <v>4410</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V8" s="1">
+        <v>10530</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1167</v>
       </c>
@@ -1048,8 +1190,20 @@
       <c r="S9" s="6">
         <v>0.2238</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T9" s="1">
+        <v>2585</v>
+      </c>
+      <c r="U9" s="6">
+        <v>0.16123976000000001</v>
+      </c>
+      <c r="V9" s="1">
+        <v>173</v>
+      </c>
+      <c r="W9" s="6">
+        <v>0.20767712999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>160</v>
       </c>
@@ -1077,8 +1231,16 @@
         <v>5546</v>
       </c>
       <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T10" s="1">
+        <v>9091</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1">
+        <v>140</v>
+      </c>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>413</v>
       </c>
@@ -1106,8 +1268,16 @@
         <v>2724</v>
       </c>
       <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T11" s="1">
+        <v>9633</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1">
+        <v>4451</v>
+      </c>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>217</v>
       </c>
@@ -1136,8 +1306,16 @@
         <v>4204</v>
       </c>
       <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T12" s="1">
+        <v>8177</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1">
+        <v>1230</v>
+      </c>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>578</v>
       </c>
@@ -1166,8 +1344,16 @@
         <v>1490</v>
       </c>
       <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T13" s="1">
+        <v>3194</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1">
+        <v>2336</v>
+      </c>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>792</v>
       </c>
@@ -1196,8 +1382,16 @@
         <v>2848</v>
       </c>
       <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T14" s="1">
+        <v>3258</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1">
+        <v>33033</v>
+      </c>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>106</v>
       </c>
@@ -1226,8 +1420,16 @@
         <v>14421</v>
       </c>
       <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T15" s="1">
+        <v>9477</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1">
+        <v>5492</v>
+      </c>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2003</v>
       </c>
@@ -1256,8 +1458,16 @@
         <v>11621</v>
       </c>
       <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16" s="1">
+        <v>3613</v>
+      </c>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1">
+        <v>11637</v>
+      </c>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>308</v>
       </c>
@@ -1285,8 +1495,16 @@
         <v>15959</v>
       </c>
       <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="1">
+        <v>1735</v>
+      </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1">
+        <v>12318</v>
+      </c>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>172</v>
       </c>
@@ -1314,8 +1532,16 @@
         <v>2539</v>
       </c>
       <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="1">
+        <v>2126</v>
+      </c>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1">
+        <v>3079</v>
+      </c>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1253</v>
       </c>
@@ -1343,8 +1569,16 @@
         <v>1143</v>
       </c>
       <c r="S19" s="1"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="1">
+        <v>5755</v>
+      </c>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1">
+        <v>426</v>
+      </c>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>546</v>
       </c>
@@ -1372,8 +1606,16 @@
         <v>11192</v>
       </c>
       <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="1">
+        <v>14205</v>
+      </c>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1">
+        <v>3846</v>
+      </c>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>341</v>
       </c>
@@ -1401,8 +1643,16 @@
         <v>3845</v>
       </c>
       <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21" s="1">
+        <v>8457</v>
+      </c>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1">
+        <v>202</v>
+      </c>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>140</v>
       </c>
@@ -1430,8 +1680,16 @@
         <v>15697</v>
       </c>
       <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22" s="1">
+        <v>1004</v>
+      </c>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1">
+        <v>138</v>
+      </c>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>711</v>
       </c>
@@ -1459,8 +1717,16 @@
         <v>1737</v>
       </c>
       <c r="S23" s="1"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23" s="1">
+        <v>3914</v>
+      </c>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1">
+        <v>106</v>
+      </c>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>529</v>
       </c>
@@ -1488,8 +1754,16 @@
         <v>16767</v>
       </c>
       <c r="S24" s="1"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24" s="1">
+        <v>3958</v>
+      </c>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1">
+        <v>11182</v>
+      </c>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>400</v>
       </c>
@@ -1518,8 +1792,16 @@
         <v>15131</v>
       </c>
       <c r="S25" s="1"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25" s="1">
+        <v>6202</v>
+      </c>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1">
+        <v>162</v>
+      </c>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>215</v>
       </c>
@@ -1548,8 +1830,16 @@
         <v>850</v>
       </c>
       <c r="S26" s="1"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26" s="1">
+        <v>11149</v>
+      </c>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1">
+        <v>175</v>
+      </c>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2959</v>
       </c>
@@ -1578,8 +1868,16 @@
         <v>3582</v>
       </c>
       <c r="S27" s="1"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27" s="1">
+        <v>9672</v>
+      </c>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1">
+        <v>254</v>
+      </c>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>349</v>
       </c>
@@ -1608,8 +1906,16 @@
         <v>1897</v>
       </c>
       <c r="S28" s="1"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" s="1">
+        <v>8988</v>
+      </c>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1">
+        <v>1638</v>
+      </c>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>972</v>
       </c>
@@ -1638,8 +1944,16 @@
         <v>1791</v>
       </c>
       <c r="S29" s="1"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29" s="1">
+        <v>3127</v>
+      </c>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1">
+        <v>106</v>
+      </c>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>942</v>
       </c>
@@ -1668,8 +1982,16 @@
         <v>1357</v>
       </c>
       <c r="S30" s="1"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30" s="1">
+        <v>3349</v>
+      </c>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1">
+        <v>11952</v>
+      </c>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1172</v>
       </c>
@@ -1698,8 +2020,16 @@
         <v>2364</v>
       </c>
       <c r="S31" s="1"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="1">
+        <v>437</v>
+      </c>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1">
+        <v>100</v>
+      </c>
+      <c r="W31" s="1"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>358</v>
       </c>
@@ -1728,8 +2058,16 @@
         <v>9608</v>
       </c>
       <c r="S32" s="1"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T32" s="1">
+        <v>690</v>
+      </c>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1">
+        <v>109</v>
+      </c>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>2155</v>
       </c>
@@ -1758,8 +2096,16 @@
         <v>56145</v>
       </c>
       <c r="S33" s="1"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T33" s="1">
+        <v>10173</v>
+      </c>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1">
+        <v>831</v>
+      </c>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>268</v>
       </c>
@@ -1788,8 +2134,16 @@
         <v>4266</v>
       </c>
       <c r="S34" s="1"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T34" s="1">
+        <v>7917</v>
+      </c>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1">
+        <v>1363</v>
+      </c>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>992</v>
       </c>
@@ -1818,8 +2172,16 @@
         <v>4119</v>
       </c>
       <c r="S35" s="1"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T35" s="1">
+        <v>2330</v>
+      </c>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1">
+        <v>3106</v>
+      </c>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>678</v>
       </c>
@@ -1848,8 +2210,16 @@
         <v>33922</v>
       </c>
       <c r="S36" s="1"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36" s="1">
+        <v>2279</v>
+      </c>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1">
+        <v>1968</v>
+      </c>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>829</v>
       </c>
@@ -1878,8 +2248,16 @@
         <v>3771</v>
       </c>
       <c r="S37" s="1"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T37" s="1">
+        <v>2446</v>
+      </c>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1">
+        <v>2706</v>
+      </c>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>487</v>
       </c>
@@ -1908,8 +2286,16 @@
         <v>2178</v>
       </c>
       <c r="S38" s="1"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T38" s="1">
+        <v>4529</v>
+      </c>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1">
+        <v>2292</v>
+      </c>
+      <c r="W38" s="1"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>2772</v>
       </c>
@@ -1938,8 +2324,16 @@
         <v>989</v>
       </c>
       <c r="S39" s="1"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T39" s="1">
+        <v>7756</v>
+      </c>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1">
+        <v>2459</v>
+      </c>
+      <c r="W39" s="1"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>1978</v>
       </c>
@@ -1968,8 +2362,16 @@
         <v>4687</v>
       </c>
       <c r="S40" s="1"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T40" s="1">
+        <v>17411</v>
+      </c>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1">
+        <v>34842</v>
+      </c>
+      <c r="W40" s="1"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>376</v>
       </c>
@@ -1998,8 +2400,16 @@
         <v>12849</v>
       </c>
       <c r="S41" s="1"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T41" s="1">
+        <v>1022</v>
+      </c>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1">
+        <v>1345</v>
+      </c>
+      <c r="W41" s="1"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>205</v>
       </c>
@@ -2028,8 +2438,16 @@
         <v>720</v>
       </c>
       <c r="S42" s="1"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T42" s="1">
+        <v>4327</v>
+      </c>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1">
+        <v>6453</v>
+      </c>
+      <c r="W42" s="1"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>246</v>
       </c>
@@ -2058,8 +2476,16 @@
         <v>6329</v>
       </c>
       <c r="S43" s="1"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T43" s="1">
+        <v>8682</v>
+      </c>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1">
+        <v>2539</v>
+      </c>
+      <c r="W43" s="1"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>559</v>
       </c>
@@ -2088,8 +2514,16 @@
         <v>1772</v>
       </c>
       <c r="S44" s="1"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T44" s="1">
+        <v>1765</v>
+      </c>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1">
+        <v>304</v>
+      </c>
+      <c r="W44" s="1"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>333</v>
       </c>
@@ -2118,8 +2552,16 @@
         <v>21122</v>
       </c>
       <c r="S45" s="1"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T45" s="1">
+        <v>1381</v>
+      </c>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1">
+        <v>696</v>
+      </c>
+      <c r="W45" s="1"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>588</v>
       </c>
@@ -2148,8 +2590,16 @@
         <v>3423</v>
       </c>
       <c r="S46" s="1"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T46" s="1">
+        <v>2777</v>
+      </c>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1">
+        <v>331</v>
+      </c>
+      <c r="W46" s="1"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>353</v>
       </c>
@@ -2178,8 +2628,16 @@
         <v>1612</v>
       </c>
       <c r="S47" s="1"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T47" s="1">
+        <v>167</v>
+      </c>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1">
+        <v>1863</v>
+      </c>
+      <c r="W47" s="1"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>174</v>
       </c>
@@ -2208,8 +2666,16 @@
         <v>1773</v>
       </c>
       <c r="S48" s="1"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T48" s="1">
+        <v>18582</v>
+      </c>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1">
+        <v>3149</v>
+      </c>
+      <c r="W48" s="1"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>1841</v>
       </c>
@@ -2238,8 +2704,16 @@
         <v>1009</v>
       </c>
       <c r="S49" s="1"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T49" s="1">
+        <v>317</v>
+      </c>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1">
+        <v>2452</v>
+      </c>
+      <c r="W49" s="1"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>674</v>
       </c>
@@ -2268,8 +2742,16 @@
         <v>5550</v>
       </c>
       <c r="S50" s="1"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T50" s="1">
+        <v>3877</v>
+      </c>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1">
+        <v>254</v>
+      </c>
+      <c r="W50" s="1"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>1577</v>
       </c>
@@ -2298,8 +2780,16 @@
         <v>30583</v>
       </c>
       <c r="S51" s="1"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T51" s="1">
+        <v>440</v>
+      </c>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1">
+        <v>729</v>
+      </c>
+      <c r="W51" s="1"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>436</v>
       </c>
@@ -2328,8 +2818,16 @@
         <v>2563</v>
       </c>
       <c r="S52" s="1"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T52" s="1">
+        <v>16655</v>
+      </c>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1">
+        <v>5775</v>
+      </c>
+      <c r="W52" s="1"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>132</v>
       </c>
@@ -2358,8 +2856,16 @@
         <v>9482</v>
       </c>
       <c r="S53" s="1"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T53" s="1">
+        <v>920</v>
+      </c>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1">
+        <v>279</v>
+      </c>
+      <c r="W53" s="1"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>227</v>
       </c>
@@ -2388,8 +2894,16 @@
         <v>4134</v>
       </c>
       <c r="S54" s="1"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T54" s="1">
+        <v>1021</v>
+      </c>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1">
+        <v>17324</v>
+      </c>
+      <c r="W54" s="1"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>332</v>
       </c>
@@ -2418,8 +2932,16 @@
         <v>6430</v>
       </c>
       <c r="S55" s="1"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T55" s="1">
+        <v>2784</v>
+      </c>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1">
+        <v>203</v>
+      </c>
+      <c r="W55" s="1"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>593</v>
       </c>
@@ -2448,8 +2970,16 @@
         <v>5414</v>
       </c>
       <c r="S56" s="1"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T56" s="1">
+        <v>8180</v>
+      </c>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1">
+        <v>4450</v>
+      </c>
+      <c r="W56" s="1"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>359</v>
       </c>
@@ -2478,8 +3008,16 @@
         <v>2128</v>
       </c>
       <c r="S57" s="1"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T57" s="1">
+        <v>864</v>
+      </c>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1">
+        <v>3974</v>
+      </c>
+      <c r="W57" s="1"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>369</v>
       </c>
@@ -2505,8 +3043,16 @@
       </c>
       <c r="Q58" s="1"/>
       <c r="S58" s="1"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T58" s="1">
+        <v>1291</v>
+      </c>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1">
+        <v>9608</v>
+      </c>
+      <c r="W58" s="1"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>917</v>
       </c>
@@ -2532,8 +3078,16 @@
       </c>
       <c r="Q59" s="1"/>
       <c r="S59" s="1"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T59" s="1">
+        <v>2755</v>
+      </c>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1">
+        <v>128</v>
+      </c>
+      <c r="W59" s="1"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>1157</v>
       </c>
@@ -2559,8 +3113,16 @@
       </c>
       <c r="Q60" s="1"/>
       <c r="S60" s="1"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T60" s="1">
+        <v>5147</v>
+      </c>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1">
+        <v>149</v>
+      </c>
+      <c r="W60" s="1"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>217</v>
       </c>
@@ -2586,8 +3148,16 @@
       </c>
       <c r="Q61" s="1"/>
       <c r="S61" s="1"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T61" s="1">
+        <v>5391</v>
+      </c>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1">
+        <v>2945</v>
+      </c>
+      <c r="W61" s="1"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>378</v>
       </c>
@@ -2613,8 +3183,16 @@
       </c>
       <c r="Q62" s="1"/>
       <c r="S62" s="1"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T62" s="1">
+        <v>1818</v>
+      </c>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1">
+        <v>22554</v>
+      </c>
+      <c r="W62" s="1"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>522</v>
       </c>
@@ -2640,8 +3218,16 @@
       </c>
       <c r="Q63" s="1"/>
       <c r="S63" s="1"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T63" s="1">
+        <v>1112</v>
+      </c>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1">
+        <v>115</v>
+      </c>
+      <c r="W63" s="1"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>376</v>
       </c>
@@ -2667,8 +3253,16 @@
       </c>
       <c r="Q64" s="1"/>
       <c r="S64" s="1"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T64" s="1">
+        <v>1687</v>
+      </c>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1">
+        <v>395</v>
+      </c>
+      <c r="W64" s="1"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>310</v>
       </c>
@@ -2694,8 +3288,16 @@
       </c>
       <c r="Q65" s="1"/>
       <c r="S65" s="1"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T65" s="1">
+        <v>471</v>
+      </c>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1">
+        <v>4451</v>
+      </c>
+      <c r="W65" s="1"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>1307</v>
       </c>
@@ -2721,8 +3323,16 @@
       </c>
       <c r="Q66" s="1"/>
       <c r="S66" s="1"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T66" s="1">
+        <v>6914</v>
+      </c>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1">
+        <v>4875</v>
+      </c>
+      <c r="W66" s="1"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>572</v>
       </c>
@@ -2748,8 +3358,16 @@
       </c>
       <c r="Q67" s="1"/>
       <c r="S67" s="1"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T67" s="1">
+        <v>228</v>
+      </c>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1">
+        <v>301</v>
+      </c>
+      <c r="W67" s="1"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>608</v>
       </c>
@@ -2775,8 +3393,16 @@
       </c>
       <c r="Q68" s="1"/>
       <c r="S68" s="1"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T68" s="1">
+        <v>11816</v>
+      </c>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1">
+        <v>609</v>
+      </c>
+      <c r="W68" s="1"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>888</v>
       </c>
@@ -2802,8 +3428,16 @@
       </c>
       <c r="Q69" s="1"/>
       <c r="S69" s="1"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T69" s="1">
+        <v>2845</v>
+      </c>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1">
+        <v>10492</v>
+      </c>
+      <c r="W69" s="1"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>1005</v>
       </c>
@@ -2829,8 +3463,16 @@
       </c>
       <c r="Q70" s="1"/>
       <c r="S70" s="1"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T70" s="1">
+        <v>1470</v>
+      </c>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1">
+        <v>1101</v>
+      </c>
+      <c r="W70" s="1"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>508</v>
       </c>
@@ -2856,8 +3498,16 @@
       </c>
       <c r="Q71" s="1"/>
       <c r="S71" s="1"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T71" s="1">
+        <v>2105</v>
+      </c>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1">
+        <v>307</v>
+      </c>
+      <c r="W71" s="1"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>579</v>
       </c>
@@ -2883,8 +3533,16 @@
       </c>
       <c r="Q72" s="1"/>
       <c r="S72" s="1"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T72" s="1">
+        <v>498</v>
+      </c>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1">
+        <v>352</v>
+      </c>
+      <c r="W72" s="1"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>3575</v>
       </c>
@@ -2910,8 +3568,16 @@
       </c>
       <c r="Q73" s="1"/>
       <c r="S73" s="1"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T73" s="1">
+        <v>2055</v>
+      </c>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1">
+        <v>33350</v>
+      </c>
+      <c r="W73" s="1"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>256</v>
       </c>
@@ -2937,8 +3603,16 @@
       </c>
       <c r="Q74" s="1"/>
       <c r="S74" s="1"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T74" s="1">
+        <v>1776</v>
+      </c>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1">
+        <v>348</v>
+      </c>
+      <c r="W74" s="1"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>114</v>
       </c>
@@ -2964,8 +3638,16 @@
       </c>
       <c r="Q75" s="1"/>
       <c r="S75" s="1"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T75" s="1">
+        <v>519</v>
+      </c>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1">
+        <v>4179</v>
+      </c>
+      <c r="W75" s="1"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>368</v>
       </c>
@@ -2991,8 +3673,13 @@
       </c>
       <c r="Q76" s="1"/>
       <c r="S76" s="1"/>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U76" s="1"/>
+      <c r="V76" s="1">
+        <v>628</v>
+      </c>
+      <c r="W76" s="1"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>1098</v>
       </c>
@@ -3018,8 +3705,13 @@
       </c>
       <c r="Q77" s="1"/>
       <c r="S77" s="1"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U77" s="1"/>
+      <c r="V77" s="1">
+        <v>10731</v>
+      </c>
+      <c r="W77" s="1"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>238</v>
       </c>
@@ -3045,8 +3737,13 @@
       </c>
       <c r="Q78" s="1"/>
       <c r="S78" s="1"/>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U78" s="1"/>
+      <c r="V78" s="1">
+        <v>282</v>
+      </c>
+      <c r="W78" s="1"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>1355</v>
       </c>
@@ -3072,8 +3769,13 @@
       </c>
       <c r="Q79" s="1"/>
       <c r="S79" s="1"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U79" s="1"/>
+      <c r="V79" s="1">
+        <v>1498</v>
+      </c>
+      <c r="W79" s="1"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>3195</v>
       </c>
@@ -3099,8 +3801,13 @@
       </c>
       <c r="Q80" s="1"/>
       <c r="S80" s="1"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U80" s="1"/>
+      <c r="V80" s="1">
+        <v>5382</v>
+      </c>
+      <c r="W80" s="1"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>825</v>
       </c>
@@ -3126,8 +3833,13 @@
       </c>
       <c r="Q81" s="1"/>
       <c r="S81" s="1"/>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U81" s="1"/>
+      <c r="V81" s="1">
+        <v>50416</v>
+      </c>
+      <c r="W81" s="1"/>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>1381</v>
       </c>
@@ -3153,8 +3865,13 @@
       </c>
       <c r="Q82" s="1"/>
       <c r="S82" s="1"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U82" s="1"/>
+      <c r="V82" s="1">
+        <v>6185</v>
+      </c>
+      <c r="W82" s="1"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>141</v>
       </c>
@@ -3180,8 +3897,13 @@
       </c>
       <c r="Q83" s="1"/>
       <c r="S83" s="1"/>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U83" s="1"/>
+      <c r="V83" s="1">
+        <v>410</v>
+      </c>
+      <c r="W83" s="1"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>425</v>
       </c>
@@ -3207,8 +3929,13 @@
       </c>
       <c r="Q84" s="1"/>
       <c r="S84" s="1"/>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U84" s="1"/>
+      <c r="V84" s="1">
+        <v>1485</v>
+      </c>
+      <c r="W84" s="1"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>379</v>
       </c>
@@ -3234,8 +3961,13 @@
       </c>
       <c r="Q85" s="1"/>
       <c r="S85" s="1"/>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U85" s="1"/>
+      <c r="V85" s="1">
+        <v>124</v>
+      </c>
+      <c r="W85" s="1"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>5634</v>
       </c>
@@ -3261,8 +3993,13 @@
       </c>
       <c r="Q86" s="1"/>
       <c r="S86" s="1"/>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U86" s="1"/>
+      <c r="V86" s="1">
+        <v>2687</v>
+      </c>
+      <c r="W86" s="1"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>199</v>
       </c>
@@ -3288,8 +4025,13 @@
       </c>
       <c r="Q87" s="1"/>
       <c r="S87" s="1"/>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U87" s="1"/>
+      <c r="V87" s="1">
+        <v>1215</v>
+      </c>
+      <c r="W87" s="1"/>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>226</v>
       </c>
@@ -3315,8 +4057,13 @@
       </c>
       <c r="Q88" s="1"/>
       <c r="S88" s="1"/>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U88" s="1"/>
+      <c r="V88" s="1">
+        <v>1462</v>
+      </c>
+      <c r="W88" s="1"/>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>257</v>
       </c>
@@ -3342,8 +4089,13 @@
       </c>
       <c r="Q89" s="1"/>
       <c r="S89" s="1"/>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U89" s="1"/>
+      <c r="V89" s="1">
+        <v>229</v>
+      </c>
+      <c r="W89" s="1"/>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>2059</v>
       </c>
@@ -3369,8 +4121,13 @@
       </c>
       <c r="Q90" s="1"/>
       <c r="S90" s="1"/>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U90" s="1"/>
+      <c r="V90" s="1">
+        <v>348</v>
+      </c>
+      <c r="W90" s="1"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>416</v>
       </c>
@@ -3396,8 +4153,13 @@
       </c>
       <c r="Q91" s="1"/>
       <c r="S91" s="1"/>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U91" s="1"/>
+      <c r="V91" s="1">
+        <v>1583</v>
+      </c>
+      <c r="W91" s="1"/>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>152</v>
       </c>
@@ -3423,8 +4185,13 @@
       </c>
       <c r="Q92" s="1"/>
       <c r="S92" s="1"/>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U92" s="1"/>
+      <c r="V92" s="1">
+        <v>106</v>
+      </c>
+      <c r="W92" s="1"/>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>372</v>
       </c>
@@ -3450,8 +4217,13 @@
       </c>
       <c r="Q93" s="1"/>
       <c r="S93" s="1"/>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U93" s="1"/>
+      <c r="V93" s="1">
+        <v>6413</v>
+      </c>
+      <c r="W93" s="1"/>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>2275</v>
       </c>
@@ -3477,8 +4249,13 @@
       </c>
       <c r="Q94" s="1"/>
       <c r="S94" s="1"/>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U94" s="1"/>
+      <c r="V94" s="1">
+        <v>9493</v>
+      </c>
+      <c r="W94" s="1"/>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>276</v>
       </c>
@@ -3504,8 +4281,13 @@
       </c>
       <c r="Q95" s="1"/>
       <c r="S95" s="1"/>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U95" s="1"/>
+      <c r="V95" s="1">
+        <v>5936</v>
+      </c>
+      <c r="W95" s="1"/>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>285</v>
       </c>
@@ -3531,8 +4313,13 @@
       </c>
       <c r="Q96" s="1"/>
       <c r="S96" s="1"/>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U96" s="1"/>
+      <c r="V96" s="1">
+        <v>894</v>
+      </c>
+      <c r="W96" s="1"/>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>338</v>
       </c>
@@ -3558,8 +4345,13 @@
       </c>
       <c r="Q97" s="1"/>
       <c r="S97" s="1"/>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U97" s="1"/>
+      <c r="V97" s="1">
+        <v>129</v>
+      </c>
+      <c r="W97" s="1"/>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>487</v>
       </c>
@@ -3585,8 +4377,13 @@
       </c>
       <c r="Q98" s="1"/>
       <c r="S98" s="1"/>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U98" s="1"/>
+      <c r="V98" s="1">
+        <v>196</v>
+      </c>
+      <c r="W98" s="1"/>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>1295</v>
       </c>
@@ -3612,8 +4409,13 @@
       </c>
       <c r="Q99" s="1"/>
       <c r="S99" s="1"/>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U99" s="1"/>
+      <c r="V99" s="1">
+        <v>2057</v>
+      </c>
+      <c r="W99" s="1"/>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>425</v>
       </c>
@@ -3639,8 +4441,13 @@
       </c>
       <c r="Q100" s="1"/>
       <c r="S100" s="1"/>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U100" s="1"/>
+      <c r="V100" s="1">
+        <v>990</v>
+      </c>
+      <c r="W100" s="1"/>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>1417</v>
       </c>
@@ -3666,8 +4473,13 @@
       </c>
       <c r="Q101" s="1"/>
       <c r="S101" s="1"/>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U101" s="1"/>
+      <c r="V101" s="1">
+        <v>2892</v>
+      </c>
+      <c r="W101" s="1"/>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>509</v>
       </c>
@@ -3693,8 +4505,13 @@
       </c>
       <c r="Q102" s="1"/>
       <c r="S102" s="1"/>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U102" s="1"/>
+      <c r="V102" s="1">
+        <v>1366</v>
+      </c>
+      <c r="W102" s="1"/>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>1044</v>
       </c>
@@ -3720,8 +4537,13 @@
       </c>
       <c r="Q103" s="1"/>
       <c r="S103" s="1"/>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U103" s="1"/>
+      <c r="V103" s="1">
+        <v>1838</v>
+      </c>
+      <c r="W103" s="1"/>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>1279</v>
       </c>
@@ -3747,8 +4569,13 @@
       </c>
       <c r="Q104" s="1"/>
       <c r="S104" s="1"/>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U104" s="1"/>
+      <c r="V104" s="1">
+        <v>292</v>
+      </c>
+      <c r="W104" s="1"/>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>3877</v>
       </c>
@@ -3774,8 +4601,10 @@
       </c>
       <c r="Q105" s="1"/>
       <c r="S105" s="1"/>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U105" s="1"/>
+      <c r="W105" s="1"/>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>589</v>
       </c>
@@ -3801,8 +4630,10 @@
       </c>
       <c r="Q106" s="1"/>
       <c r="S106" s="1"/>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U106" s="1"/>
+      <c r="W106" s="1"/>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>127</v>
       </c>
@@ -3828,8 +4659,10 @@
       </c>
       <c r="Q107" s="1"/>
       <c r="S107" s="1"/>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U107" s="1"/>
+      <c r="W107" s="1"/>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>560</v>
       </c>
@@ -3855,8 +4688,10 @@
       </c>
       <c r="Q108" s="1"/>
       <c r="S108" s="1"/>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U108" s="1"/>
+      <c r="W108" s="1"/>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>955</v>
       </c>
@@ -3882,8 +4717,10 @@
       </c>
       <c r="Q109" s="1"/>
       <c r="S109" s="1"/>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U109" s="1"/>
+      <c r="W109" s="1"/>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>1736</v>
       </c>
@@ -3909,8 +4746,10 @@
       </c>
       <c r="Q110" s="1"/>
       <c r="S110" s="1"/>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U110" s="1"/>
+      <c r="W110" s="1"/>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>1299</v>
       </c>
@@ -3936,8 +4775,10 @@
       </c>
       <c r="Q111" s="1"/>
       <c r="S111" s="1"/>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U111" s="1"/>
+      <c r="W111" s="1"/>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>2793</v>
       </c>
@@ -3963,8 +4804,10 @@
       </c>
       <c r="Q112" s="1"/>
       <c r="S112" s="1"/>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U112" s="1"/>
+      <c r="W112" s="1"/>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>1043</v>
       </c>
@@ -3990,8 +4833,10 @@
       </c>
       <c r="Q113" s="1"/>
       <c r="S113" s="1"/>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U113" s="1"/>
+      <c r="W113" s="1"/>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>279</v>
       </c>
@@ -4017,8 +4862,10 @@
       </c>
       <c r="Q114" s="1"/>
       <c r="S114" s="1"/>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U114" s="1"/>
+      <c r="W114" s="1"/>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>919</v>
       </c>
@@ -4044,8 +4891,10 @@
       </c>
       <c r="Q115" s="1"/>
       <c r="S115" s="1"/>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U115" s="1"/>
+      <c r="W115" s="1"/>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>1788</v>
       </c>
@@ -4071,8 +4920,10 @@
       </c>
       <c r="Q116" s="1"/>
       <c r="S116" s="1"/>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U116" s="1"/>
+      <c r="W116" s="1"/>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>749</v>
       </c>
@@ -4098,8 +4949,10 @@
       </c>
       <c r="Q117" s="1"/>
       <c r="S117" s="1"/>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U117" s="1"/>
+      <c r="W117" s="1"/>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>473</v>
       </c>
@@ -4125,8 +4978,10 @@
       </c>
       <c r="Q118" s="1"/>
       <c r="S118" s="1"/>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U118" s="1"/>
+      <c r="W118" s="1"/>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>967</v>
       </c>
@@ -4152,8 +5007,10 @@
       </c>
       <c r="Q119" s="1"/>
       <c r="S119" s="1"/>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U119" s="1"/>
+      <c r="W119" s="1"/>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>477</v>
       </c>
@@ -4179,8 +5036,10 @@
       </c>
       <c r="Q120" s="1"/>
       <c r="S120" s="1"/>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U120" s="1"/>
+      <c r="W120" s="1"/>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>708</v>
       </c>
@@ -4206,8 +5065,10 @@
       </c>
       <c r="Q121" s="1"/>
       <c r="S121" s="1"/>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U121" s="1"/>
+      <c r="W121" s="1"/>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>404</v>
       </c>
@@ -4233,8 +5094,10 @@
       </c>
       <c r="Q122" s="1"/>
       <c r="S122" s="1"/>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U122" s="1"/>
+      <c r="W122" s="1"/>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>588</v>
       </c>
@@ -4260,8 +5123,10 @@
       </c>
       <c r="Q123" s="1"/>
       <c r="S123" s="1"/>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U123" s="1"/>
+      <c r="W123" s="1"/>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>208</v>
       </c>
@@ -4287,8 +5152,10 @@
       </c>
       <c r="Q124" s="1"/>
       <c r="S124" s="1"/>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U124" s="1"/>
+      <c r="W124" s="1"/>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>569</v>
       </c>
@@ -4314,8 +5181,10 @@
       </c>
       <c r="Q125" s="1"/>
       <c r="S125" s="1"/>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U125" s="1"/>
+      <c r="W125" s="1"/>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>247</v>
       </c>
@@ -4341,8 +5210,10 @@
       </c>
       <c r="Q126" s="1"/>
       <c r="S126" s="1"/>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U126" s="1"/>
+      <c r="W126" s="1"/>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>894</v>
       </c>
@@ -4368,8 +5239,10 @@
       </c>
       <c r="Q127" s="1"/>
       <c r="S127" s="1"/>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U127" s="1"/>
+      <c r="W127" s="1"/>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>1920</v>
       </c>
@@ -4395,8 +5268,10 @@
       </c>
       <c r="Q128" s="1"/>
       <c r="S128" s="1"/>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U128" s="1"/>
+      <c r="W128" s="1"/>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>375</v>
       </c>
@@ -4422,8 +5297,10 @@
       </c>
       <c r="Q129" s="1"/>
       <c r="S129" s="1"/>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U129" s="1"/>
+      <c r="W129" s="1"/>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>948</v>
       </c>
@@ -4449,8 +5326,10 @@
       </c>
       <c r="Q130" s="1"/>
       <c r="S130" s="1"/>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U130" s="1"/>
+      <c r="W130" s="1"/>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>1303</v>
       </c>
@@ -4476,8 +5355,10 @@
       </c>
       <c r="Q131" s="1"/>
       <c r="S131" s="1"/>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U131" s="1"/>
+      <c r="W131" s="1"/>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>449</v>
       </c>
@@ -4503,8 +5384,10 @@
       </c>
       <c r="Q132" s="1"/>
       <c r="S132" s="1"/>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U132" s="1"/>
+      <c r="W132" s="1"/>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>1214</v>
       </c>
@@ -4530,8 +5413,10 @@
       </c>
       <c r="Q133" s="1"/>
       <c r="S133" s="1"/>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U133" s="1"/>
+      <c r="W133" s="1"/>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>348</v>
       </c>
@@ -4557,8 +5442,10 @@
       </c>
       <c r="Q134" s="1"/>
       <c r="S134" s="1"/>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U134" s="1"/>
+      <c r="W134" s="1"/>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>511</v>
       </c>
@@ -4584,8 +5471,10 @@
       </c>
       <c r="Q135" s="1"/>
       <c r="S135" s="1"/>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U135" s="1"/>
+      <c r="W135" s="1"/>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>1490</v>
       </c>
@@ -4611,8 +5500,10 @@
       </c>
       <c r="Q136" s="1"/>
       <c r="S136" s="1"/>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U136" s="1"/>
+      <c r="W136" s="1"/>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>213</v>
       </c>
@@ -4638,8 +5529,10 @@
       </c>
       <c r="Q137" s="1"/>
       <c r="S137" s="1"/>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U137" s="1"/>
+      <c r="W137" s="1"/>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>810</v>
       </c>
@@ -4665,8 +5558,10 @@
       </c>
       <c r="Q138" s="1"/>
       <c r="S138" s="1"/>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U138" s="1"/>
+      <c r="W138" s="1"/>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>2612</v>
       </c>
@@ -4692,8 +5587,10 @@
       </c>
       <c r="Q139" s="1"/>
       <c r="S139" s="1"/>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U139" s="1"/>
+      <c r="W139" s="1"/>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>289</v>
       </c>
@@ -4719,8 +5616,10 @@
       </c>
       <c r="Q140" s="1"/>
       <c r="S140" s="1"/>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U140" s="1"/>
+      <c r="W140" s="1"/>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>1190</v>
       </c>
@@ -4746,8 +5645,10 @@
       </c>
       <c r="Q141" s="1"/>
       <c r="S141" s="1"/>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U141" s="1"/>
+      <c r="W141" s="1"/>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>449</v>
       </c>
@@ -4773,8 +5674,10 @@
       </c>
       <c r="Q142" s="1"/>
       <c r="S142" s="1"/>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U142" s="1"/>
+      <c r="W142" s="1"/>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>444</v>
       </c>
@@ -4800,8 +5703,10 @@
       </c>
       <c r="Q143" s="1"/>
       <c r="S143" s="1"/>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U143" s="1"/>
+      <c r="W143" s="1"/>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>203</v>
       </c>
@@ -4827,8 +5732,10 @@
       </c>
       <c r="Q144" s="1"/>
       <c r="S144" s="1"/>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U144" s="1"/>
+      <c r="W144" s="1"/>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>2208</v>
       </c>
@@ -4854,8 +5761,10 @@
       </c>
       <c r="Q145" s="1"/>
       <c r="S145" s="1"/>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U145" s="1"/>
+      <c r="W145" s="1"/>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>695</v>
       </c>
@@ -4881,8 +5790,10 @@
       </c>
       <c r="Q146" s="1"/>
       <c r="S146" s="1"/>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U146" s="1"/>
+      <c r="W146" s="1"/>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>694</v>
       </c>
@@ -4908,8 +5819,10 @@
       </c>
       <c r="Q147" s="1"/>
       <c r="S147" s="1"/>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U147" s="1"/>
+      <c r="W147" s="1"/>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>418</v>
       </c>
@@ -4935,8 +5848,10 @@
       </c>
       <c r="Q148" s="1"/>
       <c r="S148" s="1"/>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U148" s="1"/>
+      <c r="W148" s="1"/>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>250</v>
       </c>
@@ -4962,8 +5877,10 @@
       </c>
       <c r="Q149" s="1"/>
       <c r="S149" s="1"/>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U149" s="1"/>
+      <c r="W149" s="1"/>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>678</v>
       </c>
@@ -4989,8 +5906,10 @@
       </c>
       <c r="Q150" s="1"/>
       <c r="S150" s="1"/>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U150" s="1"/>
+      <c r="W150" s="1"/>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>174</v>
       </c>
@@ -5016,8 +5935,10 @@
       </c>
       <c r="Q151" s="1"/>
       <c r="S151" s="1"/>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U151" s="1"/>
+      <c r="W151" s="1"/>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>359</v>
       </c>
@@ -5043,8 +5964,10 @@
       </c>
       <c r="Q152" s="1"/>
       <c r="S152" s="1"/>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U152" s="1"/>
+      <c r="W152" s="1"/>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>847</v>
       </c>
@@ -5070,8 +5993,10 @@
       </c>
       <c r="Q153" s="1"/>
       <c r="S153" s="1"/>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U153" s="1"/>
+      <c r="W153" s="1"/>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>864</v>
       </c>
@@ -5097,8 +6022,10 @@
       </c>
       <c r="Q154" s="1"/>
       <c r="S154" s="1"/>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U154" s="1"/>
+      <c r="W154" s="1"/>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>1672</v>
       </c>
@@ -5124,8 +6051,10 @@
       </c>
       <c r="Q155" s="1"/>
       <c r="S155" s="1"/>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U155" s="1"/>
+      <c r="W155" s="1"/>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>426</v>
       </c>
@@ -5151,8 +6080,10 @@
       </c>
       <c r="Q156" s="1"/>
       <c r="S156" s="1"/>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U156" s="1"/>
+      <c r="W156" s="1"/>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>1095</v>
       </c>
@@ -5178,8 +6109,10 @@
       </c>
       <c r="Q157" s="1"/>
       <c r="S157" s="1"/>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U157" s="1"/>
+      <c r="W157" s="1"/>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>227</v>
       </c>
@@ -5205,8 +6138,10 @@
       </c>
       <c r="Q158" s="1"/>
       <c r="S158" s="1"/>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U158" s="1"/>
+      <c r="W158" s="1"/>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>1271</v>
       </c>
@@ -5232,8 +6167,10 @@
       </c>
       <c r="Q159" s="1"/>
       <c r="S159" s="1"/>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U159" s="1"/>
+      <c r="W159" s="1"/>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>1468</v>
       </c>
@@ -5259,8 +6196,10 @@
       </c>
       <c r="Q160" s="1"/>
       <c r="S160" s="1"/>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U160" s="1"/>
+      <c r="W160" s="1"/>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>389</v>
       </c>
@@ -5286,8 +6225,10 @@
       </c>
       <c r="Q161" s="1"/>
       <c r="S161" s="1"/>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U161" s="1"/>
+      <c r="W161" s="1"/>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>863</v>
       </c>
@@ -5313,8 +6254,10 @@
       </c>
       <c r="Q162" s="1"/>
       <c r="S162" s="1"/>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U162" s="1"/>
+      <c r="W162" s="1"/>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>645</v>
       </c>
@@ -5340,8 +6283,10 @@
       </c>
       <c r="Q163" s="1"/>
       <c r="S163" s="1"/>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U163" s="1"/>
+      <c r="W163" s="1"/>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>153</v>
       </c>
@@ -5367,8 +6312,10 @@
       </c>
       <c r="Q164" s="1"/>
       <c r="S164" s="1"/>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U164" s="1"/>
+      <c r="W164" s="1"/>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>199</v>
       </c>
@@ -5394,8 +6341,10 @@
       </c>
       <c r="Q165" s="1"/>
       <c r="S165" s="1"/>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U165" s="1"/>
+      <c r="W165" s="1"/>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>1259</v>
       </c>
@@ -5421,8 +6370,10 @@
       </c>
       <c r="Q166" s="1"/>
       <c r="S166" s="1"/>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U166" s="1"/>
+      <c r="W166" s="1"/>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>307</v>
       </c>
@@ -5448,8 +6399,10 @@
       </c>
       <c r="Q167" s="1"/>
       <c r="S167" s="1"/>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U167" s="1"/>
+      <c r="W167" s="1"/>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>634</v>
       </c>
@@ -5475,8 +6428,10 @@
       </c>
       <c r="Q168" s="1"/>
       <c r="S168" s="1"/>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U168" s="1"/>
+      <c r="W168" s="1"/>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>1174</v>
       </c>
@@ -5502,8 +6457,10 @@
       </c>
       <c r="Q169" s="1"/>
       <c r="S169" s="1"/>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U169" s="1"/>
+      <c r="W169" s="1"/>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>263</v>
       </c>
@@ -5529,8 +6486,10 @@
       </c>
       <c r="Q170" s="1"/>
       <c r="S170" s="1"/>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U170" s="1"/>
+      <c r="W170" s="1"/>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>311</v>
       </c>
@@ -5556,8 +6515,10 @@
       </c>
       <c r="Q171" s="1"/>
       <c r="S171" s="1"/>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U171" s="1"/>
+      <c r="W171" s="1"/>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>256</v>
       </c>
@@ -5583,8 +6544,10 @@
       </c>
       <c r="Q172" s="1"/>
       <c r="S172" s="1"/>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U172" s="1"/>
+      <c r="W172" s="1"/>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>393</v>
       </c>
@@ -5610,8 +6573,10 @@
       </c>
       <c r="Q173" s="1"/>
       <c r="S173" s="1"/>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U173" s="1"/>
+      <c r="W173" s="1"/>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>124</v>
       </c>
@@ -5637,8 +6602,10 @@
       </c>
       <c r="Q174" s="1"/>
       <c r="S174" s="1"/>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U174" s="1"/>
+      <c r="W174" s="1"/>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>1383</v>
       </c>
@@ -5664,8 +6631,10 @@
       </c>
       <c r="Q175" s="1"/>
       <c r="S175" s="1"/>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U175" s="1"/>
+      <c r="W175" s="1"/>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>209</v>
       </c>
@@ -5691,8 +6660,10 @@
       </c>
       <c r="Q176" s="1"/>
       <c r="S176" s="1"/>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U176" s="1"/>
+      <c r="W176" s="1"/>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>561</v>
       </c>
@@ -5718,8 +6689,10 @@
       </c>
       <c r="Q177" s="1"/>
       <c r="S177" s="1"/>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U177" s="1"/>
+      <c r="W177" s="1"/>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>1354</v>
       </c>
@@ -5745,8 +6718,10 @@
       </c>
       <c r="Q178" s="1"/>
       <c r="S178" s="1"/>
-    </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U178" s="1"/>
+      <c r="W178" s="1"/>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>1370</v>
       </c>
@@ -5772,8 +6747,10 @@
       </c>
       <c r="Q179" s="1"/>
       <c r="S179" s="1"/>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U179" s="1"/>
+      <c r="W179" s="1"/>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>351</v>
       </c>
@@ -5799,8 +6776,10 @@
       </c>
       <c r="Q180" s="1"/>
       <c r="S180" s="1"/>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U180" s="1"/>
+      <c r="W180" s="1"/>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>5442</v>
       </c>
@@ -5826,8 +6805,10 @@
       </c>
       <c r="Q181" s="1"/>
       <c r="S181" s="1"/>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U181" s="1"/>
+      <c r="W181" s="1"/>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>1373</v>
       </c>
@@ -5853,8 +6834,10 @@
       </c>
       <c r="Q182" s="1"/>
       <c r="S182" s="1"/>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U182" s="1"/>
+      <c r="W182" s="1"/>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>406</v>
       </c>
@@ -5880,8 +6863,10 @@
       </c>
       <c r="Q183" s="1"/>
       <c r="S183" s="1"/>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U183" s="1"/>
+      <c r="W183" s="1"/>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>193</v>
       </c>
@@ -5907,8 +6892,10 @@
       </c>
       <c r="Q184" s="1"/>
       <c r="S184" s="1"/>
-    </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U184" s="1"/>
+      <c r="W184" s="1"/>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>408</v>
       </c>
@@ -5934,8 +6921,10 @@
       </c>
       <c r="Q185" s="1"/>
       <c r="S185" s="1"/>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U185" s="1"/>
+      <c r="W185" s="1"/>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>117</v>
       </c>
@@ -5961,8 +6950,10 @@
       </c>
       <c r="Q186" s="1"/>
       <c r="S186" s="1"/>
-    </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U186" s="1"/>
+      <c r="W186" s="1"/>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>651</v>
       </c>
@@ -5988,8 +6979,10 @@
       </c>
       <c r="Q187" s="1"/>
       <c r="S187" s="1"/>
-    </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U187" s="1"/>
+      <c r="W187" s="1"/>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>1422</v>
       </c>
@@ -6015,8 +7008,10 @@
       </c>
       <c r="Q188" s="1"/>
       <c r="S188" s="1"/>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U188" s="1"/>
+      <c r="W188" s="1"/>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>352</v>
       </c>
@@ -6042,8 +7037,10 @@
       </c>
       <c r="Q189" s="1"/>
       <c r="S189" s="1"/>
-    </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U189" s="1"/>
+      <c r="W189" s="1"/>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>1625</v>
       </c>
@@ -6069,8 +7066,10 @@
       </c>
       <c r="Q190" s="1"/>
       <c r="S190" s="1"/>
-    </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U190" s="1"/>
+      <c r="W190" s="1"/>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>324</v>
       </c>
@@ -6096,8 +7095,10 @@
       </c>
       <c r="Q191" s="1"/>
       <c r="S191" s="1"/>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U191" s="1"/>
+      <c r="W191" s="1"/>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>1455</v>
       </c>
@@ -6123,8 +7124,10 @@
       </c>
       <c r="Q192" s="1"/>
       <c r="S192" s="1"/>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U192" s="1"/>
+      <c r="W192" s="1"/>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>538</v>
       </c>
@@ -6150,8 +7153,10 @@
       </c>
       <c r="Q193" s="1"/>
       <c r="S193" s="1"/>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U193" s="1"/>
+      <c r="W193" s="1"/>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>345</v>
       </c>
@@ -6177,8 +7182,10 @@
       </c>
       <c r="Q194" s="1"/>
       <c r="S194" s="1"/>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U194" s="1"/>
+      <c r="W194" s="1"/>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>220</v>
       </c>
@@ -6204,8 +7211,10 @@
       </c>
       <c r="Q195" s="1"/>
       <c r="S195" s="1"/>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U195" s="1"/>
+      <c r="W195" s="1"/>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>278</v>
       </c>
@@ -6231,8 +7240,10 @@
       </c>
       <c r="Q196" s="1"/>
       <c r="S196" s="1"/>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U196" s="1"/>
+      <c r="W196" s="1"/>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>2241</v>
       </c>
@@ -6258,8 +7269,10 @@
       </c>
       <c r="Q197" s="1"/>
       <c r="S197" s="1"/>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U197" s="1"/>
+      <c r="W197" s="1"/>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>110</v>
       </c>
@@ -6285,8 +7298,10 @@
       </c>
       <c r="Q198" s="1"/>
       <c r="S198" s="1"/>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U198" s="1"/>
+      <c r="W198" s="1"/>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>957</v>
       </c>
@@ -6312,8 +7327,10 @@
       </c>
       <c r="Q199" s="1"/>
       <c r="S199" s="1"/>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U199" s="1"/>
+      <c r="W199" s="1"/>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>221</v>
       </c>
@@ -6339,8 +7356,10 @@
       </c>
       <c r="Q200" s="1"/>
       <c r="S200" s="1"/>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U200" s="1"/>
+      <c r="W200" s="1"/>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>194</v>
       </c>
@@ -6366,8 +7385,10 @@
       </c>
       <c r="Q201" s="1"/>
       <c r="S201" s="1"/>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U201" s="1"/>
+      <c r="W201" s="1"/>
+    </row>
+    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>2117</v>
       </c>
@@ -6393,8 +7414,10 @@
       </c>
       <c r="Q202" s="1"/>
       <c r="S202" s="1"/>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U202" s="1"/>
+      <c r="W202" s="1"/>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>353</v>
       </c>
@@ -6420,8 +7443,10 @@
       </c>
       <c r="Q203" s="1"/>
       <c r="S203" s="1"/>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U203" s="1"/>
+      <c r="W203" s="1"/>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>618</v>
       </c>
@@ -6447,8 +7472,10 @@
       </c>
       <c r="Q204" s="1"/>
       <c r="S204" s="1"/>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U204" s="1"/>
+      <c r="W204" s="1"/>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>1984</v>
       </c>
@@ -6474,8 +7501,10 @@
       </c>
       <c r="Q205" s="1"/>
       <c r="S205" s="1"/>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U205" s="1"/>
+      <c r="W205" s="1"/>
+    </row>
+    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>601</v>
       </c>
@@ -6501,8 +7530,10 @@
       </c>
       <c r="Q206" s="1"/>
       <c r="S206" s="1"/>
-    </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U206" s="1"/>
+      <c r="W206" s="1"/>
+    </row>
+    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>365</v>
       </c>
@@ -6528,8 +7559,10 @@
       </c>
       <c r="Q207" s="1"/>
       <c r="S207" s="1"/>
-    </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U207" s="1"/>
+      <c r="W207" s="1"/>
+    </row>
+    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>2202</v>
       </c>
@@ -6555,8 +7588,10 @@
       </c>
       <c r="Q208" s="1"/>
       <c r="S208" s="1"/>
-    </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U208" s="1"/>
+      <c r="W208" s="1"/>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>461</v>
       </c>
@@ -6582,8 +7617,10 @@
       </c>
       <c r="Q209" s="1"/>
       <c r="S209" s="1"/>
-    </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U209" s="1"/>
+      <c r="W209" s="1"/>
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>166</v>
       </c>
@@ -6609,8 +7646,10 @@
       </c>
       <c r="Q210" s="1"/>
       <c r="S210" s="1"/>
-    </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U210" s="1"/>
+      <c r="W210" s="1"/>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>106</v>
       </c>
@@ -6636,8 +7675,10 @@
       </c>
       <c r="Q211" s="1"/>
       <c r="S211" s="1"/>
-    </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U211" s="1"/>
+      <c r="W211" s="1"/>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>349</v>
       </c>
@@ -6663,8 +7704,10 @@
       </c>
       <c r="Q212" s="1"/>
       <c r="S212" s="1"/>
-    </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U212" s="1"/>
+      <c r="W212" s="1"/>
+    </row>
+    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>282</v>
       </c>
@@ -6690,8 +7733,10 @@
       </c>
       <c r="Q213" s="1"/>
       <c r="S213" s="1"/>
-    </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U213" s="1"/>
+      <c r="W213" s="1"/>
+    </row>
+    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>472</v>
       </c>
@@ -6717,8 +7762,10 @@
       </c>
       <c r="Q214" s="1"/>
       <c r="S214" s="1"/>
-    </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U214" s="1"/>
+      <c r="W214" s="1"/>
+    </row>
+    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>457</v>
       </c>
@@ -6744,8 +7791,10 @@
       </c>
       <c r="Q215" s="1"/>
       <c r="S215" s="1"/>
-    </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U215" s="1"/>
+      <c r="W215" s="1"/>
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>2395</v>
       </c>
@@ -6771,8 +7820,10 @@
       </c>
       <c r="Q216" s="1"/>
       <c r="S216" s="1"/>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U216" s="1"/>
+      <c r="W216" s="1"/>
+    </row>
+    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>813</v>
       </c>
@@ -6798,8 +7849,10 @@
       </c>
       <c r="Q217" s="1"/>
       <c r="S217" s="1"/>
-    </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U217" s="1"/>
+      <c r="W217" s="1"/>
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>1681</v>
       </c>
@@ -6825,8 +7878,10 @@
       </c>
       <c r="Q218" s="1"/>
       <c r="S218" s="1"/>
-    </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U218" s="1"/>
+      <c r="W218" s="1"/>
+    </row>
+    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>502</v>
       </c>
@@ -6852,8 +7907,10 @@
       </c>
       <c r="Q219" s="1"/>
       <c r="S219" s="1"/>
-    </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U219" s="1"/>
+      <c r="W219" s="1"/>
+    </row>
+    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>412</v>
       </c>
@@ -6879,8 +7936,10 @@
       </c>
       <c r="Q220" s="1"/>
       <c r="S220" s="1"/>
-    </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U220" s="1"/>
+      <c r="W220" s="1"/>
+    </row>
+    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>1087</v>
       </c>
@@ -6906,8 +7965,10 @@
       </c>
       <c r="Q221" s="1"/>
       <c r="S221" s="1"/>
-    </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U221" s="1"/>
+      <c r="W221" s="1"/>
+    </row>
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>1292</v>
       </c>
@@ -6933,8 +7994,10 @@
       </c>
       <c r="Q222" s="1"/>
       <c r="S222" s="1"/>
-    </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U222" s="1"/>
+      <c r="W222" s="1"/>
+    </row>
+    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>2020</v>
       </c>
@@ -6960,8 +8023,10 @@
       </c>
       <c r="Q223" s="1"/>
       <c r="S223" s="1"/>
-    </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U223" s="1"/>
+      <c r="W223" s="1"/>
+    </row>
+    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>225</v>
       </c>
@@ -6987,8 +8052,10 @@
       </c>
       <c r="Q224" s="1"/>
       <c r="S224" s="1"/>
-    </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U224" s="1"/>
+      <c r="W224" s="1"/>
+    </row>
+    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>1638</v>
       </c>
@@ -7014,8 +8081,10 @@
       </c>
       <c r="Q225" s="1"/>
       <c r="S225" s="1"/>
-    </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U225" s="1"/>
+      <c r="W225" s="1"/>
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>1020</v>
       </c>
@@ -7041,8 +8110,10 @@
       </c>
       <c r="Q226" s="1"/>
       <c r="S226" s="1"/>
-    </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U226" s="1"/>
+      <c r="W226" s="1"/>
+    </row>
+    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>936</v>
       </c>
@@ -7068,8 +8139,10 @@
       </c>
       <c r="Q227" s="1"/>
       <c r="S227" s="1"/>
-    </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U227" s="1"/>
+      <c r="W227" s="1"/>
+    </row>
+    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>708</v>
       </c>
@@ -7095,8 +8168,10 @@
       </c>
       <c r="Q228" s="1"/>
       <c r="S228" s="1"/>
-    </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U228" s="1"/>
+      <c r="W228" s="1"/>
+    </row>
+    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>261</v>
       </c>
@@ -7122,8 +8197,10 @@
       </c>
       <c r="Q229" s="1"/>
       <c r="S229" s="1"/>
-    </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U229" s="1"/>
+      <c r="W229" s="1"/>
+    </row>
+    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>150</v>
       </c>
@@ -7149,8 +8226,10 @@
       </c>
       <c r="Q230" s="1"/>
       <c r="S230" s="1"/>
-    </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U230" s="1"/>
+      <c r="W230" s="1"/>
+    </row>
+    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>282</v>
       </c>
@@ -7176,8 +8255,10 @@
       </c>
       <c r="Q231" s="1"/>
       <c r="S231" s="1"/>
-    </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U231" s="1"/>
+      <c r="W231" s="1"/>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>1313</v>
       </c>
@@ -7203,8 +8284,10 @@
       </c>
       <c r="Q232" s="1"/>
       <c r="S232" s="1"/>
-    </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U232" s="1"/>
+      <c r="W232" s="1"/>
+    </row>
+    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>1603</v>
       </c>
@@ -7230,8 +8313,10 @@
       </c>
       <c r="Q233" s="1"/>
       <c r="S233" s="1"/>
-    </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U233" s="1"/>
+      <c r="W233" s="1"/>
+    </row>
+    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>898</v>
       </c>
@@ -7257,8 +8342,10 @@
       </c>
       <c r="Q234" s="1"/>
       <c r="S234" s="1"/>
-    </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U234" s="1"/>
+      <c r="W234" s="1"/>
+    </row>
+    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>290</v>
       </c>
@@ -7284,8 +8371,10 @@
       </c>
       <c r="Q235" s="1"/>
       <c r="S235" s="1"/>
-    </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U235" s="1"/>
+      <c r="W235" s="1"/>
+    </row>
+    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>343</v>
       </c>
@@ -7311,8 +8400,10 @@
       </c>
       <c r="Q236" s="1"/>
       <c r="S236" s="1"/>
-    </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U236" s="1"/>
+      <c r="W236" s="1"/>
+    </row>
+    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>2031</v>
       </c>
@@ -7338,8 +8429,10 @@
       </c>
       <c r="Q237" s="1"/>
       <c r="S237" s="1"/>
-    </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U237" s="1"/>
+      <c r="W237" s="1"/>
+    </row>
+    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>409</v>
       </c>
@@ -7365,8 +8458,10 @@
       </c>
       <c r="Q238" s="1"/>
       <c r="S238" s="1"/>
-    </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U238" s="1"/>
+      <c r="W238" s="1"/>
+    </row>
+    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>786</v>
       </c>
@@ -7392,8 +8487,10 @@
       </c>
       <c r="Q239" s="1"/>
       <c r="S239" s="1"/>
-    </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U239" s="1"/>
+      <c r="W239" s="1"/>
+    </row>
+    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>839</v>
       </c>
@@ -7419,8 +8516,10 @@
       </c>
       <c r="Q240" s="1"/>
       <c r="S240" s="1"/>
-    </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U240" s="1"/>
+      <c r="W240" s="1"/>
+    </row>
+    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>3374</v>
       </c>
@@ -7446,8 +8545,10 @@
       </c>
       <c r="Q241" s="1"/>
       <c r="S241" s="1"/>
-    </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U241" s="1"/>
+      <c r="W241" s="1"/>
+    </row>
+    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>627</v>
       </c>
@@ -7473,8 +8574,10 @@
       </c>
       <c r="Q242" s="1"/>
       <c r="S242" s="1"/>
-    </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U242" s="1"/>
+      <c r="W242" s="1"/>
+    </row>
+    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>488</v>
       </c>
@@ -7500,8 +8603,10 @@
       </c>
       <c r="Q243" s="1"/>
       <c r="S243" s="1"/>
-    </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U243" s="1"/>
+      <c r="W243" s="1"/>
+    </row>
+    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>166</v>
       </c>
@@ -7527,8 +8632,10 @@
       </c>
       <c r="Q244" s="1"/>
       <c r="S244" s="1"/>
-    </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U244" s="1"/>
+      <c r="W244" s="1"/>
+    </row>
+    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>1297</v>
       </c>
@@ -7554,8 +8661,10 @@
       </c>
       <c r="Q245" s="1"/>
       <c r="S245" s="1"/>
-    </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U245" s="1"/>
+      <c r="W245" s="1"/>
+    </row>
+    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>720</v>
       </c>
@@ -7581,8 +8690,10 @@
       </c>
       <c r="Q246" s="1"/>
       <c r="S246" s="1"/>
-    </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U246" s="1"/>
+      <c r="W246" s="1"/>
+    </row>
+    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>704</v>
       </c>
@@ -7608,8 +8719,10 @@
       </c>
       <c r="Q247" s="1"/>
       <c r="S247" s="1"/>
-    </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U247" s="1"/>
+      <c r="W247" s="1"/>
+    </row>
+    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>149</v>
       </c>
@@ -7635,8 +8748,10 @@
       </c>
       <c r="Q248" s="1"/>
       <c r="S248" s="1"/>
-    </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U248" s="1"/>
+      <c r="W248" s="1"/>
+    </row>
+    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>384</v>
       </c>
@@ -7662,8 +8777,10 @@
       </c>
       <c r="Q249" s="1"/>
       <c r="S249" s="1"/>
-    </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U249" s="1"/>
+      <c r="W249" s="1"/>
+    </row>
+    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>628</v>
       </c>
@@ -7689,8 +8806,10 @@
       </c>
       <c r="Q250" s="1"/>
       <c r="S250" s="1"/>
-    </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U250" s="1"/>
+      <c r="W250" s="1"/>
+    </row>
+    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>1536</v>
       </c>
@@ -7716,8 +8835,10 @@
       </c>
       <c r="Q251" s="1"/>
       <c r="S251" s="1"/>
-    </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U251" s="1"/>
+      <c r="W251" s="1"/>
+    </row>
+    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>1736</v>
       </c>
@@ -7743,8 +8864,10 @@
       </c>
       <c r="Q252" s="1"/>
       <c r="S252" s="1"/>
-    </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U252" s="1"/>
+      <c r="W252" s="1"/>
+    </row>
+    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>2841</v>
       </c>
@@ -7770,8 +8893,10 @@
       </c>
       <c r="Q253" s="1"/>
       <c r="S253" s="1"/>
-    </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U253" s="1"/>
+      <c r="W253" s="1"/>
+    </row>
+    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>132</v>
       </c>
@@ -7797,8 +8922,10 @@
       </c>
       <c r="Q254" s="1"/>
       <c r="S254" s="1"/>
-    </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U254" s="1"/>
+      <c r="W254" s="1"/>
+    </row>
+    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>347</v>
       </c>
@@ -7824,8 +8951,10 @@
       </c>
       <c r="Q255" s="1"/>
       <c r="S255" s="1"/>
-    </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U255" s="1"/>
+      <c r="W255" s="1"/>
+    </row>
+    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>756</v>
       </c>
@@ -7851,8 +8980,10 @@
       </c>
       <c r="Q256" s="1"/>
       <c r="S256" s="1"/>
-    </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U256" s="1"/>
+      <c r="W256" s="1"/>
+    </row>
+    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>519</v>
       </c>
@@ -7878,8 +9009,10 @@
       </c>
       <c r="Q257" s="1"/>
       <c r="S257" s="1"/>
-    </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U257" s="1"/>
+      <c r="W257" s="1"/>
+    </row>
+    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>298</v>
       </c>
@@ -7905,8 +9038,10 @@
       </c>
       <c r="Q258" s="1"/>
       <c r="S258" s="1"/>
-    </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U258" s="1"/>
+      <c r="W258" s="1"/>
+    </row>
+    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>384</v>
       </c>
@@ -7932,8 +9067,10 @@
       </c>
       <c r="Q259" s="1"/>
       <c r="S259" s="1"/>
-    </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U259" s="1"/>
+      <c r="W259" s="1"/>
+    </row>
+    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>455</v>
       </c>
@@ -7959,8 +9096,10 @@
       </c>
       <c r="Q260" s="1"/>
       <c r="S260" s="1"/>
-    </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U260" s="1"/>
+      <c r="W260" s="1"/>
+    </row>
+    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>401</v>
       </c>
@@ -7986,8 +9125,10 @@
       </c>
       <c r="Q261" s="1"/>
       <c r="S261" s="1"/>
-    </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U261" s="1"/>
+      <c r="W261" s="1"/>
+    </row>
+    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>161</v>
       </c>
@@ -8013,8 +9154,10 @@
       </c>
       <c r="Q262" s="1"/>
       <c r="S262" s="1"/>
-    </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U262" s="1"/>
+      <c r="W262" s="1"/>
+    </row>
+    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>680</v>
       </c>
@@ -8040,8 +9183,10 @@
       </c>
       <c r="Q263" s="1"/>
       <c r="S263" s="1"/>
-    </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U263" s="1"/>
+      <c r="W263" s="1"/>
+    </row>
+    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>378</v>
       </c>
@@ -8067,8 +9212,10 @@
       </c>
       <c r="Q264" s="1"/>
       <c r="S264" s="1"/>
-    </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U264" s="1"/>
+      <c r="W264" s="1"/>
+    </row>
+    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>1078</v>
       </c>
@@ -8094,8 +9241,10 @@
       </c>
       <c r="Q265" s="1"/>
       <c r="S265" s="1"/>
-    </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U265" s="1"/>
+      <c r="W265" s="1"/>
+    </row>
+    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>1595</v>
       </c>
@@ -8121,8 +9270,10 @@
       </c>
       <c r="Q266" s="1"/>
       <c r="S266" s="1"/>
-    </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U266" s="1"/>
+      <c r="W266" s="1"/>
+    </row>
+    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>163</v>
       </c>
@@ -8148,8 +9299,10 @@
       </c>
       <c r="Q267" s="1"/>
       <c r="S267" s="1"/>
-    </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U267" s="1"/>
+      <c r="W267" s="1"/>
+    </row>
+    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>291</v>
       </c>
@@ -8175,8 +9328,10 @@
       </c>
       <c r="Q268" s="1"/>
       <c r="S268" s="1"/>
-    </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U268" s="1"/>
+      <c r="W268" s="1"/>
+    </row>
+    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>3323</v>
       </c>
@@ -8202,8 +9357,10 @@
       </c>
       <c r="Q269" s="1"/>
       <c r="S269" s="1"/>
-    </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U269" s="1"/>
+      <c r="W269" s="1"/>
+    </row>
+    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>894</v>
       </c>
@@ -8229,8 +9386,10 @@
       </c>
       <c r="Q270" s="1"/>
       <c r="S270" s="1"/>
-    </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U270" s="1"/>
+      <c r="W270" s="1"/>
+    </row>
+    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>245</v>
       </c>
@@ -8256,8 +9415,10 @@
       </c>
       <c r="Q271" s="1"/>
       <c r="S271" s="1"/>
-    </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U271" s="1"/>
+      <c r="W271" s="1"/>
+    </row>
+    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>226</v>
       </c>
@@ -8283,8 +9444,10 @@
       </c>
       <c r="Q272" s="1"/>
       <c r="S272" s="1"/>
-    </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U272" s="1"/>
+      <c r="W272" s="1"/>
+    </row>
+    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>1177</v>
       </c>
@@ -8310,8 +9473,10 @@
       </c>
       <c r="Q273" s="1"/>
       <c r="S273" s="1"/>
-    </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U273" s="1"/>
+      <c r="W273" s="1"/>
+    </row>
+    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>547</v>
       </c>
@@ -8337,8 +9502,10 @@
       </c>
       <c r="Q274" s="1"/>
       <c r="S274" s="1"/>
-    </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U274" s="1"/>
+      <c r="W274" s="1"/>
+    </row>
+    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>214</v>
       </c>
@@ -8364,8 +9531,10 @@
       </c>
       <c r="Q275" s="1"/>
       <c r="S275" s="1"/>
-    </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U275" s="1"/>
+      <c r="W275" s="1"/>
+    </row>
+    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>182</v>
       </c>
@@ -8391,8 +9560,10 @@
       </c>
       <c r="Q276" s="1"/>
       <c r="S276" s="1"/>
-    </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U276" s="1"/>
+      <c r="W276" s="1"/>
+    </row>
+    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>2074</v>
       </c>
@@ -8418,8 +9589,10 @@
       </c>
       <c r="Q277" s="1"/>
       <c r="S277" s="1"/>
-    </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U277" s="1"/>
+      <c r="W277" s="1"/>
+    </row>
+    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>307</v>
       </c>
@@ -8445,8 +9618,10 @@
       </c>
       <c r="Q278" s="1"/>
       <c r="S278" s="1"/>
-    </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U278" s="1"/>
+      <c r="W278" s="1"/>
+    </row>
+    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>1043</v>
       </c>
@@ -8472,8 +9647,10 @@
       </c>
       <c r="Q279" s="1"/>
       <c r="S279" s="1"/>
-    </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U279" s="1"/>
+      <c r="W279" s="1"/>
+    </row>
+    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>687</v>
       </c>
@@ -8499,8 +9676,10 @@
       </c>
       <c r="Q280" s="1"/>
       <c r="S280" s="1"/>
-    </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U280" s="1"/>
+      <c r="W280" s="1"/>
+    </row>
+    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>718</v>
       </c>
@@ -8526,8 +9705,10 @@
       </c>
       <c r="Q281" s="1"/>
       <c r="S281" s="1"/>
-    </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U281" s="1"/>
+      <c r="W281" s="1"/>
+    </row>
+    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>571</v>
       </c>
@@ -8553,8 +9734,10 @@
       </c>
       <c r="Q282" s="1"/>
       <c r="S282" s="1"/>
-    </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U282" s="1"/>
+      <c r="W282" s="1"/>
+    </row>
+    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>1377</v>
       </c>
@@ -8580,8 +9763,10 @@
       </c>
       <c r="Q283" s="1"/>
       <c r="S283" s="1"/>
-    </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U283" s="1"/>
+      <c r="W283" s="1"/>
+    </row>
+    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>568</v>
       </c>
@@ -8607,8 +9792,10 @@
       </c>
       <c r="Q284" s="1"/>
       <c r="S284" s="1"/>
-    </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U284" s="1"/>
+      <c r="W284" s="1"/>
+    </row>
+    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>1150</v>
       </c>
@@ -8634,8 +9821,10 @@
       </c>
       <c r="Q285" s="1"/>
       <c r="S285" s="1"/>
-    </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U285" s="1"/>
+      <c r="W285" s="1"/>
+    </row>
+    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <v>170</v>
       </c>
@@ -8661,8 +9850,10 @@
       </c>
       <c r="Q286" s="1"/>
       <c r="S286" s="1"/>
-    </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U286" s="1"/>
+      <c r="W286" s="1"/>
+    </row>
+    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>2090</v>
       </c>
@@ -8688,8 +9879,10 @@
       </c>
       <c r="Q287" s="1"/>
       <c r="S287" s="1"/>
-    </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U287" s="1"/>
+      <c r="W287" s="1"/>
+    </row>
+    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>385</v>
       </c>
@@ -8715,8 +9908,10 @@
       </c>
       <c r="Q288" s="1"/>
       <c r="S288" s="1"/>
-    </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U288" s="1"/>
+      <c r="W288" s="1"/>
+    </row>
+    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>505</v>
       </c>
@@ -8742,8 +9937,10 @@
       </c>
       <c r="Q289" s="1"/>
       <c r="S289" s="1"/>
-    </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U289" s="1"/>
+      <c r="W289" s="1"/>
+    </row>
+    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <v>292</v>
       </c>
@@ -8769,8 +9966,10 @@
       </c>
       <c r="Q290" s="1"/>
       <c r="S290" s="1"/>
-    </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U290" s="1"/>
+      <c r="W290" s="1"/>
+    </row>
+    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>275</v>
       </c>
@@ -8796,8 +9995,10 @@
       </c>
       <c r="Q291" s="1"/>
       <c r="S291" s="1"/>
-    </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U291" s="1"/>
+      <c r="W291" s="1"/>
+    </row>
+    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <v>1209</v>
       </c>
@@ -8823,8 +10024,10 @@
       </c>
       <c r="Q292" s="1"/>
       <c r="S292" s="1"/>
-    </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U292" s="1"/>
+      <c r="W292" s="1"/>
+    </row>
+    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <v>377</v>
       </c>
@@ -8850,8 +10053,10 @@
       </c>
       <c r="Q293" s="1"/>
       <c r="S293" s="1"/>
-    </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U293" s="1"/>
+      <c r="W293" s="1"/>
+    </row>
+    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
         <v>477</v>
       </c>
@@ -8877,8 +10082,10 @@
       </c>
       <c r="Q294" s="1"/>
       <c r="S294" s="1"/>
-    </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U294" s="1"/>
+      <c r="W294" s="1"/>
+    </row>
+    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
         <v>174</v>
       </c>
@@ -8904,8 +10111,10 @@
       </c>
       <c r="Q295" s="1"/>
       <c r="S295" s="1"/>
-    </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U295" s="1"/>
+      <c r="W295" s="1"/>
+    </row>
+    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
         <v>240</v>
       </c>
@@ -8931,8 +10140,10 @@
       </c>
       <c r="Q296" s="1"/>
       <c r="S296" s="1"/>
-    </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U296" s="1"/>
+      <c r="W296" s="1"/>
+    </row>
+    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
         <v>1244</v>
       </c>
@@ -8958,8 +10169,10 @@
       </c>
       <c r="Q297" s="1"/>
       <c r="S297" s="1"/>
-    </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U297" s="1"/>
+      <c r="W297" s="1"/>
+    </row>
+    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
         <v>1127</v>
       </c>
@@ -8985,8 +10198,10 @@
       </c>
       <c r="Q298" s="1"/>
       <c r="S298" s="1"/>
-    </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U298" s="1"/>
+      <c r="W298" s="1"/>
+    </row>
+    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
         <v>2002</v>
       </c>
@@ -9012,8 +10227,10 @@
       </c>
       <c r="Q299" s="1"/>
       <c r="S299" s="1"/>
-    </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U299" s="1"/>
+      <c r="W299" s="1"/>
+    </row>
+    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
         <v>646</v>
       </c>
@@ -9039,8 +10256,10 @@
       </c>
       <c r="Q300" s="1"/>
       <c r="S300" s="1"/>
-    </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U300" s="1"/>
+      <c r="W300" s="1"/>
+    </row>
+    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
         <v>699</v>
       </c>
@@ -9066,8 +10285,10 @@
       </c>
       <c r="Q301" s="1"/>
       <c r="S301" s="1"/>
-    </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U301" s="1"/>
+      <c r="W301" s="1"/>
+    </row>
+    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>113</v>
       </c>
@@ -9093,8 +10314,10 @@
       </c>
       <c r="Q302" s="1"/>
       <c r="S302" s="1"/>
-    </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U302" s="1"/>
+      <c r="W302" s="1"/>
+    </row>
+    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>1598</v>
       </c>
@@ -9120,8 +10343,10 @@
       </c>
       <c r="Q303" s="1"/>
       <c r="S303" s="1"/>
-    </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U303" s="1"/>
+      <c r="W303" s="1"/>
+    </row>
+    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
         <v>206</v>
       </c>
@@ -9145,8 +10370,10 @@
       </c>
       <c r="Q304" s="1"/>
       <c r="S304" s="1"/>
-    </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U304" s="1"/>
+      <c r="W304" s="1"/>
+    </row>
+    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
         <v>327</v>
       </c>
@@ -9170,8 +10397,10 @@
       </c>
       <c r="Q305" s="1"/>
       <c r="S305" s="1"/>
-    </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U305" s="1"/>
+      <c r="W305" s="1"/>
+    </row>
+    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
         <v>966</v>
       </c>
@@ -9195,8 +10424,10 @@
       </c>
       <c r="Q306" s="1"/>
       <c r="S306" s="1"/>
-    </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U306" s="1"/>
+      <c r="W306" s="1"/>
+    </row>
+    <row r="307" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
         <v>1012</v>
       </c>
@@ -9220,8 +10451,10 @@
       </c>
       <c r="Q307" s="1"/>
       <c r="S307" s="1"/>
-    </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U307" s="1"/>
+      <c r="W307" s="1"/>
+    </row>
+    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
         <v>418</v>
       </c>
@@ -9241,7 +10474,7 @@
       <c r="N308" s="4"/>
       <c r="O308" s="4"/>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
         <v>609</v>
       </c>
@@ -9261,7 +10494,7 @@
       <c r="N309" s="4"/>
       <c r="O309" s="4"/>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
         <v>373</v>
       </c>
@@ -9281,7 +10514,7 @@
       <c r="N310" s="4"/>
       <c r="O310" s="4"/>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
         <v>571</v>
       </c>
@@ -9301,7 +10534,7 @@
       <c r="N311" s="4"/>
       <c r="O311" s="4"/>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
         <v>1954</v>
       </c>
@@ -9321,7 +10554,7 @@
       <c r="N312" s="4"/>
       <c r="O312" s="4"/>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
         <v>817</v>
       </c>
@@ -9341,7 +10574,7 @@
       <c r="N313" s="4"/>
       <c r="O313" s="4"/>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
         <v>202</v>
       </c>
@@ -9361,7 +10594,7 @@
       <c r="N314" s="4"/>
       <c r="O314" s="4"/>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
         <v>350</v>
       </c>
@@ -9381,7 +10614,7 @@
       <c r="N315" s="4"/>
       <c r="O315" s="4"/>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
         <v>183</v>
       </c>
@@ -9401,7 +10634,7 @@
       <c r="N316" s="4"/>
       <c r="O316" s="4"/>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
         <v>756</v>
       </c>
@@ -9421,7 +10654,7 @@
       <c r="N317" s="4"/>
       <c r="O317" s="4"/>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
         <v>333</v>
       </c>
@@ -9441,7 +10674,7 @@
       <c r="N318" s="4"/>
       <c r="O318" s="4"/>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
         <v>1534</v>
       </c>
@@ -9461,7 +10694,7 @@
       <c r="N319" s="4"/>
       <c r="O319" s="4"/>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
         <v>592</v>
       </c>

--- a/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
+++ b/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
@@ -681,7 +681,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W14" sqref="W14"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
+++ b/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
@@ -343,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -362,6 +362,9 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,9 +682,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,24 +741,30 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="M1" s="7"/>
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="O1" s="7"/>
+      <c r="P1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="S1" s="7"/>
+      <c r="T1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="U1" s="7"/>
+      <c r="V1" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="W1" s="7"/>
       <c r="X1" s="3" t="s">
         <v>17</v>
       </c>
@@ -11369,6 +11378,14 @@
       <c r="O356" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
+++ b/Thesis/Microstructure/Ti-6242/Heat Treatment/Volume Fraction.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ti6242-1.1.1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ti6242-1.1.1-HT900" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -273,8 +274,162 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Sharan Chandran</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sharan Chandran:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Micro marker was Trimmed - 960*1280</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sharan Chandran:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Micro marker was Trimmed - 960*1280</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sharan Chandran:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Micro marker was Trimmed - 960*1280</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sharan Chandran:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Micro marker was Trimmed - 960*1280</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sharan Chandran:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Micro marker was Trimmed - 960*1280</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sharan Chandran:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Micro marker was Trimmed - 960*1280</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="14">
   <si>
     <t>Area of ROI</t>
   </si>
@@ -385,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -404,6 +559,9 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -724,9 +882,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T360"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:I1048576"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,46 +913,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7" t="s">
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7" t="s">
+      <c r="R1" s="8"/>
+      <c r="S1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="7"/>
+      <c r="T1" s="8"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -11766,4 +11924,4944 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L356"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4">
+        <f>960*1280</f>
+        <v>1228800</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="4">
+        <f>960*1280</f>
+        <v>1228800</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="4">
+        <f>960*1280</f>
+        <v>1228800</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
+        <f>960*1280</f>
+        <v>1228800</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="4">
+        <f>960*1280</f>
+        <v>1228800</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="4">
+        <f>960*1280</f>
+        <v>1228800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2">
+        <f>SUM(A:A)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2">
+        <f>SUM(C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2">
+        <f>SUM(E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="2">
+        <f>SUM(G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="2">
+        <f>SUM(I:I)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="2">
+        <f>SUM(K:K)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <v>0.29881000000000002</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="6">
+        <v>0.33901999999999999</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6">
+        <f>(F5/F3)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6">
+        <v>0.29881000000000002</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="6">
+        <v>0.33901999999999999</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="6">
+        <f>(L5/L3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="6">
+        <v>0.10589999999999999</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6">
+        <v>9.6820000000000003E-2</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="6">
+        <v>0.10589999999999999</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="6">
+        <v>9.6820000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="4"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="4"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="4"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="4"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="4"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="4"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="4"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" s="4"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="4"/>
+      <c r="H187" s="4"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" s="4"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="4"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" s="4"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="4"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" s="4"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="4"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="1"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" s="4"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="4"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" s="4"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" s="4"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="4"/>
+      <c r="H193" s="4"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" s="4"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="4"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" s="4"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="4"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" s="4"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" s="4"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="4"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" s="4"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="4"/>
+      <c r="H198" s="4"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" s="4"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="4"/>
+      <c r="H199" s="4"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" s="4"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="4"/>
+      <c r="H200" s="4"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201" s="4"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="4"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" s="4"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="4"/>
+      <c r="H202" s="4"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A203" s="4"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="4"/>
+      <c r="H203" s="4"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A204" s="4"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="4"/>
+      <c r="H204" s="4"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" s="4"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="4"/>
+      <c r="H205" s="4"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="1"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206" s="4"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="4"/>
+      <c r="H206" s="4"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207" s="4"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="4"/>
+      <c r="H207" s="4"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" s="4"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" s="4"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="4"/>
+      <c r="H209" s="4"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" s="4"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="4"/>
+      <c r="H210" s="4"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" s="4"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" s="4"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="4"/>
+      <c r="H212" s="4"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213" s="4"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="4"/>
+      <c r="H213" s="4"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" s="4"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="4"/>
+      <c r="H214" s="4"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" s="4"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="4"/>
+      <c r="H215" s="4"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" s="4"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="4"/>
+      <c r="H216" s="4"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A217" s="4"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="4"/>
+      <c r="H217" s="4"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218" s="4"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="4"/>
+      <c r="H218" s="4"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A219" s="4"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="4"/>
+      <c r="H219" s="4"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A220" s="4"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="4"/>
+      <c r="H220" s="4"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A221" s="4"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="4"/>
+      <c r="H221" s="4"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A222" s="4"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="4"/>
+      <c r="H222" s="4"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+      <c r="L222" s="1"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A223" s="4"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="4"/>
+      <c r="H223" s="4"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="1"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A224" s="4"/>
+      <c r="B224" s="4"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="4"/>
+      <c r="H224" s="4"/>
+      <c r="I224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+      <c r="L224" s="1"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225" s="4"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="4"/>
+      <c r="H225" s="4"/>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+      <c r="L225" s="1"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226" s="4"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="4"/>
+      <c r="H226" s="4"/>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+      <c r="L226" s="1"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A227" s="4"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="4"/>
+      <c r="H227" s="4"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="1"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A228" s="4"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="4"/>
+      <c r="H228" s="4"/>
+      <c r="I228" s="1"/>
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+      <c r="L228" s="1"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A229" s="4"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="4"/>
+      <c r="H229" s="4"/>
+      <c r="I229" s="1"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A230" s="4"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="4"/>
+      <c r="H230" s="4"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A231" s="4"/>
+      <c r="B231" s="4"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="4"/>
+      <c r="H231" s="4"/>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A232" s="4"/>
+      <c r="B232" s="4"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="4"/>
+      <c r="H232" s="4"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A233" s="4"/>
+      <c r="B233" s="4"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="4"/>
+      <c r="H233" s="4"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A234" s="4"/>
+      <c r="B234" s="4"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="4"/>
+      <c r="H234" s="4"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="1"/>
+      <c r="K234" s="1"/>
+      <c r="L234" s="1"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A235" s="4"/>
+      <c r="B235" s="4"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="4"/>
+      <c r="H235" s="4"/>
+      <c r="I235" s="1"/>
+      <c r="J235" s="1"/>
+      <c r="K235" s="1"/>
+      <c r="L235" s="1"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A236" s="4"/>
+      <c r="B236" s="4"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="4"/>
+      <c r="H236" s="4"/>
+      <c r="I236" s="1"/>
+      <c r="J236" s="1"/>
+      <c r="K236" s="1"/>
+      <c r="L236" s="1"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A237" s="4"/>
+      <c r="B237" s="4"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="4"/>
+      <c r="H237" s="4"/>
+      <c r="I237" s="1"/>
+      <c r="J237" s="1"/>
+      <c r="K237" s="1"/>
+      <c r="L237" s="1"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A238" s="4"/>
+      <c r="B238" s="4"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="4"/>
+      <c r="H238" s="4"/>
+      <c r="I238" s="1"/>
+      <c r="J238" s="1"/>
+      <c r="K238" s="1"/>
+      <c r="L238" s="1"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A239" s="4"/>
+      <c r="B239" s="4"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="4"/>
+      <c r="H239" s="4"/>
+      <c r="I239" s="1"/>
+      <c r="J239" s="1"/>
+      <c r="K239" s="1"/>
+      <c r="L239" s="1"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A240" s="4"/>
+      <c r="B240" s="4"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="4"/>
+      <c r="H240" s="4"/>
+      <c r="I240" s="1"/>
+      <c r="J240" s="1"/>
+      <c r="K240" s="1"/>
+      <c r="L240" s="1"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A241" s="4"/>
+      <c r="B241" s="4"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+      <c r="G241" s="4"/>
+      <c r="H241" s="4"/>
+      <c r="I241" s="1"/>
+      <c r="J241" s="1"/>
+      <c r="K241" s="1"/>
+      <c r="L241" s="1"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A242" s="4"/>
+      <c r="B242" s="4"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="4"/>
+      <c r="H242" s="4"/>
+      <c r="I242" s="1"/>
+      <c r="J242" s="1"/>
+      <c r="K242" s="1"/>
+      <c r="L242" s="1"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A243" s="4"/>
+      <c r="B243" s="4"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
+      <c r="G243" s="4"/>
+      <c r="H243" s="4"/>
+      <c r="I243" s="1"/>
+      <c r="J243" s="1"/>
+      <c r="K243" s="1"/>
+      <c r="L243" s="1"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A244" s="4"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+      <c r="G244" s="4"/>
+      <c r="H244" s="4"/>
+      <c r="I244" s="1"/>
+      <c r="J244" s="1"/>
+      <c r="K244" s="1"/>
+      <c r="L244" s="1"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A245" s="4"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="4"/>
+      <c r="H245" s="4"/>
+      <c r="I245" s="1"/>
+      <c r="J245" s="1"/>
+      <c r="K245" s="1"/>
+      <c r="L245" s="1"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A246" s="4"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+      <c r="G246" s="4"/>
+      <c r="H246" s="4"/>
+      <c r="I246" s="1"/>
+      <c r="J246" s="1"/>
+      <c r="K246" s="1"/>
+      <c r="L246" s="1"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A247" s="4"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="4"/>
+      <c r="H247" s="4"/>
+      <c r="I247" s="1"/>
+      <c r="J247" s="1"/>
+      <c r="K247" s="1"/>
+      <c r="L247" s="1"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A248" s="4"/>
+      <c r="B248" s="4"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="4"/>
+      <c r="H248" s="4"/>
+      <c r="I248" s="1"/>
+      <c r="J248" s="1"/>
+      <c r="K248" s="1"/>
+      <c r="L248" s="1"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A249" s="4"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="4"/>
+      <c r="H249" s="4"/>
+      <c r="I249" s="1"/>
+      <c r="J249" s="1"/>
+      <c r="K249" s="1"/>
+      <c r="L249" s="1"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A250" s="4"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="4"/>
+      <c r="H250" s="4"/>
+      <c r="I250" s="1"/>
+      <c r="J250" s="1"/>
+      <c r="K250" s="1"/>
+      <c r="L250" s="1"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A251" s="4"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="4"/>
+      <c r="H251" s="4"/>
+      <c r="I251" s="1"/>
+      <c r="J251" s="1"/>
+      <c r="K251" s="1"/>
+      <c r="L251" s="1"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A252" s="4"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="4"/>
+      <c r="H252" s="4"/>
+      <c r="I252" s="1"/>
+      <c r="J252" s="1"/>
+      <c r="K252" s="1"/>
+      <c r="L252" s="1"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A253" s="4"/>
+      <c r="B253" s="4"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+      <c r="G253" s="4"/>
+      <c r="H253" s="4"/>
+      <c r="I253" s="1"/>
+      <c r="J253" s="1"/>
+      <c r="K253" s="1"/>
+      <c r="L253" s="1"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A254" s="4"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1"/>
+      <c r="G254" s="4"/>
+      <c r="H254" s="4"/>
+      <c r="I254" s="1"/>
+      <c r="J254" s="1"/>
+      <c r="K254" s="1"/>
+      <c r="L254" s="1"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A255" s="4"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1"/>
+      <c r="G255" s="4"/>
+      <c r="H255" s="4"/>
+      <c r="I255" s="1"/>
+      <c r="J255" s="1"/>
+      <c r="K255" s="1"/>
+      <c r="L255" s="1"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A256" s="4"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="4"/>
+      <c r="H256" s="4"/>
+      <c r="I256" s="1"/>
+      <c r="J256" s="1"/>
+      <c r="K256" s="1"/>
+      <c r="L256" s="1"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A257" s="4"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1"/>
+      <c r="G257" s="4"/>
+      <c r="H257" s="4"/>
+      <c r="I257" s="1"/>
+      <c r="J257" s="1"/>
+      <c r="K257" s="1"/>
+      <c r="L257" s="1"/>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A258" s="4"/>
+      <c r="B258" s="4"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1"/>
+      <c r="G258" s="4"/>
+      <c r="H258" s="4"/>
+      <c r="I258" s="1"/>
+      <c r="J258" s="1"/>
+      <c r="K258" s="1"/>
+      <c r="L258" s="1"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A259" s="4"/>
+      <c r="B259" s="4"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1"/>
+      <c r="G259" s="4"/>
+      <c r="H259" s="4"/>
+      <c r="I259" s="1"/>
+      <c r="J259" s="1"/>
+      <c r="K259" s="1"/>
+      <c r="L259" s="1"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A260" s="4"/>
+      <c r="B260" s="4"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="4"/>
+      <c r="H260" s="4"/>
+      <c r="I260" s="1"/>
+      <c r="J260" s="1"/>
+      <c r="K260" s="1"/>
+      <c r="L260" s="1"/>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A261" s="4"/>
+      <c r="B261" s="4"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="4"/>
+      <c r="H261" s="4"/>
+      <c r="I261" s="1"/>
+      <c r="J261" s="1"/>
+      <c r="K261" s="1"/>
+      <c r="L261" s="1"/>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A262" s="4"/>
+      <c r="B262" s="4"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="4"/>
+      <c r="H262" s="4"/>
+      <c r="I262" s="1"/>
+      <c r="J262" s="1"/>
+      <c r="K262" s="1"/>
+      <c r="L262" s="1"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A263" s="4"/>
+      <c r="B263" s="4"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+      <c r="G263" s="4"/>
+      <c r="H263" s="4"/>
+      <c r="I263" s="1"/>
+      <c r="J263" s="1"/>
+      <c r="K263" s="1"/>
+      <c r="L263" s="1"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A264" s="4"/>
+      <c r="B264" s="4"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+      <c r="G264" s="4"/>
+      <c r="H264" s="4"/>
+      <c r="I264" s="1"/>
+      <c r="J264" s="1"/>
+      <c r="K264" s="1"/>
+      <c r="L264" s="1"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A265" s="4"/>
+      <c r="B265" s="4"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+      <c r="G265" s="4"/>
+      <c r="H265" s="4"/>
+      <c r="I265" s="1"/>
+      <c r="J265" s="1"/>
+      <c r="K265" s="1"/>
+      <c r="L265" s="1"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A266" s="4"/>
+      <c r="B266" s="4"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
+      <c r="G266" s="4"/>
+      <c r="H266" s="4"/>
+      <c r="I266" s="1"/>
+      <c r="J266" s="1"/>
+      <c r="K266" s="1"/>
+      <c r="L266" s="1"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A267" s="4"/>
+      <c r="B267" s="4"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+      <c r="G267" s="4"/>
+      <c r="H267" s="4"/>
+      <c r="I267" s="1"/>
+      <c r="J267" s="1"/>
+      <c r="K267" s="1"/>
+      <c r="L267" s="1"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A268" s="4"/>
+      <c r="B268" s="4"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+      <c r="G268" s="4"/>
+      <c r="H268" s="4"/>
+      <c r="I268" s="1"/>
+      <c r="J268" s="1"/>
+      <c r="K268" s="1"/>
+      <c r="L268" s="1"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A269" s="4"/>
+      <c r="B269" s="4"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+      <c r="G269" s="4"/>
+      <c r="H269" s="4"/>
+      <c r="I269" s="1"/>
+      <c r="J269" s="1"/>
+      <c r="K269" s="1"/>
+      <c r="L269" s="1"/>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A270" s="4"/>
+      <c r="B270" s="4"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+      <c r="G270" s="4"/>
+      <c r="H270" s="4"/>
+      <c r="I270" s="1"/>
+      <c r="J270" s="1"/>
+      <c r="K270" s="1"/>
+      <c r="L270" s="1"/>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A271" s="4"/>
+      <c r="B271" s="4"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
+      <c r="G271" s="4"/>
+      <c r="H271" s="4"/>
+      <c r="I271" s="1"/>
+      <c r="J271" s="1"/>
+      <c r="K271" s="1"/>
+      <c r="L271" s="1"/>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A272" s="4"/>
+      <c r="B272" s="4"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+      <c r="G272" s="4"/>
+      <c r="H272" s="4"/>
+      <c r="I272" s="1"/>
+      <c r="J272" s="1"/>
+      <c r="K272" s="1"/>
+      <c r="L272" s="1"/>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A273" s="4"/>
+      <c r="B273" s="4"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="1"/>
+      <c r="G273" s="4"/>
+      <c r="H273" s="4"/>
+      <c r="I273" s="1"/>
+      <c r="J273" s="1"/>
+      <c r="K273" s="1"/>
+      <c r="L273" s="1"/>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A274" s="4"/>
+      <c r="B274" s="4"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
+      <c r="G274" s="4"/>
+      <c r="H274" s="4"/>
+      <c r="I274" s="1"/>
+      <c r="J274" s="1"/>
+      <c r="K274" s="1"/>
+      <c r="L274" s="1"/>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A275" s="4"/>
+      <c r="B275" s="4"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
+      <c r="G275" s="4"/>
+      <c r="H275" s="4"/>
+      <c r="I275" s="1"/>
+      <c r="J275" s="1"/>
+      <c r="K275" s="1"/>
+      <c r="L275" s="1"/>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A276" s="4"/>
+      <c r="B276" s="4"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+      <c r="G276" s="4"/>
+      <c r="H276" s="4"/>
+      <c r="I276" s="1"/>
+      <c r="J276" s="1"/>
+      <c r="K276" s="1"/>
+      <c r="L276" s="1"/>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A277" s="4"/>
+      <c r="B277" s="4"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+      <c r="G277" s="4"/>
+      <c r="H277" s="4"/>
+      <c r="I277" s="1"/>
+      <c r="J277" s="1"/>
+      <c r="K277" s="1"/>
+      <c r="L277" s="1"/>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A278" s="4"/>
+      <c r="B278" s="4"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="1"/>
+      <c r="G278" s="4"/>
+      <c r="H278" s="4"/>
+      <c r="I278" s="1"/>
+      <c r="J278" s="1"/>
+      <c r="K278" s="1"/>
+      <c r="L278" s="1"/>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A279" s="4"/>
+      <c r="B279" s="4"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
+      <c r="G279" s="4"/>
+      <c r="H279" s="4"/>
+      <c r="I279" s="1"/>
+      <c r="J279" s="1"/>
+      <c r="K279" s="1"/>
+      <c r="L279" s="1"/>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A280" s="4"/>
+      <c r="B280" s="4"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+      <c r="F280" s="1"/>
+      <c r="G280" s="4"/>
+      <c r="H280" s="4"/>
+      <c r="I280" s="1"/>
+      <c r="J280" s="1"/>
+      <c r="K280" s="1"/>
+      <c r="L280" s="1"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A281" s="4"/>
+      <c r="B281" s="4"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="1"/>
+      <c r="G281" s="4"/>
+      <c r="H281" s="4"/>
+      <c r="I281" s="1"/>
+      <c r="J281" s="1"/>
+      <c r="K281" s="1"/>
+      <c r="L281" s="1"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A282" s="4"/>
+      <c r="B282" s="4"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
+      <c r="G282" s="4"/>
+      <c r="H282" s="4"/>
+      <c r="I282" s="1"/>
+      <c r="J282" s="1"/>
+      <c r="K282" s="1"/>
+      <c r="L282" s="1"/>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A283" s="4"/>
+      <c r="B283" s="4"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="1"/>
+      <c r="G283" s="4"/>
+      <c r="H283" s="4"/>
+      <c r="I283" s="1"/>
+      <c r="J283" s="1"/>
+      <c r="K283" s="1"/>
+      <c r="L283" s="1"/>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A284" s="4"/>
+      <c r="B284" s="4"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
+      <c r="G284" s="4"/>
+      <c r="H284" s="4"/>
+      <c r="I284" s="1"/>
+      <c r="J284" s="1"/>
+      <c r="K284" s="1"/>
+      <c r="L284" s="1"/>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A285" s="4"/>
+      <c r="B285" s="4"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
+      <c r="G285" s="4"/>
+      <c r="H285" s="4"/>
+      <c r="I285" s="1"/>
+      <c r="J285" s="1"/>
+      <c r="K285" s="1"/>
+      <c r="L285" s="1"/>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A286" s="4"/>
+      <c r="B286" s="4"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+      <c r="G286" s="4"/>
+      <c r="H286" s="4"/>
+      <c r="I286" s="1"/>
+      <c r="J286" s="1"/>
+      <c r="K286" s="1"/>
+      <c r="L286" s="1"/>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A287" s="4"/>
+      <c r="B287" s="4"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+      <c r="G287" s="4"/>
+      <c r="H287" s="4"/>
+      <c r="I287" s="1"/>
+      <c r="J287" s="1"/>
+      <c r="K287" s="1"/>
+      <c r="L287" s="1"/>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A288" s="4"/>
+      <c r="B288" s="4"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+      <c r="G288" s="4"/>
+      <c r="H288" s="4"/>
+      <c r="I288" s="1"/>
+      <c r="J288" s="1"/>
+      <c r="K288" s="1"/>
+      <c r="L288" s="1"/>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A289" s="4"/>
+      <c r="B289" s="4"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
+      <c r="G289" s="4"/>
+      <c r="H289" s="4"/>
+      <c r="I289" s="1"/>
+      <c r="J289" s="1"/>
+      <c r="K289" s="1"/>
+      <c r="L289" s="1"/>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A290" s="4"/>
+      <c r="B290" s="4"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+      <c r="G290" s="4"/>
+      <c r="H290" s="4"/>
+      <c r="I290" s="1"/>
+      <c r="J290" s="1"/>
+      <c r="K290" s="1"/>
+      <c r="L290" s="1"/>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A291" s="4"/>
+      <c r="B291" s="4"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+      <c r="G291" s="4"/>
+      <c r="H291" s="4"/>
+      <c r="I291" s="1"/>
+      <c r="J291" s="1"/>
+      <c r="K291" s="1"/>
+      <c r="L291" s="1"/>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A292" s="4"/>
+      <c r="B292" s="4"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+      <c r="G292" s="4"/>
+      <c r="H292" s="4"/>
+      <c r="I292" s="1"/>
+      <c r="J292" s="1"/>
+      <c r="K292" s="1"/>
+      <c r="L292" s="1"/>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A293" s="4"/>
+      <c r="B293" s="4"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+      <c r="G293" s="4"/>
+      <c r="H293" s="4"/>
+      <c r="I293" s="1"/>
+      <c r="J293" s="1"/>
+      <c r="K293" s="1"/>
+      <c r="L293" s="1"/>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A294" s="4"/>
+      <c r="B294" s="4"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+      <c r="G294" s="4"/>
+      <c r="H294" s="4"/>
+      <c r="I294" s="1"/>
+      <c r="J294" s="1"/>
+      <c r="K294" s="1"/>
+      <c r="L294" s="1"/>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A295" s="4"/>
+      <c r="B295" s="4"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+      <c r="G295" s="4"/>
+      <c r="H295" s="4"/>
+      <c r="I295" s="1"/>
+      <c r="J295" s="1"/>
+      <c r="K295" s="1"/>
+      <c r="L295" s="1"/>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A296" s="4"/>
+      <c r="B296" s="4"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+      <c r="F296" s="1"/>
+      <c r="G296" s="4"/>
+      <c r="H296" s="4"/>
+      <c r="I296" s="1"/>
+      <c r="J296" s="1"/>
+      <c r="K296" s="1"/>
+      <c r="L296" s="1"/>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A297" s="4"/>
+      <c r="B297" s="4"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+      <c r="G297" s="4"/>
+      <c r="H297" s="4"/>
+      <c r="I297" s="1"/>
+      <c r="J297" s="1"/>
+      <c r="K297" s="1"/>
+      <c r="L297" s="1"/>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A298" s="4"/>
+      <c r="B298" s="4"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
+      <c r="G298" s="4"/>
+      <c r="H298" s="4"/>
+      <c r="I298" s="1"/>
+      <c r="J298" s="1"/>
+      <c r="K298" s="1"/>
+      <c r="L298" s="1"/>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A299" s="4"/>
+      <c r="B299" s="4"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
+      <c r="G299" s="4"/>
+      <c r="H299" s="4"/>
+      <c r="I299" s="1"/>
+      <c r="J299" s="1"/>
+      <c r="K299" s="1"/>
+      <c r="L299" s="1"/>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A300" s="4"/>
+      <c r="B300" s="4"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+      <c r="G300" s="4"/>
+      <c r="H300" s="4"/>
+      <c r="I300" s="1"/>
+      <c r="J300" s="1"/>
+      <c r="K300" s="1"/>
+      <c r="L300" s="1"/>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A301" s="4"/>
+      <c r="B301" s="4"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+      <c r="G301" s="4"/>
+      <c r="H301" s="4"/>
+      <c r="I301" s="1"/>
+      <c r="J301" s="1"/>
+      <c r="K301" s="1"/>
+      <c r="L301" s="1"/>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A302" s="4"/>
+      <c r="B302" s="4"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
+      <c r="G302" s="4"/>
+      <c r="H302" s="4"/>
+      <c r="I302" s="1"/>
+      <c r="J302" s="1"/>
+      <c r="K302" s="1"/>
+      <c r="L302" s="1"/>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A303" s="4"/>
+      <c r="B303" s="4"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+      <c r="F303" s="1"/>
+      <c r="G303" s="4"/>
+      <c r="H303" s="4"/>
+      <c r="I303" s="1"/>
+      <c r="J303" s="1"/>
+      <c r="K303" s="1"/>
+      <c r="L303" s="1"/>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A304" s="4"/>
+      <c r="B304" s="4"/>
+      <c r="C304" s="4"/>
+      <c r="D304" s="4"/>
+      <c r="E304" s="1"/>
+      <c r="F304" s="1"/>
+      <c r="G304" s="4"/>
+      <c r="H304" s="4"/>
+      <c r="I304" s="4"/>
+      <c r="J304" s="4"/>
+      <c r="K304" s="1"/>
+      <c r="L304" s="1"/>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A305" s="4"/>
+      <c r="B305" s="4"/>
+      <c r="C305" s="4"/>
+      <c r="D305" s="4"/>
+      <c r="E305" s="1"/>
+      <c r="F305" s="1"/>
+      <c r="G305" s="4"/>
+      <c r="H305" s="4"/>
+      <c r="I305" s="4"/>
+      <c r="J305" s="4"/>
+      <c r="K305" s="1"/>
+      <c r="L305" s="1"/>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A306" s="4"/>
+      <c r="B306" s="4"/>
+      <c r="C306" s="4"/>
+      <c r="D306" s="4"/>
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+      <c r="G306" s="4"/>
+      <c r="H306" s="4"/>
+      <c r="I306" s="4"/>
+      <c r="J306" s="4"/>
+      <c r="K306" s="1"/>
+      <c r="L306" s="1"/>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A307" s="4"/>
+      <c r="B307" s="4"/>
+      <c r="C307" s="4"/>
+      <c r="D307" s="4"/>
+      <c r="E307" s="1"/>
+      <c r="F307" s="1"/>
+      <c r="G307" s="4"/>
+      <c r="H307" s="4"/>
+      <c r="I307" s="4"/>
+      <c r="J307" s="4"/>
+      <c r="K307" s="1"/>
+      <c r="L307" s="1"/>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A308" s="4"/>
+      <c r="B308" s="4"/>
+      <c r="C308" s="4"/>
+      <c r="D308" s="4"/>
+      <c r="G308" s="4"/>
+      <c r="H308" s="4"/>
+      <c r="I308" s="4"/>
+      <c r="J308" s="4"/>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A309" s="4"/>
+      <c r="B309" s="4"/>
+      <c r="C309" s="4"/>
+      <c r="D309" s="4"/>
+      <c r="G309" s="4"/>
+      <c r="H309" s="4"/>
+      <c r="I309" s="4"/>
+      <c r="J309" s="4"/>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A310" s="4"/>
+      <c r="B310" s="4"/>
+      <c r="C310" s="4"/>
+      <c r="D310" s="4"/>
+      <c r="G310" s="4"/>
+      <c r="H310" s="4"/>
+      <c r="I310" s="4"/>
+      <c r="J310" s="4"/>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A311" s="4"/>
+      <c r="B311" s="4"/>
+      <c r="C311" s="4"/>
+      <c r="D311" s="4"/>
+      <c r="G311" s="4"/>
+      <c r="H311" s="4"/>
+      <c r="I311" s="4"/>
+      <c r="J311" s="4"/>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A312" s="4"/>
+      <c r="B312" s="4"/>
+      <c r="C312" s="4"/>
+      <c r="D312" s="4"/>
+      <c r="G312" s="4"/>
+      <c r="H312" s="4"/>
+      <c r="I312" s="4"/>
+      <c r="J312" s="4"/>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A313" s="4"/>
+      <c r="B313" s="4"/>
+      <c r="C313" s="4"/>
+      <c r="D313" s="4"/>
+      <c r="G313" s="4"/>
+      <c r="H313" s="4"/>
+      <c r="I313" s="4"/>
+      <c r="J313" s="4"/>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A314" s="4"/>
+      <c r="B314" s="4"/>
+      <c r="C314" s="4"/>
+      <c r="D314" s="4"/>
+      <c r="G314" s="4"/>
+      <c r="H314" s="4"/>
+      <c r="I314" s="4"/>
+      <c r="J314" s="4"/>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A315" s="4"/>
+      <c r="B315" s="4"/>
+      <c r="C315" s="4"/>
+      <c r="D315" s="4"/>
+      <c r="G315" s="4"/>
+      <c r="H315" s="4"/>
+      <c r="I315" s="4"/>
+      <c r="J315" s="4"/>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A316" s="4"/>
+      <c r="B316" s="4"/>
+      <c r="C316" s="4"/>
+      <c r="D316" s="4"/>
+      <c r="G316" s="4"/>
+      <c r="H316" s="4"/>
+      <c r="I316" s="4"/>
+      <c r="J316" s="4"/>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A317" s="4"/>
+      <c r="B317" s="4"/>
+      <c r="C317" s="4"/>
+      <c r="D317" s="4"/>
+      <c r="G317" s="4"/>
+      <c r="H317" s="4"/>
+      <c r="I317" s="4"/>
+      <c r="J317" s="4"/>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A318" s="4"/>
+      <c r="B318" s="4"/>
+      <c r="C318" s="4"/>
+      <c r="D318" s="4"/>
+      <c r="G318" s="4"/>
+      <c r="H318" s="4"/>
+      <c r="I318" s="4"/>
+      <c r="J318" s="4"/>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A319" s="4"/>
+      <c r="B319" s="4"/>
+      <c r="C319" s="4"/>
+      <c r="D319" s="4"/>
+      <c r="G319" s="4"/>
+      <c r="H319" s="4"/>
+      <c r="I319" s="4"/>
+      <c r="J319" s="4"/>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A320" s="4"/>
+      <c r="B320" s="4"/>
+      <c r="C320" s="4"/>
+      <c r="D320" s="4"/>
+      <c r="G320" s="4"/>
+      <c r="H320" s="4"/>
+      <c r="I320" s="4"/>
+      <c r="J320" s="4"/>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A321" s="4"/>
+      <c r="B321" s="4"/>
+      <c r="C321" s="4"/>
+      <c r="D321" s="4"/>
+      <c r="G321" s="4"/>
+      <c r="H321" s="4"/>
+      <c r="I321" s="4"/>
+      <c r="J321" s="4"/>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A322" s="4"/>
+      <c r="B322" s="4"/>
+      <c r="C322" s="4"/>
+      <c r="D322" s="4"/>
+      <c r="G322" s="4"/>
+      <c r="H322" s="4"/>
+      <c r="I322" s="4"/>
+      <c r="J322" s="4"/>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A323" s="4"/>
+      <c r="B323" s="4"/>
+      <c r="C323" s="4"/>
+      <c r="D323" s="4"/>
+      <c r="G323" s="4"/>
+      <c r="H323" s="4"/>
+      <c r="I323" s="4"/>
+      <c r="J323" s="4"/>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A324" s="4"/>
+      <c r="B324" s="4"/>
+      <c r="C324" s="4"/>
+      <c r="D324" s="4"/>
+      <c r="G324" s="4"/>
+      <c r="H324" s="4"/>
+      <c r="I324" s="4"/>
+      <c r="J324" s="4"/>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A325" s="4"/>
+      <c r="B325" s="4"/>
+      <c r="C325" s="4"/>
+      <c r="D325" s="4"/>
+      <c r="G325" s="4"/>
+      <c r="H325" s="4"/>
+      <c r="I325" s="4"/>
+      <c r="J325" s="4"/>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A326" s="4"/>
+      <c r="B326" s="4"/>
+      <c r="C326" s="4"/>
+      <c r="D326" s="4"/>
+      <c r="G326" s="4"/>
+      <c r="H326" s="4"/>
+      <c r="I326" s="4"/>
+      <c r="J326" s="4"/>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A327" s="4"/>
+      <c r="B327" s="4"/>
+      <c r="C327" s="4"/>
+      <c r="D327" s="4"/>
+      <c r="G327" s="4"/>
+      <c r="H327" s="4"/>
+      <c r="I327" s="4"/>
+      <c r="J327" s="4"/>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A328" s="4"/>
+      <c r="B328" s="4"/>
+      <c r="C328" s="4"/>
+      <c r="D328" s="4"/>
+      <c r="G328" s="4"/>
+      <c r="H328" s="4"/>
+      <c r="I328" s="4"/>
+      <c r="J328" s="4"/>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A329" s="4"/>
+      <c r="B329" s="4"/>
+      <c r="C329" s="4"/>
+      <c r="D329" s="4"/>
+      <c r="G329" s="4"/>
+      <c r="H329" s="4"/>
+      <c r="I329" s="4"/>
+      <c r="J329" s="4"/>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A330" s="4"/>
+      <c r="B330" s="4"/>
+      <c r="C330" s="4"/>
+      <c r="D330" s="4"/>
+      <c r="G330" s="4"/>
+      <c r="H330" s="4"/>
+      <c r="I330" s="4"/>
+      <c r="J330" s="4"/>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A331" s="4"/>
+      <c r="B331" s="4"/>
+      <c r="C331" s="4"/>
+      <c r="D331" s="4"/>
+      <c r="G331" s="4"/>
+      <c r="H331" s="4"/>
+      <c r="I331" s="4"/>
+      <c r="J331" s="4"/>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A332" s="4"/>
+      <c r="B332" s="4"/>
+      <c r="C332" s="4"/>
+      <c r="D332" s="4"/>
+      <c r="G332" s="4"/>
+      <c r="H332" s="4"/>
+      <c r="I332" s="4"/>
+      <c r="J332" s="4"/>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A333" s="4"/>
+      <c r="B333" s="4"/>
+      <c r="C333" s="4"/>
+      <c r="D333" s="4"/>
+      <c r="G333" s="4"/>
+      <c r="H333" s="4"/>
+      <c r="I333" s="4"/>
+      <c r="J333" s="4"/>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A334" s="4"/>
+      <c r="B334" s="4"/>
+      <c r="C334" s="4"/>
+      <c r="D334" s="4"/>
+      <c r="G334" s="4"/>
+      <c r="H334" s="4"/>
+      <c r="I334" s="4"/>
+      <c r="J334" s="4"/>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A335" s="4"/>
+      <c r="B335" s="4"/>
+      <c r="C335" s="4"/>
+      <c r="D335" s="4"/>
+      <c r="G335" s="4"/>
+      <c r="H335" s="4"/>
+      <c r="I335" s="4"/>
+      <c r="J335" s="4"/>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A336" s="4"/>
+      <c r="B336" s="4"/>
+      <c r="C336" s="4"/>
+      <c r="D336" s="4"/>
+      <c r="G336" s="4"/>
+      <c r="H336" s="4"/>
+      <c r="I336" s="4"/>
+      <c r="J336" s="4"/>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A337" s="4"/>
+      <c r="B337" s="4"/>
+      <c r="C337" s="4"/>
+      <c r="D337" s="4"/>
+      <c r="G337" s="4"/>
+      <c r="H337" s="4"/>
+      <c r="I337" s="4"/>
+      <c r="J337" s="4"/>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A338" s="4"/>
+      <c r="B338" s="4"/>
+      <c r="C338" s="4"/>
+      <c r="D338" s="4"/>
+      <c r="G338" s="4"/>
+      <c r="H338" s="4"/>
+      <c r="I338" s="4"/>
+      <c r="J338" s="4"/>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A339" s="4"/>
+      <c r="B339" s="4"/>
+      <c r="C339" s="4"/>
+      <c r="D339" s="4"/>
+      <c r="G339" s="4"/>
+      <c r="H339" s="4"/>
+      <c r="I339" s="4"/>
+      <c r="J339" s="4"/>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A340" s="4"/>
+      <c r="B340" s="4"/>
+      <c r="C340" s="4"/>
+      <c r="D340" s="4"/>
+      <c r="G340" s="4"/>
+      <c r="H340" s="4"/>
+      <c r="I340" s="4"/>
+      <c r="J340" s="4"/>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A341" s="4"/>
+      <c r="B341" s="4"/>
+      <c r="C341" s="4"/>
+      <c r="D341" s="4"/>
+      <c r="G341" s="4"/>
+      <c r="H341" s="4"/>
+      <c r="I341" s="4"/>
+      <c r="J341" s="4"/>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A342" s="4"/>
+      <c r="B342" s="4"/>
+      <c r="C342" s="4"/>
+      <c r="D342" s="4"/>
+      <c r="G342" s="4"/>
+      <c r="H342" s="4"/>
+      <c r="I342" s="4"/>
+      <c r="J342" s="4"/>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A343" s="4"/>
+      <c r="B343" s="4"/>
+      <c r="C343" s="4"/>
+      <c r="D343" s="4"/>
+      <c r="G343" s="4"/>
+      <c r="H343" s="4"/>
+      <c r="I343" s="4"/>
+      <c r="J343" s="4"/>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A344" s="4"/>
+      <c r="B344" s="4"/>
+      <c r="C344" s="4"/>
+      <c r="D344" s="4"/>
+      <c r="G344" s="4"/>
+      <c r="H344" s="4"/>
+      <c r="I344" s="4"/>
+      <c r="J344" s="4"/>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A345" s="4"/>
+      <c r="B345" s="4"/>
+      <c r="C345" s="4"/>
+      <c r="D345" s="4"/>
+      <c r="G345" s="4"/>
+      <c r="H345" s="4"/>
+      <c r="I345" s="4"/>
+      <c r="J345" s="4"/>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A346" s="4"/>
+      <c r="B346" s="4"/>
+      <c r="C346" s="4"/>
+      <c r="D346" s="4"/>
+      <c r="G346" s="4"/>
+      <c r="H346" s="4"/>
+      <c r="I346" s="4"/>
+      <c r="J346" s="4"/>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347" s="4"/>
+      <c r="B347" s="4"/>
+      <c r="C347" s="4"/>
+      <c r="D347" s="4"/>
+      <c r="G347" s="4"/>
+      <c r="H347" s="4"/>
+      <c r="I347" s="4"/>
+      <c r="J347" s="4"/>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A348" s="4"/>
+      <c r="B348" s="4"/>
+      <c r="C348" s="4"/>
+      <c r="D348" s="4"/>
+      <c r="G348" s="4"/>
+      <c r="H348" s="4"/>
+      <c r="I348" s="4"/>
+      <c r="J348" s="4"/>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A349" s="4"/>
+      <c r="B349" s="4"/>
+      <c r="C349" s="4"/>
+      <c r="D349" s="4"/>
+      <c r="G349" s="4"/>
+      <c r="H349" s="4"/>
+      <c r="I349" s="4"/>
+      <c r="J349" s="4"/>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A350" s="4"/>
+      <c r="B350" s="4"/>
+      <c r="C350" s="4"/>
+      <c r="D350" s="4"/>
+      <c r="G350" s="4"/>
+      <c r="H350" s="4"/>
+      <c r="I350" s="4"/>
+      <c r="J350" s="4"/>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A351" s="4"/>
+      <c r="B351" s="4"/>
+      <c r="C351" s="4"/>
+      <c r="D351" s="4"/>
+      <c r="G351" s="4"/>
+      <c r="H351" s="4"/>
+      <c r="I351" s="4"/>
+      <c r="J351" s="4"/>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A352" s="4"/>
+      <c r="B352" s="4"/>
+      <c r="C352" s="4"/>
+      <c r="D352" s="4"/>
+      <c r="G352" s="4"/>
+      <c r="H352" s="4"/>
+      <c r="I352" s="4"/>
+      <c r="J352" s="4"/>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A353" s="4"/>
+      <c r="B353" s="4"/>
+      <c r="C353" s="4"/>
+      <c r="D353" s="4"/>
+      <c r="G353" s="4"/>
+      <c r="H353" s="4"/>
+      <c r="I353" s="4"/>
+      <c r="J353" s="4"/>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A354" s="4"/>
+      <c r="B354" s="4"/>
+      <c r="C354" s="4"/>
+      <c r="D354" s="4"/>
+      <c r="G354" s="4"/>
+      <c r="H354" s="4"/>
+      <c r="I354" s="4"/>
+      <c r="J354" s="4"/>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A355" s="4"/>
+      <c r="B355" s="4"/>
+      <c r="C355" s="4"/>
+      <c r="D355" s="4"/>
+      <c r="G355" s="4"/>
+      <c r="H355" s="4"/>
+      <c r="I355" s="4"/>
+      <c r="J355" s="4"/>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A356" s="4"/>
+      <c r="B356" s="4"/>
+      <c r="C356" s="4"/>
+      <c r="D356" s="4"/>
+      <c r="G356" s="4"/>
+      <c r="H356" s="4"/>
+      <c r="I356" s="4"/>
+      <c r="J356" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>